--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E2626-3DF9-4B1B-8008-193E5C618BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E817C709-67DB-4B92-A2E8-103C830847C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
@@ -733,22 +733,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -761,20 +758,17 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1808,10 +1802,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C10" s="43">
+      <c r="C10" s="37">
         <v>1.78327117391331E-11</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="36">
         <v>0.32977675830352399</v>
       </c>
       <c r="E10" s="1">
@@ -1932,10 +1926,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C12" s="43">
+      <c r="C12" s="37">
         <v>4.46569000533541E-5</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="36">
         <v>0.248652677808505</v>
       </c>
       <c r="E12" s="1">
@@ -1994,10 +1988,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C13" s="43">
+      <c r="C13" s="37">
         <v>3.97713994502554E-5</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <v>0.20761109375564399</v>
       </c>
       <c r="E13" s="1">
@@ -2056,10 +2050,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="43">
+      <c r="C14" s="37">
         <v>2.9038742510633898E-7</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>0.34102252721405601</v>
       </c>
       <c r="E14" s="1">
@@ -2118,10 +2112,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="42">
+      <c r="C15" s="36">
         <v>4.4222802761556601E-2</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <v>0.13647706311230801</v>
       </c>
       <c r="E15" s="1">
@@ -2242,10 +2236,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <v>4.3636612406593098E-2</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>9.89576870326562E-2</v>
       </c>
       <c r="E17" s="1">
@@ -3877,28 +3871,28 @@
       <c r="D2" s="3">
         <v>7.6226510849128806E-2</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="14">
         <v>-0.17278907299999999</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>2.4190914000000001E-2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0.105915938</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0.13088525000000001</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>2.0374845999999999E-2</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="3">
@@ -3913,28 +3907,28 @@
       <c r="P2" s="3">
         <v>-2.54162388182213E-2</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="14">
         <v>-0.44542461999999999</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>2.3435714999999999E-2</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>0.12086498699999999</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>0.145304303</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="27">
         <v>1.809525E-3</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3951,28 +3945,28 @@
       <c r="D3" s="4">
         <v>3.6940291842906601E-16</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>-8.5125760000000009E-3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <v>-4.8004386000000003E-2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3">
         <v>0.39556434800000001</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <v>0.52250576800000004</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="3">
@@ -3987,28 +3981,28 @@
       <c r="P3" s="3">
         <v>-5.3969717737052898E-2</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="21">
         <v>-0.66401309900000005</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3">
         <v>0.105827481</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3">
         <v>0.54858299899999996</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3">
         <v>0.671164227</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="1">
         <v>5.6590549999999996E-3</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4025,28 +4019,28 @@
       <c r="D4" s="4">
         <v>-6.2016275843250005E-17</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>-0.29943462500000001</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4">
         <v>388.02498370000001</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>684.23314919999996</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4">
         <v>808.32478890000004</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="1">
@@ -4061,28 +4055,28 @@
       <c r="P4" s="3">
         <v>2.7952020314136201E-2</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="12">
         <v>-0.18895120500000001</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4">
         <v>-64.492079259999997</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4">
         <v>525.9196197</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4">
         <v>773.19795329999999</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="25">
         <v>3.3024930000000001E-3</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4099,28 +4093,28 @@
       <c r="D5" s="4">
         <v>-2.17788765253797E-16</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.17494637299999999</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>0.206443243</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="2">
@@ -4135,28 +4129,28 @@
       <c r="P5" s="3">
         <v>-2.6187544346265801E-2</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="19">
         <v>-0.653398798</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <v>-1.4718151E-2</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <v>0.159914216</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <v>0.232423042</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="33">
         <v>1.15376E-3</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4173,28 +4167,28 @@
       <c r="D6" s="3">
         <v>6.5765556780988102E-3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>-0.46668421399999999</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>2.5772448E-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.117263837</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.14636898500000001</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="32">
         <v>9.9599999999999995E-5</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="3">
@@ -4209,28 +4203,28 @@
       <c r="P6" s="3">
         <v>-4.5009615197870202E-2</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="13">
         <v>-0.57460947900000003</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>3.3270824999999997E-2</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>0.12525974200000001</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <v>0.15165864900000001</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="31">
         <v>4.9555390000000001E-3</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4247,28 +4241,28 @@
       <c r="D7" s="3">
         <v>-1.95530420566477E-2</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>-1.1134289040000001</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
         <v>1.3184397E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7">
         <v>0.62476897799999997</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7">
         <v>0.75638734100000005</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="1">
         <v>3.5608500000000002E-4</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="3">
@@ -4283,28 +4277,28 @@
       <c r="P7" s="3">
         <v>-6.6792809934960201E-2</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="16">
         <v>-0.65542605200000004</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7">
         <v>8.8347627999999997E-2</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7">
         <v>0.55586012900000004</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7">
         <v>0.66943023400000001</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="1">
         <v>9.0491110000000003E-3</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4321,28 +4315,28 @@
       <c r="D8" s="3">
         <v>9.4880842692049508E-3</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>-0.27318971199999997</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <v>-24.28128942</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8">
         <v>557.71853380000005</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>800.12021010000001</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="25">
         <v>3.0936700000000001E-4</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="3">
@@ -4357,28 +4351,28 @@
       <c r="P8" s="3">
         <v>-1.7751305673536701E-2</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="17">
         <v>-0.69415458399999996</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8">
         <v>-15.810859020000001</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8">
         <v>651.27373520000003</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8">
         <v>922.96492620000004</v>
       </c>
-      <c r="U8" s="34">
+      <c r="U8" s="3">
         <v>4.7877599999999998E-4</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4395,28 +4389,28 @@
       <c r="D9" s="3">
         <v>-4.54095535694626E-3</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>-0.38561272899999999</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>3.0282479999999999E-3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>0.14847179299999999</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>0.212770446</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="34">
         <v>5.4799999999999997E-5</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="3">
@@ -4431,60 +4425,60 @@
       <c r="P9" s="3">
         <v>-2.27955532553719E-2</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="20">
         <v>-0.78191730800000003</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="10">
         <v>9.3841310000000004E-3</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="10">
         <v>0.16536169100000001</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="10">
         <v>0.24128712299999999</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="29">
         <v>7.0830899999999996E-4</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="X9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C10" s="43">
+      <c r="C10" s="37">
         <v>1.78327117391331E-11</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="36">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="24">
         <v>0.38323184399999999</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="2">
@@ -4493,28 +4487,28 @@
       <c r="P10" s="1">
         <v>0.32565640371570398</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="13">
         <v>0.15296357199999999</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>2.7811990000000002E-2</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <v>9.0084888000000002E-2</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <v>0.111232525</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="24">
         <v>0.238108081</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="W10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="X10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4525,28 +4519,28 @@
       <c r="D11" s="3">
         <v>5.7923108261696103E-2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>-0.45596506599999997</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11">
         <v>0.218124976</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11">
         <v>0.49643032300000001</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <v>0.62780664500000005</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="3">
         <v>8.4712559999999999E-3</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="3">
@@ -4555,60 +4549,60 @@
       <c r="P11" s="3">
         <v>4.2789114656172099E-2</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="21">
         <v>-0.447511928</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11">
         <v>0.181234073</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11">
         <v>0.50853621100000002</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11">
         <v>0.62598151099999999</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="3">
         <v>4.4465729999999997E-3</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" t="s">
         <v>15</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="W11" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C12" s="43">
+      <c r="C12" s="37">
         <v>4.46569000533541E-5</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="36">
         <v>0.248652677808505</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>0.118063973</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12">
         <v>-14.75358733</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12">
         <v>424.80500069999999</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12">
         <v>665.92791720000002</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="28">
         <v>0.16321744499999999</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O12" s="2">
@@ -4617,60 +4611,60 @@
       <c r="P12" s="1">
         <v>0.28942128097687397</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="16">
         <v>8.8981719999999993E-3</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12">
         <v>76.161446010000006</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12">
         <v>491.31821559999997</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12">
         <v>705.94004570000004</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="25">
         <v>0.150006107</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="X12" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C13" s="43">
+      <c r="C13" s="37">
         <v>3.97713994502554E-5</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>0.13897387</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>0.167725285</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="26">
         <v>0.165182308</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="1">
@@ -4679,60 +4673,60 @@
       <c r="P13" s="1">
         <v>0.216701717976578</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="19">
         <v>-4.1899350000000002E-2</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="10">
         <v>8.6594670000000006E-3</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="10">
         <v>0.12553963500000001</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="10">
         <v>0.18450292500000001</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="29">
         <v>9.9278798000000001E-2</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="V13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="W13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="13" t="s">
+      <c r="X13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="43">
+      <c r="C14" s="37">
         <v>2.9038742510633898E-7</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>0.34102252721405601</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>0.20781804800000001</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>-8.2663400000000003E-4</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>8.6759671999999996E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.10757050899999999</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="24">
         <v>0.24525772600000001</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="2">
@@ -4741,60 +4735,60 @@
       <c r="P14" s="1">
         <v>0.29020765308463298</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="13">
         <v>0.33598597299999999</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <v>-1.2743019999999999E-3</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="7">
         <v>8.1404400000000002E-2</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <v>9.8484839000000005E-2</v>
       </c>
-      <c r="U14" s="28">
+      <c r="U14" s="24">
         <v>0.34471641600000003</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="V14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="8" t="s">
+      <c r="W14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="42">
+      <c r="C15" s="36">
         <v>4.4222802761556601E-2</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <v>0.13647706311230801</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>-0.17459612899999999</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15">
         <v>4.6360217000000002E-2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15">
         <v>0.49179545499999999</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15">
         <v>0.56389041600000001</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="28">
         <v>4.2369269000000001E-2</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="3">
@@ -4803,28 +4797,28 @@
       <c r="P15" s="3">
         <v>7.7597372012827598E-2</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="17">
         <v>-0.28644267200000001</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15">
         <v>7.8575239000000005E-2</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15">
         <v>0.50555049900000004</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15">
         <v>0.59012722299999998</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="28">
         <v>1.4376592000000001E-2</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="V15" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="W15" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="X15" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4835,28 +4829,28 @@
       <c r="D16" s="3">
         <v>2.3508160741141501E-3</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>-0.25353361299999999</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16">
         <v>-27.78505023</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16">
         <v>591.14564429999996</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16">
         <v>793.91987099999994</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="4">
         <v>2.1500000000000001E-5</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O16" s="3">
@@ -4865,60 +4859,60 @@
       <c r="P16" s="3">
         <v>9.1238416407046996E-2</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="16">
         <v>-4.6634470999999997E-2</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16">
         <v>0.88864469499999998</v>
       </c>
-      <c r="S16" s="10">
+      <c r="S16">
         <v>515.57258530000001</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16">
         <v>725.44784870000001</v>
       </c>
-      <c r="U16" s="29">
+      <c r="U16" s="25">
         <v>3.6333892999999999E-2</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V16" t="s">
         <v>16</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="W16" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="X16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <v>4.3636612406593098E-2</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>9.89576870326562E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>-3.4920303E-2</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>9.8373599999999999E-3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>0.13355165899999999</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>0.18388395099999999</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="26">
         <v>4.2600012E-2</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="O17" s="3">
@@ -4927,28 +4921,28 @@
       <c r="P17" s="3">
         <v>-4.2524971434154901E-2</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="20">
         <v>-0.77561755499999996</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="10">
         <v>5.3121105000000002E-2</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="10">
         <v>0.183269444</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="10">
         <v>0.24086022500000001</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="33">
         <v>2.9930069999999998E-3</v>
       </c>
-      <c r="V17" s="12" t="s">
+      <c r="V17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="12" t="s">
+      <c r="W17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="X17" s="13" t="s">
+      <c r="X17" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5039,28 +5033,28 @@
       <c r="D20" s="3">
         <v>2.08516149786343E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>-6.8654209999999993E-2</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>2.4829760999999999E-2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>0.101981853</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>0.124939382</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="27">
         <v>6.3798459999999998E-3</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M20" s="3">
@@ -5075,28 +5069,28 @@
       <c r="P20" s="3">
         <v>-2.5906277583132999E-2</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="18">
         <v>-0.199089655</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>2.9506911E-2</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>0.110917033</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>0.13234470800000001</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="27">
         <v>7.6550999999999998E-3</v>
       </c>
-      <c r="V20" s="8" t="s">
+      <c r="V20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="8" t="s">
+      <c r="W20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="X20" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5113,28 +5107,28 @@
       <c r="D21" s="3">
         <v>6.5663321534741503E-3</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>-0.16844789800000001</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21">
         <v>0.118236936</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21">
         <v>0.44566091699999999</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21">
         <v>0.56241268300000002</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="3">
         <v>3.31825E-4</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="3">
@@ -5149,28 +5143,28 @@
       <c r="P21" s="3">
         <v>-3.0909434631707599E-2</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="21">
         <v>-0.273380664</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21">
         <v>0.124348929</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21">
         <v>0.462935649</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21">
         <v>0.58712362500000004</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="3">
         <v>6.1860789999999997E-3</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V21" t="s">
         <v>15</v>
       </c>
-      <c r="W21" s="10" t="s">
+      <c r="W21" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="X21" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5187,28 +5181,28 @@
       <c r="D22" s="3">
         <v>5.2070486710213797E-2</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <v>-2.0020177E-2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22">
         <v>-11.104145170000001</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22">
         <v>493.34563880000002</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22">
         <v>716.16494850000004</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="25">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="1">
@@ -5223,28 +5217,28 @@
       <c r="P22" s="3">
         <v>4.8423210050520998E-2</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="12">
         <v>-7.5396008E-2</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22">
         <v>26.848488540000002</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22">
         <v>512.88401150000004</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22">
         <v>735.34795680000002</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="25">
         <v>1.3727669E-2</v>
       </c>
-      <c r="V22" s="10" t="s">
+      <c r="V22" t="s">
         <v>16</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" t="s">
         <v>13</v>
       </c>
-      <c r="X22" s="11" t="s">
+      <c r="X22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5261,28 +5255,28 @@
       <c r="D23" s="3">
         <v>5.11487688085073E-2</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>-1.417375E-3</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>0.125541926</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>0.182183768</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="23">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="1">
@@ -5297,28 +5291,28 @@
       <c r="P23" s="3">
         <v>5.2616038053971199E-2</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="15">
         <v>-7.8949473000000006E-2</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="10">
         <v>7.1559809999999996E-3</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="10">
         <v>0.13122634599999999</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="10">
         <v>0.187754747</v>
       </c>
-      <c r="U23" s="26">
+      <c r="U23" s="23">
         <v>1.5160086E-2</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="V23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W23" s="12" t="s">
+      <c r="W23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="X23" s="13" t="s">
+      <c r="X23" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5335,28 +5329,28 @@
       <c r="D24" s="3">
         <v>-1.29595349168103E-2</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>-0.155206818</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>2.7170057000000001E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>0.10999735300000001</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>0.12990044100000001</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="30">
         <v>2.132704E-3</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="3">
@@ -5371,28 +5365,28 @@
       <c r="P24" s="3">
         <v>-3.6963968960590898E-2</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="18">
         <v>-0.22352354099999999</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>2.9351321999999999E-2</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="7">
         <v>0.113783261</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>0.13368630400000001</v>
       </c>
-      <c r="U24" s="28">
+      <c r="U24" s="24">
         <v>1.5078116000000001E-2</v>
       </c>
-      <c r="V24" s="8" t="s">
+      <c r="V24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W24" s="8" t="s">
+      <c r="W24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X24" s="9" t="s">
+      <c r="X24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5409,28 +5403,28 @@
       <c r="D25" s="3">
         <v>-4.0797996282050199E-2</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>-0.23124994500000001</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25">
         <v>0.111823822</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25">
         <v>0.45278823099999999</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25">
         <v>0.57732922499999995</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="1">
         <v>1.6087830000000001E-2</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M25" s="3">
@@ -5445,28 +5439,28 @@
       <c r="P25" s="3">
         <v>-2.02378964502699E-2</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="21">
         <v>-0.227193543</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25">
         <v>0.117992051</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25">
         <v>0.45681070099999999</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25">
         <v>0.57637742300000006</v>
       </c>
-      <c r="U25" s="34">
+      <c r="U25" s="3">
         <v>3.027386E-3</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" t="s">
         <v>15</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="W25" t="s">
         <v>19</v>
       </c>
-      <c r="X25" s="11" t="s">
+      <c r="X25" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5483,28 +5477,28 @@
       <c r="D26" s="3">
         <v>3.5349086696000502E-2</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>-0.102465743</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26">
         <v>25.271412850000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26">
         <v>531.38681280000003</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26">
         <v>744.54548069999998</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="28">
         <v>7.2693599999999999E-3</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="3">
@@ -5519,28 +5513,28 @@
       <c r="P26" s="3">
         <v>3.46630581195152E-2</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="16">
         <v>-0.117973229</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26">
         <v>34.164430840000001</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26">
         <v>537.54325370000004</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26">
         <v>749.76365150000004</v>
       </c>
-      <c r="U26" s="32">
+      <c r="U26" s="28">
         <v>6.4955150000000003E-3</v>
       </c>
-      <c r="V26" s="10" t="s">
+      <c r="V26" t="s">
         <v>16</v>
       </c>
-      <c r="W26" s="10" t="s">
+      <c r="W26" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="11" t="s">
+      <c r="X26" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5557,28 +5551,28 @@
       <c r="D27" s="3">
         <v>3.56575577724558E-2</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>-9.2685693999999999E-2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <v>6.3986049999999999E-3</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>0.13543027299999999</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <v>0.18894612999999999</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="26">
         <v>7.8124700000000002E-3</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="3">
@@ -5593,28 +5587,28 @@
       <c r="P27" s="3">
         <v>4.6153626127895003E-2</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="22">
         <v>-0.101134157</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="10">
         <v>1.1733840000000001E-2</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="10">
         <v>0.137159324</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="10">
         <v>0.189675173</v>
       </c>
-      <c r="U27" s="30">
+      <c r="U27" s="26">
         <v>1.1257131E-2</v>
       </c>
-      <c r="V27" s="12" t="s">
+      <c r="V27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W27" s="12" t="s">
+      <c r="W27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X27" s="13" t="s">
+      <c r="X27" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5625,28 +5619,28 @@
       <c r="D28" s="1">
         <v>0.162877180443915</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>0.107183662</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="24">
         <v>0.35431380699999998</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O28" s="2">
@@ -5655,28 +5649,28 @@
       <c r="P28" s="1">
         <v>0.115387408155182</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="18">
         <v>9.7435185999999993E-2</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="7">
         <v>2.8175797999999998E-2</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="7">
         <v>9.5674667000000005E-2</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="7">
         <v>0.114820637</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="27">
         <v>0.16855468400000001</v>
       </c>
-      <c r="V28" s="8" t="s">
+      <c r="V28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W28" s="8" t="s">
+      <c r="W28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X28" s="9" t="s">
+      <c r="X28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5687,28 +5681,28 @@
       <c r="D29" s="3">
         <v>-4.7270402660136997E-2</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <v>-0.23602377599999999</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29">
         <v>0.15606520800000001</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29">
         <v>0.44830479600000001</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29">
         <v>0.57844735899999999</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="3">
         <v>4.3379623999999999E-2</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O29" s="1">
@@ -5717,28 +5711,28 @@
       <c r="P29" s="1">
         <v>-6.0202956716520997E-2</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="21">
         <v>-0.277917256</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29">
         <v>0.14998927500000001</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29">
         <v>0.45595526600000003</v>
       </c>
-      <c r="T29" s="10">
+      <c r="T29">
         <v>0.58816854900000004</v>
       </c>
-      <c r="U29" s="34">
+      <c r="U29" s="3">
         <v>4.8709895000000003E-2</v>
       </c>
-      <c r="V29" s="10" t="s">
+      <c r="V29" t="s">
         <v>15</v>
       </c>
-      <c r="W29" s="10" t="s">
+      <c r="W29" t="s">
         <v>21</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="X29" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5749,28 +5743,28 @@
       <c r="D30" s="1">
         <v>0.146091371810087</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="17">
         <v>0.18892056400000001</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30">
         <v>-14.822058030000001</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30">
         <v>419.83932570000002</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30">
         <v>638.61685279999995</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="25">
         <v>0.20756269999999999</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O30" s="2">
@@ -5779,28 +5773,28 @@
       <c r="P30" s="1">
         <v>0.21261046036535</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="12">
         <v>0.19042510900000001</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30">
         <v>-23.5695625</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30">
         <v>414.99393750000002</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30">
         <v>638.02426390000005</v>
       </c>
-      <c r="U30" s="27">
+      <c r="U30" s="1">
         <v>0.19343152499999999</v>
       </c>
-      <c r="V30" s="10" t="s">
+      <c r="V30" t="s">
         <v>16</v>
       </c>
-      <c r="W30" s="10" t="s">
+      <c r="W30" t="s">
         <v>21</v>
       </c>
-      <c r="X30" s="11" t="s">
+      <c r="X30" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5811,28 +5805,28 @@
       <c r="D31" s="1">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="15">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <v>0.10626565</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="10">
         <v>0.161905471</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="29">
         <v>0.200054175</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="11" t="s">
         <v>24</v>
       </c>
       <c r="O31" s="2">
@@ -5841,28 +5835,28 @@
       <c r="P31" s="1">
         <v>0.13883274522747499</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="15">
         <v>0.168880377</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="10">
         <v>-8.33298E-4</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="10">
         <v>0.108135918</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="10">
         <v>0.16478669400000001</v>
       </c>
-      <c r="U31" s="30">
+      <c r="U31" s="26">
         <v>0.17721448100000001</v>
       </c>
-      <c r="V31" s="12" t="s">
+      <c r="V31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="12" t="s">
+      <c r="W31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X31" s="13" t="s">
+      <c r="X31" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5873,28 +5867,28 @@
       <c r="D32" s="1">
         <v>0.203192681846039</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>0.30691157699999999</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>1.0392973999999999E-2</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>8.3696708999999994E-2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>0.10061786</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="24">
         <v>0.44838898399999999</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="2">
@@ -5903,28 +5897,28 @@
       <c r="P32" s="1">
         <v>0.16610997002972699</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="13">
         <v>0.241377167</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="7">
         <v>1.2551746000000001E-2</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="7">
         <v>8.7895534999999997E-2</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="7">
         <v>0.10526735399999999</v>
       </c>
-      <c r="U32" s="28">
+      <c r="U32" s="24">
         <v>0.34466047500000002</v>
       </c>
-      <c r="V32" s="8" t="s">
+      <c r="V32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="W32" s="8" t="s">
+      <c r="W32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X32" s="9" t="s">
+      <c r="X32" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5935,28 +5929,28 @@
       <c r="D33" s="3">
         <v>1.7396354800307001E-2</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <v>-2.5700154999999999E-2</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33">
         <v>8.9422708000000004E-2</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33">
         <v>0.41387576500000001</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33">
         <v>0.52693936200000002</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="3">
         <v>9.7768890000000004E-3</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="3">
@@ -5965,28 +5959,28 @@
       <c r="P33" s="3">
         <v>-2.9837717384605899E-2</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="21">
         <v>-0.127389114</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33">
         <v>9.5278512999999995E-2</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33">
         <v>0.430159501</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33">
         <v>0.55244283999999999</v>
       </c>
-      <c r="U33" s="34">
+      <c r="U33" s="3">
         <v>2.6047549E-2</v>
       </c>
-      <c r="V33" s="10" t="s">
+      <c r="V33" t="s">
         <v>15</v>
       </c>
-      <c r="W33" s="10" t="s">
+      <c r="W33" t="s">
         <v>23</v>
       </c>
-      <c r="X33" s="11" t="s">
+      <c r="X33" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5997,28 +5991,28 @@
       <c r="D34" s="1">
         <v>8.0909540242792594E-2</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="16">
         <v>0.129732556</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34">
         <v>-12.293010990000001</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34">
         <v>452.20247210000002</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34">
         <v>661.50792079999997</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="25">
         <v>0.205950934</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="2">
@@ -6027,28 +6021,28 @@
       <c r="P34" s="1">
         <v>6.7297623863823305E-2</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="16">
         <v>0.108397111</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34">
         <v>3.7635890459999999</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34">
         <v>454.68505900000002</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34">
         <v>669.56757430000005</v>
       </c>
-      <c r="U34" s="29">
+      <c r="U34" s="25">
         <v>0.17305983699999999</v>
       </c>
-      <c r="V34" s="10" t="s">
+      <c r="V34" t="s">
         <v>16</v>
       </c>
-      <c r="W34" s="10" t="s">
+      <c r="W34" t="s">
         <v>23</v>
       </c>
-      <c r="X34" s="11" t="s">
+      <c r="X34" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6059,28 +6053,28 @@
       <c r="D35" s="3">
         <v>5.4627049948883101E-2</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="19">
         <v>2.6058532999999998E-2</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>4.833464E-3</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>0.12727951200000001</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="10">
         <v>0.17838437100000001</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="29">
         <v>3.6179629999999997E-2</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="11" t="s">
         <v>24</v>
       </c>
       <c r="O35" s="1">
@@ -6089,41 +6083,30 @@
       <c r="P35" s="1">
         <v>6.2468990184649097E-2</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="19">
         <v>3.3729792000000001E-2</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="10">
         <v>1.0109896E-2</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="10">
         <v>0.12907948899999999</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="10">
         <v>0.17768045900000001</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="29">
         <v>4.4304962000000003E-2</v>
       </c>
-      <c r="V35" s="12" t="s">
+      <c r="V35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W35" s="12" t="s">
+      <c r="W35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="X35" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
+      <c r="X35" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
@@ -6194,28 +6177,28 @@
       <c r="B38" s="3">
         <v>-1.654999549</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>-799.94735449999996</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>3.1225036890000002</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>3.1225036890000002</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>3.3547499840000001</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>2.6657410999999999E-2</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" t="s">
         <v>26</v>
       </c>
       <c r="K38" s="3">
@@ -6224,28 +6207,28 @@
       <c r="L38" s="3">
         <v>-0.33099990800000001</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38">
         <v>-7.9147724029999997</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38">
         <v>0.210144148</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38">
         <v>0.30968568800000001</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38">
         <v>0.35392668100000002</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38">
         <v>2.6657410999999999E-2</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="R38" t="s">
         <v>10</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="S38" t="s">
         <v>27</v>
       </c>
-      <c r="T38" s="6" t="s">
+      <c r="T38" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6256,28 +6239,28 @@
       <c r="B39" s="3">
         <v>5.2613656000000002E-2</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>-9.5845422310000004</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>1.0680262300000001</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>1.460699118</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>1.680205113</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>5.1139399999999998E-4</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" t="s">
         <v>26</v>
       </c>
       <c r="K39" s="3">
@@ -6286,28 +6269,28 @@
       <c r="L39" s="3">
         <v>1.0522732999999999E-2</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39">
         <v>-12.94888559</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39">
         <v>-1.844333311</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39">
         <v>1.8552318489999999</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39">
         <v>1.9288391739999999</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39">
         <v>5.1139399999999998E-4</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="S39" t="s">
         <v>27</v>
       </c>
-      <c r="T39" s="6" t="s">
+      <c r="T39" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6318,28 +6301,28 @@
       <c r="B40" s="3">
         <v>-4.4525199999999999E-4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>-1.0073252450000001</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>-729.98876399999995</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>729.98876399999995</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>1030.938664</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>7.2705309999999995E-2</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" t="s">
         <v>26</v>
       </c>
       <c r="K40" s="3">
@@ -6348,28 +6331,28 @@
       <c r="L40" s="4">
         <v>-8.9099999999999997E-5</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40">
         <v>-1.0146567550000001</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40">
         <v>-732.90112360000001</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40">
         <v>732.90112360000001</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40">
         <v>1032.8196359999999</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="R40" t="s">
         <v>16</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="S40" t="s">
         <v>27</v>
       </c>
-      <c r="T40" s="6" t="s">
+      <c r="T40" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6380,28 +6363,28 @@
       <c r="B41" s="3">
         <v>-1.7467247969999999</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>-392.10954090000001</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>3.4534422459999998</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>3.4534422459999998</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>3.6775826199999999</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>7.2705309999999995E-2</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" t="s">
         <v>26</v>
       </c>
       <c r="K41" s="3">
@@ -6410,28 +6393,28 @@
       <c r="L41" s="3">
         <v>-0.34934495999999998</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41">
         <v>-10.887007499999999</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41">
         <v>0.541082705</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41">
         <v>0.59008326899999997</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41">
         <v>0.63950201100000004</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R41" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="S41" t="s">
         <v>27</v>
       </c>
-      <c r="T41" s="6" t="s">
+      <c r="T41" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6442,10 +6425,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944B3C9A-AB44-43CE-B1FC-7E75548DF30D}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6501,28 +6484,28 @@
       <c r="D2" s="3">
         <v>5.2070486710213797E-2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="16">
         <v>-2.0020177E-2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2">
         <v>-11.104145170000001</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2">
         <v>493.34563880000002</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2">
         <v>716.16494850000004</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="25">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6539,28 +6522,28 @@
       <c r="D3" s="3">
         <v>5.11487688085073E-2</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>-1.417375E-3</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>0.125541926</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>0.182183768</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="23">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6571,28 +6554,28 @@
       <c r="D4" s="1">
         <v>0.162877180443915</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.107183662</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="24">
         <v>0.35431380699999998</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6603,28 +6586,28 @@
       <c r="D5" s="1">
         <v>0.146091371810087</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>0.18892056400000001</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5">
         <v>-14.822058030000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5">
         <v>419.83932570000002</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5">
         <v>638.61685279999995</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="25">
         <v>0.20756269999999999</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6635,28 +6618,28 @@
       <c r="D6" s="1">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>0.10626565</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>0.161905471</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="29">
         <v>0.200054175</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6667,28 +6650,28 @@
       <c r="D7" s="1">
         <v>0.203192681846039</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>0.30691157699999999</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>1.0392973999999999E-2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>8.3696708999999994E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.10061786</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="24">
         <v>0.44838898399999999</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6699,28 +6682,28 @@
       <c r="D8" s="1">
         <v>8.0909540242792594E-2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>0.129732556</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <v>-12.293010990000001</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8">
         <v>452.20247210000002</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>661.50792079999997</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="25">
         <v>0.205950934</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6737,28 +6720,28 @@
       <c r="D9" s="3">
         <v>4.8423210050520998E-2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>-7.5396008E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9">
         <v>26.848488540000002</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9">
         <v>512.88401150000004</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <v>735.34795680000002</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="25">
         <v>1.3727669E-2</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6775,28 +6758,28 @@
       <c r="D10" s="3">
         <v>5.2616038053971199E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>-7.8949473000000006E-2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>7.1559809999999996E-3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>0.13122634599999999</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>0.187754747</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <v>1.5160086E-2</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6807,28 +6790,28 @@
       <c r="D11" s="1">
         <v>0.115387408155182</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>9.7435185999999993E-2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>2.8175797999999998E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>9.5674667000000005E-2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.114820637</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="27">
         <v>0.16855468400000001</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6839,28 +6822,28 @@
       <c r="D12" s="1">
         <v>0.21261046036535</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>0.19042510900000001</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12">
         <v>-23.5695625</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12">
         <v>414.99393750000002</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12">
         <v>638.02426390000005</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="1">
         <v>0.19343152499999999</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6871,28 +6854,28 @@
       <c r="D13" s="1">
         <v>0.13883274522747499</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>0.168880377</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>-8.33298E-4</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>0.108135918</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>0.16478669400000001</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="26">
         <v>0.17721448100000001</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6903,28 +6886,28 @@
       <c r="D14" s="1">
         <v>0.16610997002972699</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>0.241377167</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>1.2551746000000001E-2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>8.7895534999999997E-2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.10526735399999999</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="24">
         <v>0.34466047500000002</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6935,28 +6918,28 @@
       <c r="D15" s="1">
         <v>6.7297623863823305E-2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>0.108397111</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15">
         <v>3.7635890459999999</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15">
         <v>454.68505900000002</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15">
         <v>669.56757430000005</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="25">
         <v>0.17305983699999999</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6967,28 +6950,28 @@
       <c r="D16" s="1">
         <v>6.2468990184649097E-2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>3.3729792000000001E-2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>1.0109896E-2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>0.12907948899999999</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>0.17768045900000001</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="29">
         <v>4.4304962000000003E-2</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7005,28 +6988,28 @@
       <c r="D17" s="4">
         <v>-6.2016275843250005E-17</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <v>-0.29943462500000001</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17">
         <v>388.02498370000001</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17">
         <v>684.23314919999996</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17">
         <v>808.32478890000004</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7043,220 +7026,220 @@
       <c r="D18" s="4">
         <v>-2.17788765253797E-16</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="20">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>0.17494637299999999</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>0.206443243</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C19" s="43">
+      <c r="C19" s="37">
         <v>1.78327117391331E-11</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="36">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="24">
         <v>0.38323184399999999</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C20" s="43">
+      <c r="C20" s="37">
         <v>4.46569000533541E-5</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="36">
         <v>0.248652677808505</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="17">
         <v>0.118063973</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20">
         <v>-14.75358733</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20">
         <v>424.80500069999999</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20">
         <v>665.92791720000002</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="28">
         <v>0.16321744499999999</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C21" s="43">
+      <c r="C21" s="37">
         <v>3.97713994502554E-5</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="36">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="15">
         <v>0.13897387</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>0.167725285</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="26">
         <v>0.165182308</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C22" s="43">
+      <c r="C22" s="37">
         <v>2.9038742510633898E-7</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="36">
         <v>0.34102252721405601</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="13">
         <v>0.20781804800000001</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>-8.2663400000000003E-4</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>8.6759671999999996E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>0.10757050899999999</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="24">
         <v>0.24525772600000001</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C23" s="42">
+      <c r="C23" s="36">
         <v>4.4222802761556601E-2</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="36">
         <v>0.13647706311230801</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="17">
         <v>-0.17459612899999999</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23">
         <v>4.6360217000000002E-2</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23">
         <v>0.49179545499999999</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23">
         <v>0.56389041600000001</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="28">
         <v>4.2369269000000001E-2</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C24" s="42">
+      <c r="C24" s="36">
         <v>4.3636612406593098E-2</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="36">
         <v>9.89576870326562E-2</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>-3.4920303E-2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <v>9.8373599999999999E-3</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>0.13355165899999999</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>0.18388395099999999</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="26">
         <v>4.2600012E-2</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7273,28 +7256,28 @@
       <c r="D25" s="3">
         <v>2.7952020314136201E-2</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>-0.18895120500000001</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25">
         <v>-64.492079259999997</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25">
         <v>525.9196197</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25">
         <v>773.19795329999999</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="25">
         <v>3.3024930000000001E-3</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7311,28 +7294,28 @@
       <c r="D26" s="3">
         <v>-2.6187544346265801E-2</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>-0.653398798</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <v>-1.4718151E-2</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>0.159914216</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <v>0.232423042</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="33">
         <v>1.15376E-3</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7343,28 +7326,28 @@
       <c r="D27" s="1">
         <v>0.32565640371570398</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="13">
         <v>0.15296357199999999</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>2.7811990000000002E-2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>9.0084888000000002E-2</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>0.111232525</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="24">
         <v>0.238108081</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7375,28 +7358,28 @@
       <c r="D28" s="1">
         <v>0.28942128097687397</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>8.8981719999999993E-3</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28">
         <v>76.161446010000006</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28">
         <v>491.31821559999997</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28">
         <v>705.94004570000004</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="25">
         <v>0.150006107</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7407,28 +7390,28 @@
       <c r="D29" s="1">
         <v>0.216701717976578</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="19">
         <v>-4.1899350000000002E-2</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>8.6594670000000006E-3</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>0.12553963500000001</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <v>0.18450292500000001</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="29">
         <v>9.9278798000000001E-2</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7439,114 +7422,30 @@
       <c r="D30" s="1">
         <v>0.29020765308463298</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>0.33598597299999999</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>-1.2743019999999999E-3</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>8.1404400000000002E-2</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>9.8484839000000005E-2</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="24">
         <v>0.34471641600000003</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="L30" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7555,15 +7454,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357755B3-3B09-48C0-A3CE-CDD4D8865D79}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -7601,7 +7500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>9.3999999999999998E-6</v>
       </c>
@@ -7614,33 +7513,32 @@
       <c r="D2" s="3">
         <v>-2.6187544346265801E-2</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <v>-0.653398798</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2">
         <v>-1.4718151E-2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2">
         <v>0.159914216</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2">
         <v>0.232423042</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="3">
         <v>1.15376E-3</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1.5650000000000001E-4</v>
       </c>
@@ -7653,33 +7551,32 @@
       <c r="D3" s="3">
         <v>2.7952020314136201E-2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>-0.18895120500000001</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <v>-64.492079259999997</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3">
         <v>525.9196197</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <v>773.19795329999999</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="25">
         <v>3.3024930000000001E-3</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2.6105300000000002E-4</v>
       </c>
@@ -7692,33 +7589,32 @@
       <c r="D4" s="3">
         <v>4.8423210050520998E-2</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>-7.5396008E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4">
         <v>26.848488540000002</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
         <v>512.88401150000004</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4">
         <v>735.34795680000002</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="25">
         <v>1.3727669E-2</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3.86031E-4</v>
       </c>
@@ -7731,33 +7627,32 @@
       <c r="D5" s="3">
         <v>5.2616038053971199E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>-7.8949473000000006E-2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>7.1559809999999996E-3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.13122634599999999</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>0.187754747</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>1.5160086E-2</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>9.6857699999999998E-4</v>
       </c>
@@ -7770,32 +7665,32 @@
       <c r="D6" s="3">
         <v>5.2070486710213797E-2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>-2.0020177E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6">
         <v>-11.104145170000001</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6">
         <v>493.34563880000002</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6">
         <v>716.16494850000004</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="25">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1.340674E-3</v>
       </c>
@@ -7808,32 +7703,32 @@
       <c r="D7" s="3">
         <v>5.11487688085073E-2</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>-1.417375E-3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>0.125541926</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>0.182183768</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>9.4761189999999999E-3</v>
       </c>
@@ -7846,32 +7741,32 @@
       <c r="D8" s="4">
         <v>-6.2016275843250005E-17</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>-0.29943462500000001</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <v>388.02498370000001</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8">
         <v>684.23314919999996</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>808.32478890000004</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>4.6336917999999998E-2</v>
       </c>
@@ -7884,274 +7779,51 @@
       <c r="D9" s="4">
         <v>-2.17788765253797E-16</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>0.17494637299999999</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>0.206443243</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M13" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="10"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="10"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="10"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="10"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="10"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="L9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8160,7 +7832,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB1A9F1-FDD8-4096-8A87-FC04B3C197C3}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -8168,7 +7840,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -8206,7 +7878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>9.6857699999999998E-4</v>
       </c>
@@ -8243,12 +7915,8 @@
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1.340674E-3</v>
       </c>
@@ -8285,12 +7953,8 @@
       <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C4" s="2">
         <v>1.5945739980705101E-10</v>
       </c>
@@ -8321,12 +7985,8 @@
       <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C5" s="2">
         <v>3.0984901678166902E-6</v>
       </c>
@@ -8357,12 +8017,8 @@
       <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C6" s="2">
         <v>4.9085924130319401E-6</v>
       </c>
@@ -8393,12 +8049,8 @@
       <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C7" s="2">
         <v>8.7044289502856599E-14</v>
       </c>
@@ -8429,12 +8081,8 @@
       <c r="L7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C8" s="2">
         <v>3.4211551211485201E-6</v>
       </c>
@@ -8465,12 +8113,8 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2.6105300000000002E-4</v>
       </c>
@@ -8507,12 +8151,8 @@
       <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>3.86031E-4</v>
       </c>
@@ -8549,12 +8189,8 @@
       <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C11" s="2">
         <v>3.2583889042620301E-5</v>
       </c>
@@ -8585,12 +8221,8 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C12" s="2">
         <v>7.3436072303042403E-6</v>
       </c>
@@ -8621,12 +8253,8 @@
       <c r="L12" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C13" s="2">
         <v>1.94752920988628E-5</v>
       </c>
@@ -8657,12 +8285,8 @@
       <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C14" s="2">
         <v>3.2450674158878199E-10</v>
       </c>
@@ -8693,11 +8317,8 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C15" s="2">
         <v>2.49426865292049E-5</v>
       </c>
@@ -8728,11 +8349,8 @@
       <c r="L15" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <v>3.9546619188764398E-2</v>
       </c>
@@ -8763,14 +8381,6 @@
       <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="13:15" x14ac:dyDescent="0.45">
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8836,2578 +8446,2498 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>0.86681282500000001</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1.023867E-2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>0.165331931645776</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>7.6226510849128806E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>-0.17278907299999999</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>2.4190914000000001E-2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <v>0.105915938</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <v>0.13088525000000001</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
         <v>2.0374845999999999E-2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>0.30029044599999999</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>7.8965568999999999E-2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>0.29148890806981198</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>3.6940291842906601E-16</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>-8.5125760000000009E-3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>-4.8004386000000003E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>0.39556434800000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>0.52250576800000004</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
+      <c r="A4">
         <v>9.4761189999999999E-3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>8.8094664000000003E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>0.53044595828293795</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>-6.2016275843250005E-17</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>-0.29943462500000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>388.02498370000001</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>684.23314919999996</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>808.32478890000004</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>4.6336917999999998E-2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>9.5680638999999998E-2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>0.53044595882353696</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>-2.17788765253797E-16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>0.17494637299999999</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>0.206443243</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="A6">
         <v>7.5991659000000003E-2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>0.14507757900000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>0.92312988877536095</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>6.5765556780988102E-3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>-0.46668421399999999</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>2.5772448E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>0.117263837</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>0.14636898500000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>9.9599999999999995E-5</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
+      <c r="A7">
         <v>0.85769704899999999</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>1.8659636E-2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>0.85520304752123899</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>-1.95530420566477E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>-1.1134289040000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>1.3184397E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>0.62476897799999997</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>0.75638734100000005</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>3.5608500000000002E-4</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
+      <c r="A8">
         <v>0.31536013200000002</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>4.8784542E-2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>0.86493912444841203</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>9.4880842692049508E-3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>-0.27318971199999997</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>-24.28128942</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>557.71853380000005</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>800.12021010000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>3.0936700000000001E-4</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
+      <c r="A9">
         <v>0.15567147000000001</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>7.8828172000000002E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>0.94293195059248203</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>-4.54095535694626E-3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>-0.38561272899999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>3.0282479999999999E-3</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>0.14847179299999999</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>0.212770446</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>5.4799999999999997E-5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1.78327117391331E-11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>0.38323184399999999</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>0.37245700351954802</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>5.7923108261696103E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>-0.45596506599999997</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>0.218124976</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>0.49643032300000001</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>0.62780664500000005</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>8.4712559999999999E-3</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>4.46569000533541E-5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>0.248652677808505</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>0.118063973</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>-14.75358733</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>424.80500069999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>665.92791720000002</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>0.16321744499999999</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>3.97713994502554E-5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>0.13897387</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>0.167725285</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>0.165182308</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2.9038742510633898E-7</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>0.34102252721405601</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>0.20781804800000001</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>-8.2663400000000003E-4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>8.6759671999999996E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>0.10757050899999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>0.24525772600000001</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>4.4222802761556601E-2</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>0.13647706311230801</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>-0.17459612899999999</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>4.6360217000000002E-2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>0.49179545499999999</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>0.56389041600000001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>4.2369269000000001E-2</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>0.96421414261837901</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>2.3508160741141501E-3</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>-0.25353361299999999</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>-27.78505023</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>591.14564429999996</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>793.91987099999994</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>2.1500000000000001E-5</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>4.3636612406593098E-2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>9.89576870326562E-2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>-3.4920303E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>9.8373599999999999E-3</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>0.13355165899999999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>0.18388395099999999</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>4.2600012E-2</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
+      <c r="A18">
         <v>7.0107924000000002E-2</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>0.150878545</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>0.68069330782669701</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>-2.54162388182213E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>-0.44542461999999999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>2.3435714999999999E-2</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>0.12086498699999999</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>0.145304303</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>1.809525E-3</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
+      <c r="A19">
         <v>0.20702335199999999</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>0.118339456</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>0.466340701012607</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>-5.3969717737052898E-2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>-0.66401309900000005</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>0.105827481</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>0.54858299899999996</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>0.671164227</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>5.6590549999999996E-3</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
+      <c r="A20">
         <v>1.5650000000000001E-4</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>0.12758799100000001</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>0.57811068654162401</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>2.7952020314136201E-2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>-0.18895120500000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>-64.492079259999997</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>525.9196197</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>773.19795329999999</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>3.3024930000000001E-3</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>9.3999999999999998E-6</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>0.284827946</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>0.74250121006182102</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>-2.6187544346265801E-2</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>-0.653398798</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>-1.4718151E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>0.159914216</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>0.232423042</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>1.15376E-3</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
+      <c r="A22">
         <v>0.20015559999999999</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>0.106140543</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>0.49552725277357501</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>-4.5009615197870202E-2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>-0.57460947900000003</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>3.3270824999999997E-2</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>0.12525974200000001</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <v>0.15165864900000001</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>4.9555390000000001E-3</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
+      <c r="A23">
         <v>0.47983486400000003</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>5.7623237000000001E-2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>0.35656396399621998</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>-6.6792809934960201E-2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>-0.65542605200000004</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>8.8347627999999997E-2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>0.55586012900000004</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <v>0.66943023400000001</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>9.0491110000000003E-3</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
+      <c r="A24">
         <v>5.9118127999999999E-2</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>0.102611549</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>0.83241471598903805</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>-1.7751305673536701E-2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>-0.69415458399999996</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>-15.810859020000001</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <v>651.27373520000003</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <v>922.96492620000004</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>4.7877599999999998E-4</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
+      <c r="A25">
         <v>5.2169521000000003E-2</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>0.120154472</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>0.79687517602598701</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>-2.27955532553719E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>-0.78191730800000003</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>9.3841310000000004E-3</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>0.16536169100000001</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <v>0.24128712299999999</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <v>7.0830899999999996E-4</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>4.5853351852656499E-7</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>0.32565640371570398</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>0.15296357199999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>2.7811990000000002E-2</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <v>9.0084888000000002E-2</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <v>0.111232525</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>0.238108081</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>0.51859408987872502</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>4.2789114656172099E-2</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
         <v>-0.447511928</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>0.181234073</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>0.50853621100000002</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>0.62598151099999999</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <v>4.4465729999999997E-3</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>9.6831058296796801E-5</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>0.28942128097687397</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>8.8981719999999993E-3</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>76.161446010000006</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <v>491.31821559999997</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <v>705.94004570000004</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <v>0.150006107</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>1.76717188240444E-3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>0.216701717976578</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>-4.1899350000000002E-2</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>8.6594670000000006E-3</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>0.12553963500000001</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>0.18450292500000001</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>9.9278798000000001E-2</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>3.2318261411046598E-10</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>0.29020765308463298</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>0.33598597299999999</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>-1.2743019999999999E-3</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <v>8.1404400000000002E-2</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <v>9.8484839000000005E-2</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <v>0.34471641600000003</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>0.244580806028312</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>7.7597372012827598E-2</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>-0.28644267200000001</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>7.8575239000000005E-2</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <v>0.50555049900000004</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <v>0.59012722299999998</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <v>1.4376592000000001E-2</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>6.2848281823803601E-2</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32">
         <v>9.1238416407046996E-2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <v>-4.6634470999999997E-2</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>0.88864469499999998</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32">
         <v>515.57258530000001</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <v>725.44784870000001</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <v>3.6333892999999999E-2</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>0.59652420876357404</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <v>-4.2524971434154901E-2</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <v>-0.77561755499999996</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>5.3121105000000002E-2</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <v>0.183269444</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <v>0.24086022500000001</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <v>2.9930069999999998E-3</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
+      <c r="A34">
         <v>0.68550667700000001</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34">
         <v>-1.0753626000000001E-2</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>0.43917508006962103</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>2.08516149786343E-2</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <v>-6.8654209999999993E-2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>2.4829760999999999E-2</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34">
         <v>0.101981853</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <v>0.124939382</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34">
         <v>6.3798459999999998E-3</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="6">
+      <c r="A35">
         <v>0.76475791100000001</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <v>1.340947E-2</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>0.86017080250576905</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <v>6.5663321534741503E-3</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <v>-0.16844789800000001</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>0.118236936</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>0.44566091699999999</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <v>0.56241268300000002</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <v>3.31825E-4</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="6">
+      <c r="A36">
         <v>9.6857699999999998E-4</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <v>9.6863640000000001E-2</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>0.150360956714193</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>5.2070486710213797E-2</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>-2.0020177E-2</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>-11.104145170000001</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>493.34563880000002</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36">
         <v>716.16494850000004</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
+      <c r="A37">
         <v>1.340674E-3</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37">
         <v>9.1575437999999995E-2</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>0.147834301201035</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>5.11487688085073E-2</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>-1.417375E-3</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>0.125541926</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <v>0.182183768</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
+      <c r="A38">
         <v>0.79801741100000001</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38">
         <v>1.0696888999999999E-2</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>0.65502464338793898</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>-1.29595349168103E-2</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>-0.155206818</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>2.7170057000000001E-2</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>0.10999735300000001</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <v>0.12990044100000001</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <v>2.132704E-3</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" t="s">
         <v>10</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
+      <c r="A39">
         <v>0.90000000199999997</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39">
         <v>4.6681750000000001E-3</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>0.21815358564725601</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>-4.0797996282050199E-2</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>-0.23124994500000001</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>0.111823822</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>0.45278823099999999</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <v>0.57732922499999995</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <v>1.6087830000000001E-2</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="6">
+      <c r="A40">
         <v>0.30120079999999999</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>5.0589626999999998E-2</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>0.40883719805643098</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>3.5349086696000502E-2</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>-0.102465743</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>25.271412850000001</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>531.38681280000003</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40">
         <v>744.54548069999998</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40">
         <v>7.2693599999999999E-3</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
+      <c r="A41">
         <v>0.330556138</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>4.5556587000000003E-2</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>0.39180035532750701</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>3.56575577724558E-2</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>-9.2685693999999999E-2</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>6.3986049999999999E-3</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>0.13543027299999999</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <v>0.18894612999999999</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41">
         <v>7.8124700000000002E-3</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>1.5945739980705101E-10</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42">
         <v>0.162877180443915</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42">
         <v>0.107183662</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42">
         <v>0.35431380699999998</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>4.1714768980968701E-2</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>-4.7270402660136997E-2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <v>-0.23602377599999999</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>0.15606520800000001</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>0.44830479600000001</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43">
         <v>0.57844735899999999</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43">
         <v>4.3379623999999999E-2</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>3.0984901678166902E-6</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>0.146091371810087</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <v>0.18892056400000001</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>-14.822058030000001</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>419.83932570000002</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44">
         <v>638.61685279999995</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44">
         <v>0.20756269999999999</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" t="s">
         <v>20</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>4.9085924130319401E-6</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45">
         <v>0.10626565</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45">
         <v>0.161905471</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45">
         <v>0.200054175</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>8.7044289502856599E-14</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46">
         <v>0.203192681846039</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46">
         <v>0.30691157699999999</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46">
         <v>1.0392973999999999E-2</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46">
         <v>8.3696708999999994E-2</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46">
         <v>0.10061786</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46">
         <v>0.44838898399999999</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6">
+      <c r="C47">
         <v>0.33782855883613899</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47">
         <v>1.7396354800307001E-2</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47">
         <v>-2.5700154999999999E-2</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47">
         <v>8.9422708000000004E-2</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>0.41387576500000001</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47">
         <v>0.52693936200000002</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47">
         <v>9.7768890000000004E-3</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>3.4211551211485201E-6</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48">
         <v>8.0909540242792594E-2</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>0.129732556</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48">
         <v>-12.293010990000001</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48">
         <v>452.20247210000002</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48">
         <v>661.50792079999997</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48">
         <v>0.205950934</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>6.3419907311325796E-2</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49">
         <v>5.4627049948883101E-2</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49">
         <v>2.6058532999999998E-2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>4.833464E-3</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <v>0.12727951200000001</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49">
         <v>0.17838437100000001</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49">
         <v>3.6179629999999997E-2</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J49" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K49" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="6">
+      <c r="A50">
         <v>0.39539978100000001</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50">
         <v>3.1819093E-2</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>0.39663039207127598</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50">
         <v>-2.5906277583132999E-2</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>-0.199089655</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50">
         <v>2.9506911E-2</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50">
         <v>0.110917033</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50">
         <v>0.13234470800000001</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50">
         <v>7.6550999999999998E-3</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" t="s">
         <v>10</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K50" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A51" s="6">
+      <c r="A51">
         <v>0.55296104300000004</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51">
         <v>2.6204041000000001E-2</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51">
         <v>0.44623210086175702</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51">
         <v>-3.0909434631707599E-2</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51">
         <v>-0.273380664</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51">
         <v>0.124348929</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51">
         <v>0.462935649</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51">
         <v>0.58712362500000004</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51">
         <v>6.1860789999999997E-3</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A52" s="6">
+      <c r="A52">
         <v>2.6105300000000002E-4</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52">
         <v>0.124829098</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52">
         <v>0.25559603243152801</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52">
         <v>4.8423210050520998E-2</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52">
         <v>-7.5396008E-2</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>26.848488540000002</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52">
         <v>512.88401150000004</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52">
         <v>735.34795680000002</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52">
         <v>1.3727669E-2</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="6">
+      <c r="A53">
         <v>3.86031E-4</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>0.124349003</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>0.23203349675336399</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53">
         <v>5.2616038053971199E-2</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53">
         <v>-7.8949473000000006E-2</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53">
         <v>7.1559809999999996E-3</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>0.13122634599999999</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53">
         <v>0.187754747</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53">
         <v>1.5160086E-2</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K53" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A54" s="6">
+      <c r="A54">
         <v>0.86918715400000002</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>7.2315679999999999E-3</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>0.233309535208271</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54">
         <v>-3.6963968960590898E-2</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54">
         <v>-0.22352354099999999</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54">
         <v>2.9351321999999999E-2</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54">
         <v>0.113783261</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54">
         <v>0.13368630400000001</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54">
         <v>1.5078116000000001E-2</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J54" t="s">
         <v>10</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="6">
+      <c r="A55">
         <v>0.80549230599999999</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>9.0218139999999995E-3</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>0.59442000423182795</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>-2.02378964502699E-2</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55">
         <v>-0.227193543</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55">
         <v>0.117992051</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55">
         <v>0.45681070099999999</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55">
         <v>0.57637742300000006</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55">
         <v>3.027386E-3</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" t="s">
         <v>19</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
+      <c r="A56">
         <v>0.32090368800000002</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56">
         <v>4.5404058999999997E-2</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>0.43504315029574198</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56">
         <v>3.46630581195152E-2</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56">
         <v>-0.117973229</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56">
         <v>34.164430840000001</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56">
         <v>537.54325370000004</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56">
         <v>749.76365150000004</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56">
         <v>6.4955150000000003E-3</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J56" t="s">
         <v>16</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K56" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57" s="6">
+      <c r="A57">
         <v>0.206524443</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57">
         <v>5.6959006E-2</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57">
         <v>0.303550384302614</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57">
         <v>4.6153626127895003E-2</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57">
         <v>-0.101134157</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57">
         <v>1.1733840000000001E-2</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57">
         <v>0.137159324</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57">
         <v>0.189675173</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57">
         <v>1.1257131E-2</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" t="s">
         <v>19</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>3.2583889042620301E-5</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58">
         <v>0.115387408155182</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58">
         <v>9.7435185999999993E-2</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>2.8175797999999998E-2</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <v>9.5674667000000005E-2</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58">
         <v>0.114820637</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58">
         <v>0.16855468400000001</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6">
+      <c r="C59">
         <v>3.0708115868278499E-2</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59">
         <v>-6.0202956716520997E-2</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59">
         <v>-0.277917256</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59">
         <v>0.14998927500000001</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59">
         <v>0.45595526600000003</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59">
         <v>0.58816854900000004</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59">
         <v>4.8709895000000003E-2</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" t="s">
         <v>15</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>7.3436072303042403E-6</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60">
         <v>0.21261046036535</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60">
         <v>0.19042510900000001</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60">
         <v>-23.5695625</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60">
         <v>414.99393750000002</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60">
         <v>638.02426390000005</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60">
         <v>0.19343152499999999</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J60" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K60" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>1.94752920988628E-5</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61">
         <v>0.13883274522747499</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61">
         <v>0.168880377</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61">
         <v>-8.33298E-4</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61">
         <v>0.108135918</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61">
         <v>0.16478669400000001</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61">
         <v>0.17721448100000001</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K61" t="s">
         <v>21</v>
       </c>
-      <c r="L61" s="6" t="s">
+      <c r="L61" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>3.2450674158878199E-10</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62">
         <v>0.16610997002972699</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62">
         <v>0.241377167</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62">
         <v>1.2551746000000001E-2</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62">
         <v>8.7895534999999997E-2</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62">
         <v>0.10526735399999999</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62">
         <v>0.34466047500000002</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K62" t="s">
         <v>23</v>
       </c>
-      <c r="L62" s="6" t="s">
+      <c r="L62" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6">
+      <c r="C63">
         <v>0.116201160296595</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63">
         <v>-2.9837717384605899E-2</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63">
         <v>-0.127389114</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63">
         <v>9.5278512999999995E-2</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63">
         <v>0.430159501</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63">
         <v>0.55244283999999999</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63">
         <v>2.6047549E-2</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="K63" t="s">
         <v>23</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="L63" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>2.49426865292049E-5</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64">
         <v>6.7297623863823305E-2</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64">
         <v>0.108397111</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>3.7635890459999999</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64">
         <v>454.68505900000002</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64">
         <v>669.56757430000005</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64">
         <v>0.17305983699999999</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J64" t="s">
         <v>16</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K64" t="s">
         <v>23</v>
       </c>
-      <c r="L64" s="6" t="s">
+      <c r="L64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6">
+      <c r="C65">
         <v>3.9546619188764398E-2</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65">
         <v>6.2468990184649097E-2</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65">
         <v>3.3729792000000001E-2</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65">
         <v>1.0109896E-2</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65">
         <v>0.12907948899999999</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65">
         <v>0.17768045900000001</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65">
         <v>4.4304962000000003E-2</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" t="s">
         <v>17</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K65" t="s">
         <v>23</v>
       </c>
-      <c r="L65" s="6" t="s">
+      <c r="L65" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66" s="6">
+      <c r="A66">
         <v>0.126314222</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66">
         <v>-1.654999549</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6">
+      <c r="E66">
         <v>-799.94735449999996</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66">
         <v>3.1225036890000002</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66">
         <v>3.1225036890000002</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66">
         <v>3.3547499840000001</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66">
         <v>2.6657410999999999E-2</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" t="s">
         <v>10</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="K66" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="6" t="s">
+      <c r="L66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
+      <c r="A67">
         <v>0.83339359499999999</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67">
         <v>5.2613656000000002E-2</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6">
+      <c r="E67">
         <v>-9.5845422310000004</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67">
         <v>1.0680262300000001</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67">
         <v>1.460699118</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67">
         <v>1.680205113</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67">
         <v>5.1139399999999998E-4</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K67" t="s">
         <v>25</v>
       </c>
-      <c r="L67" s="6" t="s">
+      <c r="L67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A68" s="6">
+      <c r="A68">
         <v>1.0608779E-2</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68">
         <v>-4.4525199999999999E-4</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6">
+      <c r="E68">
         <v>-1.0073252450000001</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68">
         <v>-729.98876399999995</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68">
         <v>729.98876399999995</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68">
         <v>1030.938664</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68">
         <v>7.2705309999999995E-2</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" t="s">
         <v>25</v>
       </c>
-      <c r="L68" s="6" t="s">
+      <c r="L68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A69" s="6">
+      <c r="A69">
         <v>1.0608779E-2</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69">
         <v>-1.7467247969999999</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6">
+      <c r="E69">
         <v>-392.10954090000001</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69">
         <v>3.4534422459999998</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69">
         <v>3.4534422459999998</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69">
         <v>3.6775826199999999</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69">
         <v>7.2705309999999995E-2</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J69" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" t="s">
         <v>25</v>
       </c>
-      <c r="L69" s="6" t="s">
+      <c r="L69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A70" s="6">
+      <c r="A70">
         <v>0.126314222</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70">
         <v>-0.33099990800000001</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6">
+      <c r="E70">
         <v>-7.9147724029999997</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70">
         <v>0.210144148</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70">
         <v>0.30968568800000001</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70">
         <v>0.35392668100000002</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70">
         <v>2.6657410999999999E-2</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" t="s">
         <v>10</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" t="s">
         <v>27</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="L70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A71" s="6">
+      <c r="A71">
         <v>0.83339356600000003</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71">
         <v>1.0522732999999999E-2</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6">
+      <c r="E71">
         <v>-12.94888559</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71">
         <v>-1.844333311</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71">
         <v>1.8552318489999999</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71">
         <v>1.9288391739999999</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71">
         <v>5.1139399999999998E-4</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" t="s">
         <v>27</v>
       </c>
-      <c r="L71" s="6" t="s">
+      <c r="L71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A72" s="6">
+      <c r="A72">
         <v>1.0608779E-2</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>-8.9099999999999997E-5</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6">
+      <c r="E72">
         <v>-1.0146567550000001</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72">
         <v>-732.90112360000001</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72">
         <v>732.90112360000001</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72">
         <v>1032.8196359999999</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J72" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="6" t="s">
+      <c r="L72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A73" s="6">
+      <c r="A73">
         <v>1.0608777999999999E-2</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73">
         <v>-0.34934495999999998</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6">
+      <c r="E73">
         <v>-10.887007499999999</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73">
         <v>0.541082705</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73">
         <v>0.59008326899999997</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73">
         <v>0.63950201100000004</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" t="s">
         <v>27</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="L73" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E817C709-67DB-4B92-A2E8-103C830847C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A894E73-015C-4A7A-83E2-63806F9B6887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +489,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +739,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -772,6 +778,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1129,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="80" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38:T41"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6427,8 +6437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944B3C9A-AB44-43CE-B1FC-7E75548DF30D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7456,8 +7466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357755B3-3B09-48C0-A3CE-CDD4D8865D79}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7528,13 +7538,13 @@
       <c r="I2" s="3">
         <v>1.15376E-3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7566,13 +7576,13 @@
       <c r="I3" s="25">
         <v>3.3024930000000001E-3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7756,13 +7766,13 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7794,13 +7804,13 @@
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7835,7 +7845,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8391,7 +8401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96211-681C-4AAE-ACB3-CC395E0821A9}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>

--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A894E73-015C-4A7A-83E2-63806F9B6887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BD70B-09AF-4736-B2BF-9CBC4A08C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="32">
   <si>
     <t>lm_p_value</t>
   </si>
@@ -276,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +745,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -782,6 +788,12 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6435,10 +6447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944B3C9A-AB44-43CE-B1FC-7E75548DF30D}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6509,13 +6521,13 @@
       <c r="I2" s="25">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6547,13 +6559,13 @@
       <c r="I3" s="23">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="45" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6579,13 +6591,13 @@
       <c r="I4" s="24">
         <v>0.35431380699999998</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="47" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6611,13 +6623,13 @@
       <c r="I5" s="25">
         <v>0.20756269999999999</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6643,819 +6655,543 @@
       <c r="I6" s="29">
         <v>0.200054175</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C7" s="2">
-        <v>8.7044289502856599E-14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.203192681846039</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.30691157699999999</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.0392973999999999E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>8.3696708999999994E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.10061786</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0.44838898399999999</v>
-      </c>
-      <c r="J7" s="24" t="s">
+      <c r="A7" s="1">
+        <v>2.6105300000000002E-4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.124829098</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.25559603243152801</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.8423210050520998E-2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-7.5396008E-2</v>
+      </c>
+      <c r="F7">
+        <v>26.848488540000002</v>
+      </c>
+      <c r="G7">
+        <v>512.88401150000004</v>
+      </c>
+      <c r="H7">
+        <v>735.34795680000002</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1.3727669E-2</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>3.86031E-4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.124349003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.23203349675336399</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.2616038053971199E-2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>-7.8949473000000006E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7.1559809999999996E-3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.13122634599999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.187754747</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1.5160086E-2</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C9" s="2">
+        <v>3.2583889042620301E-5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.115387408155182</v>
+      </c>
+      <c r="E9" s="18">
+        <v>9.7435185999999993E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.8175797999999998E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>9.5674667000000005E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.114820637</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0.16855468400000001</v>
+      </c>
+      <c r="J9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C8" s="2">
-        <v>3.4211551211485201E-6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8.0909540242792594E-2</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.129732556</v>
-      </c>
-      <c r="F8">
-        <v>-12.293010990000001</v>
-      </c>
-      <c r="G8">
-        <v>452.20247210000002</v>
-      </c>
-      <c r="H8">
-        <v>661.50792079999997</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0.205950934</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K9" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C10" s="2">
+        <v>7.3436072303042403E-6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.21261046036535</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.19042510900000001</v>
+      </c>
+      <c r="F10">
+        <v>-23.5695625</v>
+      </c>
+      <c r="G10">
+        <v>414.99393750000002</v>
+      </c>
+      <c r="H10">
+        <v>638.02426390000005</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.19343152499999999</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>2.6105300000000002E-4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.124829098</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.25559603243152801</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.8423210050520998E-2</v>
-      </c>
-      <c r="E9" s="12">
-        <v>-7.5396008E-2</v>
-      </c>
-      <c r="F9">
-        <v>26.848488540000002</v>
-      </c>
-      <c r="G9">
-        <v>512.88401150000004</v>
-      </c>
-      <c r="H9">
-        <v>735.34795680000002</v>
-      </c>
-      <c r="I9" s="25">
-        <v>1.3727669E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>3.86031E-4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.124349003</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.23203349675336399</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.2616038053971199E-2</v>
-      </c>
-      <c r="E10" s="15">
-        <v>-7.8949473000000006E-2</v>
-      </c>
-      <c r="F10" s="10">
-        <v>7.1559809999999996E-3</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.13122634599999999</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.187754747</v>
-      </c>
-      <c r="I10" s="23">
-        <v>1.5160086E-2</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C11" s="2">
-        <v>3.2583889042620301E-5</v>
+        <v>1.94752920988628E-5</v>
       </c>
       <c r="D11" s="1">
-        <v>0.115387408155182</v>
-      </c>
-      <c r="E11" s="18">
-        <v>9.7435185999999993E-2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2.8175797999999998E-2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>9.5674667000000005E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.114820637</v>
-      </c>
-      <c r="I11" s="27">
-        <v>0.16855468400000001</v>
-      </c>
-      <c r="J11" s="7" t="s">
+        <v>0.13883274522747499</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.168880377</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-8.33298E-4</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.108135918</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.16478669400000001</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.17721448100000001</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>9.4761189999999999E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.8094664000000003E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.53044595828293795</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-6.2016275843250005E-17</v>
+      </c>
+      <c r="E12" s="17">
+        <v>-0.29943462500000001</v>
+      </c>
+      <c r="F12">
+        <v>388.02498370000001</v>
+      </c>
+      <c r="G12">
+        <v>684.23314919999996</v>
+      </c>
+      <c r="H12">
+        <v>808.32478890000004</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>4.6336917999999998E-2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.5680638999999998E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.53044595882353696</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-2.17788765253797E-16</v>
+      </c>
+      <c r="E13" s="20">
+        <v>-0.30442947100000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>9.9731814000000002E-2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.17494637299999999</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.206443243</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C14" s="37">
+        <v>1.78327117391331E-11</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0.32977675830352399</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.33096848200000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.5583181999999999E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>8.2352002999999993E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9.8856229000000004E-2</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.38323184399999999</v>
+      </c>
+      <c r="J14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C12" s="2">
-        <v>7.3436072303042403E-6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.21261046036535</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.19042510900000001</v>
-      </c>
-      <c r="F12">
-        <v>-23.5695625</v>
-      </c>
-      <c r="G12">
-        <v>414.99393750000002</v>
-      </c>
-      <c r="H12">
-        <v>638.02426390000005</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.19343152499999999</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C15" s="37">
+        <v>4.46569000533541E-5</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0.248652677808505</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.118063973</v>
+      </c>
+      <c r="F15">
+        <v>-14.75358733</v>
+      </c>
+      <c r="G15">
+        <v>424.80500069999999</v>
+      </c>
+      <c r="H15">
+        <v>665.92791720000002</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.16321744499999999</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C13" s="2">
-        <v>1.94752920988628E-5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.13883274522747499</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.168880377</v>
-      </c>
-      <c r="F13" s="10">
-        <v>-8.33298E-4</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.108135918</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.16478669400000001</v>
-      </c>
-      <c r="I13" s="26">
-        <v>0.17721448100000001</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="K15" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C16" s="37">
+        <v>3.97713994502554E-5</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0.20761109375564399</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.13897387</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2.2365586999999999E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.11774108899999999</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.167725285</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.165182308</v>
+      </c>
+      <c r="J16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C14" s="2">
-        <v>3.2450674158878199E-10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.16610997002972699</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.241377167</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1.2551746000000001E-2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>8.7895534999999997E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.10526735399999999</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0.34466047500000002</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C15" s="2">
-        <v>2.49426865292049E-5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6.7297623863823305E-2</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0.108397111</v>
-      </c>
-      <c r="F15">
-        <v>3.7635890459999999</v>
-      </c>
-      <c r="G15">
-        <v>454.68505900000002</v>
-      </c>
-      <c r="H15">
-        <v>669.56757430000005</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0.17305983699999999</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C16" s="1">
-        <v>3.9546619188764398E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.2468990184649097E-2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>3.3729792000000001E-2</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1.0109896E-2</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.12907948899999999</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.17768045900000001</v>
-      </c>
-      <c r="I16" s="29">
-        <v>4.4304962000000003E-2</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>24</v>
+      <c r="K16" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>9.4761189999999999E-3</v>
+        <v>1.5650000000000001E-4</v>
       </c>
       <c r="B17" s="1">
-        <v>8.8094664000000003E-2</v>
+        <v>0.12758799100000001</v>
       </c>
       <c r="C17" s="3">
-        <v>0.53044595828293795</v>
-      </c>
-      <c r="D17" s="4">
-        <v>-6.2016275843250005E-17</v>
-      </c>
-      <c r="E17" s="17">
-        <v>-0.29943462500000001</v>
+        <v>0.57811068654162401</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.7952020314136201E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-0.18895120500000001</v>
       </c>
       <c r="F17">
-        <v>388.02498370000001</v>
+        <v>-64.492079259999997</v>
       </c>
       <c r="G17">
-        <v>684.23314919999996</v>
+        <v>525.9196197</v>
       </c>
       <c r="H17">
-        <v>808.32478890000004</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
+        <v>773.19795329999999</v>
+      </c>
+      <c r="I17" s="25">
+        <v>3.3024930000000001E-3</v>
+      </c>
+      <c r="J17" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>4.6336917999999998E-2</v>
+      <c r="A18" s="2">
+        <v>9.3999999999999998E-6</v>
       </c>
       <c r="B18" s="1">
-        <v>9.5680638999999998E-2</v>
+        <v>0.284827946</v>
       </c>
       <c r="C18" s="3">
-        <v>0.53044595882353696</v>
-      </c>
-      <c r="D18" s="4">
-        <v>-2.17788765253797E-16</v>
-      </c>
-      <c r="E18" s="20">
-        <v>-0.30442947100000001</v>
+        <v>0.74250121006182102</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-2.6187544346265801E-2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>-0.653398798</v>
       </c>
       <c r="F18" s="10">
-        <v>9.9731814000000002E-2</v>
+        <v>-1.4718151E-2</v>
       </c>
       <c r="G18" s="10">
-        <v>0.17494637299999999</v>
+        <v>0.159914216</v>
       </c>
       <c r="H18" s="10">
-        <v>0.206443243</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="10" t="s">
+        <v>0.232423042</v>
+      </c>
+      <c r="I18" s="33">
+        <v>1.15376E-3</v>
+      </c>
+      <c r="J18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="11" t="s">
+      <c r="K18" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="45" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C19" s="37">
-        <v>1.78327117391331E-11</v>
-      </c>
-      <c r="D19" s="36">
-        <v>0.32977675830352399</v>
+      <c r="C19" s="2">
+        <v>4.5853351852656499E-7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.32565640371570398</v>
       </c>
       <c r="E19" s="13">
-        <v>0.33096848200000001</v>
+        <v>0.15296357199999999</v>
       </c>
       <c r="F19" s="7">
-        <v>2.5583181999999999E-2</v>
+        <v>2.7811990000000002E-2</v>
       </c>
       <c r="G19" s="7">
-        <v>8.2352002999999993E-2</v>
+        <v>9.0084888000000002E-2</v>
       </c>
       <c r="H19" s="7">
-        <v>9.8856229000000004E-2</v>
+        <v>0.111232525</v>
       </c>
       <c r="I19" s="24">
-        <v>0.38323184399999999</v>
-      </c>
-      <c r="J19" s="7" t="s">
+        <v>0.238108081</v>
+      </c>
+      <c r="J19" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="K19" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C20" s="37">
-        <v>4.46569000533541E-5</v>
-      </c>
-      <c r="D20" s="36">
-        <v>0.248652677808505</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.118063973</v>
+      <c r="C20" s="2">
+        <v>9.6831058296796801E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.28942128097687397</v>
+      </c>
+      <c r="E20" s="16">
+        <v>8.8981719999999993E-3</v>
       </c>
       <c r="F20">
-        <v>-14.75358733</v>
+        <v>76.161446010000006</v>
       </c>
       <c r="G20">
-        <v>424.80500069999999</v>
+        <v>491.31821559999997</v>
       </c>
       <c r="H20">
-        <v>665.92791720000002</v>
-      </c>
-      <c r="I20" s="28">
-        <v>0.16321744499999999</v>
-      </c>
-      <c r="J20" t="s">
+        <v>705.94004570000004</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.150006107</v>
+      </c>
+      <c r="J20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C21" s="37">
-        <v>3.97713994502554E-5</v>
-      </c>
-      <c r="D21" s="36">
-        <v>0.20761109375564399</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.13897387</v>
+      <c r="C21" s="1">
+        <v>1.76717188240444E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.216701717976578</v>
+      </c>
+      <c r="E21" s="19">
+        <v>-4.1899350000000002E-2</v>
       </c>
       <c r="F21" s="10">
-        <v>2.2365586999999999E-2</v>
+        <v>8.6594670000000006E-3</v>
       </c>
       <c r="G21" s="10">
-        <v>0.11774108899999999</v>
+        <v>0.12553963500000001</v>
       </c>
       <c r="H21" s="10">
-        <v>0.167725285</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0.165182308</v>
-      </c>
-      <c r="J21" s="10" t="s">
+        <v>0.18450292500000001</v>
+      </c>
+      <c r="I21" s="29">
+        <v>9.9278798000000001E-2</v>
+      </c>
+      <c r="J21" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="45" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C22" s="37">
-        <v>2.9038742510633898E-7</v>
-      </c>
-      <c r="D22" s="36">
-        <v>0.34102252721405601</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.20781804800000001</v>
-      </c>
-      <c r="F22" s="7">
-        <v>-8.2663400000000003E-4</v>
-      </c>
-      <c r="G22" s="7">
-        <v>8.6759671999999996E-2</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.10757050899999999</v>
-      </c>
-      <c r="I22" s="24">
-        <v>0.24525772600000001</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C23" s="36">
-        <v>4.4222802761556601E-2</v>
-      </c>
-      <c r="D23" s="36">
-        <v>0.13647706311230801</v>
-      </c>
-      <c r="E23" s="17">
-        <v>-0.17459612899999999</v>
-      </c>
-      <c r="F23">
-        <v>4.6360217000000002E-2</v>
-      </c>
-      <c r="G23">
-        <v>0.49179545499999999</v>
-      </c>
-      <c r="H23">
-        <v>0.56389041600000001</v>
-      </c>
-      <c r="I23" s="28">
-        <v>4.2369269000000001E-2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C24" s="36">
-        <v>4.3636612406593098E-2</v>
-      </c>
-      <c r="D24" s="36">
-        <v>9.89576870326562E-2</v>
-      </c>
-      <c r="E24" s="15">
-        <v>-3.4920303E-2</v>
-      </c>
-      <c r="F24" s="10">
-        <v>9.8373599999999999E-3</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0.13355165899999999</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.18388395099999999</v>
-      </c>
-      <c r="I24" s="26">
-        <v>4.2600012E-2</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>1.5650000000000001E-4</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.12758799100000001</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.57811068654162401</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2.7952020314136201E-2</v>
-      </c>
-      <c r="E25" s="12">
-        <v>-0.18895120500000001</v>
-      </c>
-      <c r="F25">
-        <v>-64.492079259999997</v>
-      </c>
-      <c r="G25">
-        <v>525.9196197</v>
-      </c>
-      <c r="H25">
-        <v>773.19795329999999</v>
-      </c>
-      <c r="I25" s="25">
-        <v>3.3024930000000001E-3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.284827946</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.74250121006182102</v>
-      </c>
-      <c r="D26" s="3">
-        <v>-2.6187544346265801E-2</v>
-      </c>
-      <c r="E26" s="19">
-        <v>-0.653398798</v>
-      </c>
-      <c r="F26" s="10">
-        <v>-1.4718151E-2</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0.159914216</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.232423042</v>
-      </c>
-      <c r="I26" s="33">
-        <v>1.15376E-3</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C27" s="2">
-        <v>4.5853351852656499E-7</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.32565640371570398</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0.15296357199999999</v>
-      </c>
-      <c r="F27" s="7">
-        <v>2.7811990000000002E-2</v>
-      </c>
-      <c r="G27" s="7">
-        <v>9.0084888000000002E-2</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0.111232525</v>
-      </c>
-      <c r="I27" s="24">
-        <v>0.238108081</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C28" s="2">
-        <v>9.6831058296796801E-5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.28942128097687397</v>
-      </c>
-      <c r="E28" s="16">
-        <v>8.8981719999999993E-3</v>
-      </c>
-      <c r="F28">
-        <v>76.161446010000006</v>
-      </c>
-      <c r="G28">
-        <v>491.31821559999997</v>
-      </c>
-      <c r="H28">
-        <v>705.94004570000004</v>
-      </c>
-      <c r="I28" s="25">
-        <v>0.150006107</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C29" s="1">
-        <v>1.76717188240444E-3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.216701717976578</v>
-      </c>
-      <c r="E29" s="19">
-        <v>-4.1899350000000002E-2</v>
-      </c>
-      <c r="F29" s="10">
-        <v>8.6594670000000006E-3</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0.12553963500000001</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0.18450292500000001</v>
-      </c>
-      <c r="I29" s="29">
-        <v>9.9278798000000001E-2</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C30" s="2">
-        <v>3.2318261411046598E-10</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.29020765308463298</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0.33598597299999999</v>
-      </c>
-      <c r="F30" s="7">
-        <v>-1.2743019999999999E-3</v>
-      </c>
-      <c r="G30" s="7">
-        <v>8.1404400000000002E-2</v>
-      </c>
-      <c r="H30" s="7">
-        <v>9.8484839000000005E-2</v>
-      </c>
-      <c r="I30" s="24">
-        <v>0.34471641600000003</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BD70B-09AF-4736-B2BF-9CBC4A08C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37932700-C9BE-4227-B3A2-E4BF49E09EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
     <sheet name="indices vs. indices" sheetId="2" r:id="rId2"/>
     <sheet name="table_indices_mth" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle4" sheetId="5" r:id="rId4"/>
-    <sheet name="table_model_mth" sheetId="4" r:id="rId5"/>
-    <sheet name="Tabelle5" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle5" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="32">
   <si>
     <t>lm_p_value</t>
   </si>
@@ -140,6 +138,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,13 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,14 +746,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -788,12 +788,24 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1152,7 +1164,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="L7" sqref="A7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1824,10 +1836,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>1.78327117391331E-11</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>0.32977675830352399</v>
       </c>
       <c r="E10" s="1">
@@ -1948,10 +1960,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>4.46569000533541E-5</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>0.248652677808505</v>
       </c>
       <c r="E12" s="1">
@@ -2010,10 +2022,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>3.97713994502554E-5</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <v>0.20761109375564399</v>
       </c>
       <c r="E13" s="1">
@@ -2072,10 +2084,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>2.9038742510633898E-7</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>0.34102252721405601</v>
       </c>
       <c r="E14" s="1">
@@ -2134,10 +2146,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>4.4222802761556601E-2</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>0.13647706311230801</v>
       </c>
       <c r="E15" s="1">
@@ -2258,10 +2270,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>4.3636612406593098E-2</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <v>9.89576870326562E-2</v>
       </c>
       <c r="E17" s="1">
@@ -3893,28 +3905,28 @@
       <c r="D2" s="3">
         <v>7.6226510849128806E-2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>-0.17278907299999999</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2.4190914000000001E-2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.105915938</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.13088525000000001</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>2.0374845999999999E-2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="3">
@@ -3929,28 +3941,28 @@
       <c r="P2" s="3">
         <v>-2.54162388182213E-2</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="13">
         <v>-0.44542461999999999</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>2.3435714999999999E-2</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.12086498699999999</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.145304303</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="26">
         <v>1.809525E-3</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3967,7 +3979,7 @@
       <c r="D3" s="4">
         <v>3.6940291842906601E-16</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>-8.5125760000000009E-3</v>
       </c>
       <c r="F3">
@@ -3988,7 +4000,7 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="3">
@@ -4003,7 +4015,7 @@
       <c r="P3" s="3">
         <v>-5.3969717737052898E-2</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="20">
         <v>-0.66401309900000005</v>
       </c>
       <c r="R3">
@@ -4024,7 +4036,7 @@
       <c r="W3" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4041,7 +4053,7 @@
       <c r="D4" s="4">
         <v>-6.2016275843250005E-17</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>-0.29943462500000001</v>
       </c>
       <c r="F4">
@@ -4062,7 +4074,7 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="1">
@@ -4077,7 +4089,7 @@
       <c r="P4" s="3">
         <v>2.7952020314136201E-2</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>-0.18895120500000001</v>
       </c>
       <c r="R4">
@@ -4089,7 +4101,7 @@
       <c r="T4">
         <v>773.19795329999999</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="24">
         <v>3.3024930000000001E-3</v>
       </c>
       <c r="V4" t="s">
@@ -4098,7 +4110,7 @@
       <c r="W4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4115,28 +4127,28 @@
       <c r="D5" s="4">
         <v>-2.17788765253797E-16</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>0.17494637299999999</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>0.206443243</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="2">
@@ -4151,28 +4163,28 @@
       <c r="P5" s="3">
         <v>-2.6187544346265801E-2</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>-0.653398798</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <v>-1.4718151E-2</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="9">
         <v>0.159914216</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <v>0.232423042</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="32">
         <v>1.15376E-3</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4189,28 +4201,28 @@
       <c r="D6" s="3">
         <v>6.5765556780988102E-3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>-0.46668421399999999</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>2.5772448E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.117263837</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.14636898500000001</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>9.9599999999999995E-5</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="3">
@@ -4225,28 +4237,28 @@
       <c r="P6" s="3">
         <v>-4.5009615197870202E-2</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>-0.57460947900000003</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>3.3270824999999997E-2</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>0.12525974200000001</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>0.15165864900000001</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="30">
         <v>4.9555390000000001E-3</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4263,7 +4275,7 @@
       <c r="D7" s="3">
         <v>-1.95530420566477E-2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>-1.1134289040000001</v>
       </c>
       <c r="F7">
@@ -4284,7 +4296,7 @@
       <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="3">
@@ -4299,7 +4311,7 @@
       <c r="P7" s="3">
         <v>-6.6792809934960201E-2</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="15">
         <v>-0.65542605200000004</v>
       </c>
       <c r="R7">
@@ -4320,7 +4332,7 @@
       <c r="W7" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4337,7 +4349,7 @@
       <c r="D8" s="3">
         <v>9.4880842692049508E-3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>-0.27318971199999997</v>
       </c>
       <c r="F8">
@@ -4349,7 +4361,7 @@
       <c r="H8">
         <v>800.12021010000001</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>3.0936700000000001E-4</v>
       </c>
       <c r="J8" t="s">
@@ -4358,7 +4370,7 @@
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="3">
@@ -4373,7 +4385,7 @@
       <c r="P8" s="3">
         <v>-1.7751305673536701E-2</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>-0.69415458399999996</v>
       </c>
       <c r="R8">
@@ -4394,7 +4406,7 @@
       <c r="W8" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="X8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4411,28 +4423,28 @@
       <c r="D9" s="3">
         <v>-4.54095535694626E-3</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>-0.38561272899999999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>3.0282479999999999E-3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>0.14847179299999999</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>0.212770446</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <v>5.4799999999999997E-5</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="3">
@@ -4447,60 +4459,60 @@
       <c r="P9" s="3">
         <v>-2.27955532553719E-2</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <v>-0.78191730800000003</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <v>9.3841310000000004E-3</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="9">
         <v>0.16536169100000001</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="9">
         <v>0.24128712299999999</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="28">
         <v>7.0830899999999996E-4</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="W9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>1.78327117391331E-11</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>0.38323184399999999</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="2">
@@ -4509,28 +4521,28 @@
       <c r="P10" s="1">
         <v>0.32565640371570398</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>0.15296357199999999</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>2.7811990000000002E-2</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>9.0084888000000002E-2</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>0.111232525</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="23">
         <v>0.238108081</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4541,7 +4553,7 @@
       <c r="D11" s="3">
         <v>5.7923108261696103E-2</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>-0.45596506599999997</v>
       </c>
       <c r="F11">
@@ -4562,7 +4574,7 @@
       <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="3">
@@ -4571,7 +4583,7 @@
       <c r="P11" s="3">
         <v>4.2789114656172099E-2</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="20">
         <v>-0.447511928</v>
       </c>
       <c r="R11">
@@ -4592,18 +4604,18 @@
       <c r="W11" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>4.46569000533541E-5</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>0.248652677808505</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>0.118063973</v>
       </c>
       <c r="F12">
@@ -4615,7 +4627,7 @@
       <c r="H12">
         <v>665.92791720000002</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>0.16321744499999999</v>
       </c>
       <c r="J12" t="s">
@@ -4624,7 +4636,7 @@
       <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O12" s="2">
@@ -4633,7 +4645,7 @@
       <c r="P12" s="1">
         <v>0.28942128097687397</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="15">
         <v>8.8981719999999993E-3</v>
       </c>
       <c r="R12">
@@ -4645,7 +4657,7 @@
       <c r="T12">
         <v>705.94004570000004</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="24">
         <v>0.150006107</v>
       </c>
       <c r="V12" t="s">
@@ -4654,39 +4666,39 @@
       <c r="W12" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="X12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>3.97713994502554E-5</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>0.13897387</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>0.167725285</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>0.165182308</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="1">
@@ -4695,60 +4707,60 @@
       <c r="P13" s="1">
         <v>0.216701717976578</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="18">
         <v>-4.1899350000000002E-2</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="9">
         <v>8.6594670000000006E-3</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="9">
         <v>0.12553963500000001</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9">
         <v>0.18450292500000001</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="28">
         <v>9.9278798000000001E-2</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="X13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>2.9038742510633898E-7</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>0.34102252721405601</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.20781804800000001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>-8.2663400000000003E-4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>8.6759671999999996E-2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.10757050899999999</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <v>0.24525772600000001</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="2">
@@ -4757,39 +4769,39 @@
       <c r="P14" s="1">
         <v>0.29020765308463298</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="12">
         <v>0.33598597299999999</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>-1.2743019999999999E-3</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>8.1404400000000002E-2</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>9.8484839000000005E-2</v>
       </c>
-      <c r="U14" s="24">
+      <c r="U14" s="23">
         <v>0.34471641600000003</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X14" s="8" t="s">
+      <c r="X14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>4.4222802761556601E-2</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>0.13647706311230801</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>-0.17459612899999999</v>
       </c>
       <c r="F15">
@@ -4801,7 +4813,7 @@
       <c r="H15">
         <v>0.56389041600000001</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <v>4.2369269000000001E-2</v>
       </c>
       <c r="J15" t="s">
@@ -4810,7 +4822,7 @@
       <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="3">
@@ -4819,7 +4831,7 @@
       <c r="P15" s="3">
         <v>7.7597372012827598E-2</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>-0.28644267200000001</v>
       </c>
       <c r="R15">
@@ -4831,7 +4843,7 @@
       <c r="T15">
         <v>0.59012722299999998</v>
       </c>
-      <c r="U15" s="28">
+      <c r="U15" s="27">
         <v>1.4376592000000001E-2</v>
       </c>
       <c r="V15" t="s">
@@ -4840,7 +4852,7 @@
       <c r="W15" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="X15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4851,7 +4863,7 @@
       <c r="D16" s="3">
         <v>2.3508160741141501E-3</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>-0.25353361299999999</v>
       </c>
       <c r="F16">
@@ -4872,7 +4884,7 @@
       <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O16" s="3">
@@ -4881,7 +4893,7 @@
       <c r="P16" s="3">
         <v>9.1238416407046996E-2</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="15">
         <v>-4.6634470999999997E-2</v>
       </c>
       <c r="R16">
@@ -4893,7 +4905,7 @@
       <c r="T16">
         <v>725.44784870000001</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="24">
         <v>3.6333892999999999E-2</v>
       </c>
       <c r="V16" t="s">
@@ -4902,39 +4914,39 @@
       <c r="W16" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="X16" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>4.3636612406593098E-2</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <v>9.89576870326562E-2</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>-3.4920303E-2</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>9.8373599999999999E-3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>0.13355165899999999</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>0.18388395099999999</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>4.2600012E-2</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O17" s="3">
@@ -4943,28 +4955,28 @@
       <c r="P17" s="3">
         <v>-4.2524971434154901E-2</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="19">
         <v>-0.77561755499999996</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="9">
         <v>5.3121105000000002E-2</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="9">
         <v>0.183269444</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="9">
         <v>0.24086022500000001</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="32">
         <v>2.9930069999999998E-3</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="V17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="X17" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5055,28 +5067,28 @@
       <c r="D20" s="3">
         <v>2.08516149786343E-2</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>-6.8654209999999993E-2</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>2.4829760999999999E-2</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>0.101981853</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>0.124939382</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>6.3798459999999998E-3</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M20" s="3">
@@ -5091,28 +5103,28 @@
       <c r="P20" s="3">
         <v>-2.5906277583132999E-2</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="17">
         <v>-0.199089655</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="6">
         <v>2.9506911E-2</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="6">
         <v>0.110917033</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="6">
         <v>0.13234470800000001</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="26">
         <v>7.6550999999999998E-3</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5129,7 +5141,7 @@
       <c r="D21" s="3">
         <v>6.5663321534741503E-3</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>-0.16844789800000001</v>
       </c>
       <c r="F21">
@@ -5150,7 +5162,7 @@
       <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="3">
@@ -5165,7 +5177,7 @@
       <c r="P21" s="3">
         <v>-3.0909434631707599E-2</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="20">
         <v>-0.273380664</v>
       </c>
       <c r="R21">
@@ -5186,7 +5198,7 @@
       <c r="W21" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="9" t="s">
+      <c r="X21" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5203,7 +5215,7 @@
       <c r="D22" s="3">
         <v>5.2070486710213797E-2</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>-2.0020177E-2</v>
       </c>
       <c r="F22">
@@ -5215,7 +5227,7 @@
       <c r="H22">
         <v>716.16494850000004</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <v>2.1880443999999999E-2</v>
       </c>
       <c r="J22" t="s">
@@ -5224,7 +5236,7 @@
       <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="1">
@@ -5239,7 +5251,7 @@
       <c r="P22" s="3">
         <v>4.8423210050520998E-2</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <v>-7.5396008E-2</v>
       </c>
       <c r="R22">
@@ -5251,7 +5263,7 @@
       <c r="T22">
         <v>735.34795680000002</v>
       </c>
-      <c r="U22" s="25">
+      <c r="U22" s="24">
         <v>1.3727669E-2</v>
       </c>
       <c r="V22" t="s">
@@ -5260,7 +5272,7 @@
       <c r="W22" t="s">
         <v>13</v>
       </c>
-      <c r="X22" s="9" t="s">
+      <c r="X22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5277,28 +5289,28 @@
       <c r="D23" s="3">
         <v>5.11487688085073E-2</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>-1.417375E-3</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>0.125541926</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>0.182183768</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M23" s="1">
@@ -5313,28 +5325,28 @@
       <c r="P23" s="3">
         <v>5.2616038053971199E-2</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="14">
         <v>-7.8949473000000006E-2</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <v>7.1559809999999996E-3</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="9">
         <v>0.13122634599999999</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="9">
         <v>0.187754747</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="22">
         <v>1.5160086E-2</v>
       </c>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X23" s="11" t="s">
+      <c r="X23" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5351,28 +5363,28 @@
       <c r="D24" s="3">
         <v>-1.29595349168103E-2</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>-0.155206818</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>2.7170057000000001E-2</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>0.10999735300000001</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>0.12990044100000001</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <v>2.132704E-3</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="3">
@@ -5387,28 +5399,28 @@
       <c r="P24" s="3">
         <v>-3.6963968960590898E-2</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="17">
         <v>-0.22352354099999999</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="6">
         <v>2.9351321999999999E-2</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <v>0.113783261</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="6">
         <v>0.13368630400000001</v>
       </c>
-      <c r="U24" s="24">
+      <c r="U24" s="23">
         <v>1.5078116000000001E-2</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W24" s="7" t="s">
+      <c r="W24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X24" s="8" t="s">
+      <c r="X24" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5425,7 +5437,7 @@
       <c r="D25" s="3">
         <v>-4.0797996282050199E-2</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>-0.23124994500000001</v>
       </c>
       <c r="F25">
@@ -5446,7 +5458,7 @@
       <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M25" s="3">
@@ -5461,7 +5473,7 @@
       <c r="P25" s="3">
         <v>-2.02378964502699E-2</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="20">
         <v>-0.227193543</v>
       </c>
       <c r="R25">
@@ -5482,7 +5494,7 @@
       <c r="W25" t="s">
         <v>19</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="X25" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5499,7 +5511,7 @@
       <c r="D26" s="3">
         <v>3.5349086696000502E-2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>-0.102465743</v>
       </c>
       <c r="F26">
@@ -5511,7 +5523,7 @@
       <c r="H26">
         <v>744.54548069999998</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <v>7.2693599999999999E-3</v>
       </c>
       <c r="J26" t="s">
@@ -5520,7 +5532,7 @@
       <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="3">
@@ -5535,7 +5547,7 @@
       <c r="P26" s="3">
         <v>3.46630581195152E-2</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="15">
         <v>-0.117973229</v>
       </c>
       <c r="R26">
@@ -5547,7 +5559,7 @@
       <c r="T26">
         <v>749.76365150000004</v>
       </c>
-      <c r="U26" s="28">
+      <c r="U26" s="27">
         <v>6.4955150000000003E-3</v>
       </c>
       <c r="V26" t="s">
@@ -5556,7 +5568,7 @@
       <c r="W26" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="9" t="s">
+      <c r="X26" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5573,28 +5585,28 @@
       <c r="D27" s="3">
         <v>3.56575577724558E-2</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>-9.2685693999999999E-2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>6.3986049999999999E-3</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>0.13543027299999999</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>0.18894612999999999</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>7.8124700000000002E-3</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="3">
@@ -5609,28 +5621,28 @@
       <c r="P27" s="3">
         <v>4.6153626127895003E-2</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="21">
         <v>-0.101134157</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>1.1733840000000001E-2</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="9">
         <v>0.137159324</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="9">
         <v>0.189675173</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="25">
         <v>1.1257131E-2</v>
       </c>
-      <c r="V27" s="10" t="s">
+      <c r="V27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W27" s="10" t="s">
+      <c r="W27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X27" s="11" t="s">
+      <c r="X27" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5641,28 +5653,28 @@
       <c r="D28" s="1">
         <v>0.162877180443915</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>0.107183662</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="23">
         <v>0.35431380699999998</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="O28" s="2">
@@ -5671,28 +5683,28 @@
       <c r="P28" s="1">
         <v>0.115387408155182</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="17">
         <v>9.7435185999999993E-2</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="6">
         <v>2.8175797999999998E-2</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="6">
         <v>9.5674667000000005E-2</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="6">
         <v>0.114820637</v>
       </c>
-      <c r="U28" s="27">
+      <c r="U28" s="26">
         <v>0.16855468400000001</v>
       </c>
-      <c r="V28" s="7" t="s">
+      <c r="V28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X28" s="8" t="s">
+      <c r="X28" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5703,7 +5715,7 @@
       <c r="D29" s="3">
         <v>-4.7270402660136997E-2</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>-0.23602377599999999</v>
       </c>
       <c r="F29">
@@ -5724,7 +5736,7 @@
       <c r="K29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O29" s="1">
@@ -5733,7 +5745,7 @@
       <c r="P29" s="1">
         <v>-6.0202956716520997E-2</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="20">
         <v>-0.277917256</v>
       </c>
       <c r="R29">
@@ -5754,7 +5766,7 @@
       <c r="W29" t="s">
         <v>21</v>
       </c>
-      <c r="X29" s="9" t="s">
+      <c r="X29" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5765,7 +5777,7 @@
       <c r="D30" s="1">
         <v>0.146091371810087</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>0.18892056400000001</v>
       </c>
       <c r="F30">
@@ -5777,7 +5789,7 @@
       <c r="H30">
         <v>638.61685279999995</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="24">
         <v>0.20756269999999999</v>
       </c>
       <c r="J30" t="s">
@@ -5786,7 +5798,7 @@
       <c r="K30" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O30" s="2">
@@ -5795,7 +5807,7 @@
       <c r="P30" s="1">
         <v>0.21261046036535</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="11">
         <v>0.19042510900000001</v>
       </c>
       <c r="R30">
@@ -5816,7 +5828,7 @@
       <c r="W30" t="s">
         <v>21</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="X30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5827,28 +5839,28 @@
       <c r="D31" s="1">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>0.10626565</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>0.161905471</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>0.200054175</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="10" t="s">
         <v>24</v>
       </c>
       <c r="O31" s="2">
@@ -5857,28 +5869,28 @@
       <c r="P31" s="1">
         <v>0.13883274522747499</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="14">
         <v>0.168880377</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="9">
         <v>-8.33298E-4</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="9">
         <v>0.108135918</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="9">
         <v>0.16478669400000001</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="25">
         <v>0.17721448100000001</v>
       </c>
-      <c r="V31" s="10" t="s">
+      <c r="V31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="10" t="s">
+      <c r="W31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X31" s="11" t="s">
+      <c r="X31" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5889,28 +5901,28 @@
       <c r="D32" s="1">
         <v>0.203192681846039</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>0.30691157699999999</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>1.0392973999999999E-2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>8.3696708999999994E-2</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>0.10061786</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="23">
         <v>0.44838898399999999</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="35" t="s">
+      <c r="L32" s="34" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="2">
@@ -5919,28 +5931,28 @@
       <c r="P32" s="1">
         <v>0.16610997002972699</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="12">
         <v>0.241377167</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="6">
         <v>1.2551746000000001E-2</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="6">
         <v>8.7895534999999997E-2</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="6">
         <v>0.10526735399999999</v>
       </c>
-      <c r="U32" s="24">
+      <c r="U32" s="23">
         <v>0.34466047500000002</v>
       </c>
-      <c r="V32" s="7" t="s">
+      <c r="V32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W32" s="7" t="s">
+      <c r="W32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5951,7 +5963,7 @@
       <c r="D33" s="3">
         <v>1.7396354800307001E-2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>-2.5700154999999999E-2</v>
       </c>
       <c r="F33">
@@ -5972,7 +5984,7 @@
       <c r="K33" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="3">
@@ -5981,7 +5993,7 @@
       <c r="P33" s="3">
         <v>-2.9837717384605899E-2</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33" s="20">
         <v>-0.127389114</v>
       </c>
       <c r="R33">
@@ -6002,7 +6014,7 @@
       <c r="W33" t="s">
         <v>23</v>
       </c>
-      <c r="X33" s="9" t="s">
+      <c r="X33" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6013,7 +6025,7 @@
       <c r="D34" s="1">
         <v>8.0909540242792594E-2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>0.129732556</v>
       </c>
       <c r="F34">
@@ -6025,7 +6037,7 @@
       <c r="H34">
         <v>661.50792079999997</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <v>0.205950934</v>
       </c>
       <c r="J34" t="s">
@@ -6034,7 +6046,7 @@
       <c r="K34" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="2">
@@ -6043,7 +6055,7 @@
       <c r="P34" s="1">
         <v>6.7297623863823305E-2</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="15">
         <v>0.108397111</v>
       </c>
       <c r="R34">
@@ -6055,7 +6067,7 @@
       <c r="T34">
         <v>669.56757430000005</v>
       </c>
-      <c r="U34" s="25">
+      <c r="U34" s="24">
         <v>0.17305983699999999</v>
       </c>
       <c r="V34" t="s">
@@ -6064,7 +6076,7 @@
       <c r="W34" t="s">
         <v>23</v>
       </c>
-      <c r="X34" s="9" t="s">
+      <c r="X34" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6075,28 +6087,28 @@
       <c r="D35" s="3">
         <v>5.4627049948883101E-2</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>2.6058532999999998E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>4.833464E-3</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>0.12727951200000001</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>0.17838437100000001</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <v>3.6179629999999997E-2</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>24</v>
       </c>
       <c r="O35" s="1">
@@ -6105,28 +6117,28 @@
       <c r="P35" s="1">
         <v>6.2468990184649097E-2</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="18">
         <v>3.3729792000000001E-2</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <v>1.0109896E-2</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="9">
         <v>0.12907948899999999</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="9">
         <v>0.17768045900000001</v>
       </c>
-      <c r="U35" s="29">
+      <c r="U35" s="28">
         <v>4.4304962000000003E-2</v>
       </c>
-      <c r="V35" s="10" t="s">
+      <c r="V35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W35" s="10" t="s">
+      <c r="W35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X35" s="11" t="s">
+      <c r="X35" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6449,8 +6461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944B3C9A-AB44-43CE-B1FC-7E75548DF30D}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6506,7 +6518,7 @@
       <c r="D2" s="3">
         <v>5.2070486710213797E-2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>-2.0020177E-2</v>
       </c>
       <c r="F2">
@@ -6518,16 +6530,16 @@
       <c r="H2">
         <v>716.16494850000004</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6544,28 +6556,28 @@
       <c r="D3" s="3">
         <v>5.11487688085073E-2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>-1.417375E-3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.125541926</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.182183768</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6576,28 +6588,28 @@
       <c r="D4" s="1">
         <v>0.162877180443915</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>0.107183662</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>0.35431380699999998</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="42" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6608,7 +6620,7 @@
       <c r="D5" s="1">
         <v>0.146091371810087</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0.18892056400000001</v>
       </c>
       <c r="F5">
@@ -6620,16 +6632,16 @@
       <c r="H5">
         <v>638.61685279999995</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>0.20756269999999999</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6640,28 +6652,28 @@
       <c r="D6" s="1">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>0.10626565</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>0.161905471</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>0.200054175</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6678,7 +6690,7 @@
       <c r="D7" s="3">
         <v>4.8423210050520998E-2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>-7.5396008E-2</v>
       </c>
       <c r="F7">
@@ -6690,16 +6702,16 @@
       <c r="H7">
         <v>735.34795680000002</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>1.3727669E-2</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6716,28 +6728,28 @@
       <c r="D8" s="3">
         <v>5.2616038053971199E-2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>-7.8949473000000006E-2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>7.1559809999999996E-3</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>0.13122634599999999</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>0.187754747</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>1.5160086E-2</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6748,28 +6760,28 @@
       <c r="D9" s="1">
         <v>0.115387408155182</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>9.7435185999999993E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>2.8175797999999998E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>9.5674667000000005E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.114820637</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>0.16855468400000001</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="42" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6780,7 +6792,7 @@
       <c r="D10" s="1">
         <v>0.21261046036535</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.19042510900000001</v>
       </c>
       <c r="F10">
@@ -6795,13 +6807,13 @@
       <c r="I10" s="1">
         <v>0.19343152499999999</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6812,28 +6824,28 @@
       <c r="D11" s="1">
         <v>0.13883274522747499</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0.168880377</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>-8.33298E-4</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>0.108135918</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>0.16478669400000001</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>0.17721448100000001</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6850,7 +6862,7 @@
       <c r="D12" s="4">
         <v>-6.2016275843250005E-17</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>-0.29943462500000001</v>
       </c>
       <c r="F12">
@@ -6865,13 +6877,13 @@
       <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6888,71 +6900,71 @@
       <c r="D13" s="4">
         <v>-2.17788765253797E-16</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>0.17494637299999999</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>0.206443243</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>1.78327117391331E-11</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <v>0.38323184399999999</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>4.46569000533541E-5</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>0.248652677808505</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>0.118063973</v>
       </c>
       <c r="F15">
@@ -6964,48 +6976,48 @@
       <c r="H15">
         <v>665.92791720000002</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="27">
         <v>0.16321744499999999</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="43" t="s">
+      <c r="L15" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>3.97713994502554E-5</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>0.13897387</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>0.167725285</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <v>0.165182308</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="40" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7022,7 +7034,7 @@
       <c r="D17" s="3">
         <v>2.7952020314136201E-2</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>-0.18895120500000001</v>
       </c>
       <c r="F17">
@@ -7034,16 +7046,16 @@
       <c r="H17">
         <v>773.19795329999999</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>3.3024930000000001E-3</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7060,28 +7072,28 @@
       <c r="D18" s="3">
         <v>-2.6187544346265801E-2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>-0.653398798</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>-1.4718151E-2</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>0.159914216</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>0.232423042</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>1.15376E-3</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="45" t="s">
+      <c r="L18" s="40" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7092,28 +7104,28 @@
       <c r="D19" s="1">
         <v>0.32565640371570398</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0.15296357199999999</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>2.7811990000000002E-2</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>9.0084888000000002E-2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>0.111232525</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <v>0.238108081</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7124,7 +7136,7 @@
       <c r="D20" s="1">
         <v>0.28942128097687397</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>8.8981719999999993E-3</v>
       </c>
       <c r="F20">
@@ -7136,16 +7148,16 @@
       <c r="H20">
         <v>705.94004570000004</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <v>0.150006107</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7156,42 +7168,42 @@
       <c r="D21" s="1">
         <v>0.216701717976578</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>-4.1899350000000002E-2</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>8.6594670000000006E-3</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>0.12553963500000001</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>0.18450292500000001</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>9.9278798000000001E-2</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="44" t="s">
+      <c r="K21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7199,961 +7211,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357755B3-3B09-48C0-A3CE-CDD4D8865D79}">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96211-681C-4AAE-ACB3-CC395E0821A9}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.284827946</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.74250121006182102</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-2.6187544346265801E-2</v>
-      </c>
-      <c r="E2" s="17">
-        <v>-0.653398798</v>
-      </c>
-      <c r="F2">
-        <v>-1.4718151E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.159914216</v>
-      </c>
-      <c r="H2">
-        <v>0.232423042</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1.15376E-3</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>1.5650000000000001E-4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.12758799100000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.57811068654162401</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.7952020314136201E-2</v>
-      </c>
-      <c r="E3" s="12">
-        <v>-0.18895120500000001</v>
-      </c>
-      <c r="F3">
-        <v>-64.492079259999997</v>
-      </c>
-      <c r="G3">
-        <v>525.9196197</v>
-      </c>
-      <c r="H3">
-        <v>773.19795329999999</v>
-      </c>
-      <c r="I3" s="25">
-        <v>3.3024930000000001E-3</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>2.6105300000000002E-4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.124829098</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.25559603243152801</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.8423210050520998E-2</v>
-      </c>
-      <c r="E4" s="12">
-        <v>-7.5396008E-2</v>
-      </c>
-      <c r="F4">
-        <v>26.848488540000002</v>
-      </c>
-      <c r="G4">
-        <v>512.88401150000004</v>
-      </c>
-      <c r="H4">
-        <v>735.34795680000002</v>
-      </c>
-      <c r="I4" s="25">
-        <v>1.3727669E-2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>3.86031E-4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.124349003</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.23203349675336399</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5.2616038053971199E-2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>-7.8949473000000006E-2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>7.1559809999999996E-3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.13122634599999999</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.187754747</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1.5160086E-2</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>9.6857699999999998E-4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.6863640000000001E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.150360956714193</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5.2070486710213797E-2</v>
-      </c>
-      <c r="E6" s="16">
-        <v>-2.0020177E-2</v>
-      </c>
-      <c r="F6">
-        <v>-11.104145170000001</v>
-      </c>
-      <c r="G6">
-        <v>493.34563880000002</v>
-      </c>
-      <c r="H6">
-        <v>716.16494850000004</v>
-      </c>
-      <c r="I6" s="25">
-        <v>2.1880443999999999E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>1.340674E-3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9.1575437999999995E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.147834301201035</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5.11487688085073E-2</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-1.5871120999999998E-2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-1.417375E-3</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.125541926</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.182183768</v>
-      </c>
-      <c r="I7" s="23">
-        <v>2.2151039000000001E-2</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>9.4761189999999999E-3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8.8094664000000003E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.53044595828293795</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-6.2016275843250005E-17</v>
-      </c>
-      <c r="E8" s="17">
-        <v>-0.29943462500000001</v>
-      </c>
-      <c r="F8">
-        <v>388.02498370000001</v>
-      </c>
-      <c r="G8">
-        <v>684.23314919999996</v>
-      </c>
-      <c r="H8">
-        <v>808.32478890000004</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>4.6336917999999998E-2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9.5680638999999998E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.53044595882353696</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-2.17788765253797E-16</v>
-      </c>
-      <c r="E9" s="20">
-        <v>-0.30442947100000001</v>
-      </c>
-      <c r="F9" s="10">
-        <v>9.9731814000000002E-2</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.17494637299999999</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.206443243</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="6"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C28" s="6"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C30" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB1A9F1-FDD8-4096-8A87-FC04B3C197C3}">
-  <dimension ref="A1:L16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>9.6857699999999998E-4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9.6863640000000001E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.150360956714193</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.2070486710213797E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-2.0020177E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-11.104145170000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>493.34563880000002</v>
-      </c>
-      <c r="H2" s="1">
-        <v>716.16494850000004</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.1880443999999999E-2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>1.340674E-3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9.1575437999999995E-2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.147834301201035</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.11487688085073E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1.5871120999999998E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1.417375E-3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.125541926</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.182183768</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.2151039000000001E-2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C4" s="2">
-        <v>1.5945739980705101E-10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.162877180443915</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.21350551700000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.3365177000000001E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8.9453724999999998E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.107183662</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.35431380699999998</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C5" s="2">
-        <v>3.0984901678166902E-6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.146091371810087</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.18892056400000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-14.822058030000001</v>
-      </c>
-      <c r="G5" s="3">
-        <v>419.83932570000002</v>
-      </c>
-      <c r="H5" s="3">
-        <v>638.61685279999995</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.20756269999999999</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C6" s="2">
-        <v>4.9085924130319401E-6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.18324568284551401</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.19768981699999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-5.5774379999999997E-3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.10626565</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.161905471</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.200054175</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C7" s="2">
-        <v>8.7044289502856599E-14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.203192681846039</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.30691157699999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.0392973999999999E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8.3696708999999994E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.10061786</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.44838898399999999</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C8" s="2">
-        <v>3.4211551211485201E-6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8.0909540242792594E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.129732556</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-12.293010990000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>452.20247210000002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>661.50792079999997</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.205950934</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>2.6105300000000002E-4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.124829098</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.25559603243152801</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.8423210050520998E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-7.5396008E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>26.848488540000002</v>
-      </c>
-      <c r="G9" s="3">
-        <v>512.88401150000004</v>
-      </c>
-      <c r="H9" s="3">
-        <v>735.34795680000002</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1.3727669E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>3.86031E-4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.124349003</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.23203349675336399</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.2616038053971199E-2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-7.8949473000000006E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7.1559809999999996E-3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.13122634599999999</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.187754747</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1.5160086E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C11" s="2">
-        <v>3.2583889042620301E-5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.115387408155182</v>
-      </c>
-      <c r="E11" s="3">
-        <v>9.7435185999999993E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2.8175797999999998E-2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9.5674667000000005E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.114820637</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.16855468400000001</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C12" s="2">
-        <v>7.3436072303042403E-6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.21261046036535</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.19042510900000001</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-23.5695625</v>
-      </c>
-      <c r="G12" s="1">
-        <v>414.99393750000002</v>
-      </c>
-      <c r="H12" s="1">
-        <v>638.02426390000005</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.19343152499999999</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C13" s="2">
-        <v>1.94752920988628E-5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.13883274522747499</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.168880377</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-8.33298E-4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.108135918</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.16478669400000001</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.17721448100000001</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C14" s="2">
-        <v>3.2450674158878199E-10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.16610997002972699</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.241377167</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.2551746000000001E-2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>8.7895534999999997E-2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.10526735399999999</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.34466047500000002</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C15" s="2">
-        <v>2.49426865292049E-5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6.7297623863823305E-2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.108397111</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3.7635890459999999</v>
-      </c>
-      <c r="G15" s="3">
-        <v>454.68505900000002</v>
-      </c>
-      <c r="H15" s="3">
-        <v>669.56757430000005</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.17305983699999999</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C16" s="1">
-        <v>3.9546619188764398E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.2468990184649097E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.3729792000000001E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.0109896E-2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.12907948899999999</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.17768045900000001</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4.4304962000000003E-2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96211-681C-4AAE-ACB3-CC395E0821A9}">
-  <dimension ref="A1:L73"/>
-  <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.9296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -8161,2529 +7240,711 @@
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="45">
         <v>0.86681282500000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="46">
         <v>1.023867E-2</v>
       </c>
-      <c r="C2">
-        <v>0.165331931645776</v>
-      </c>
-      <c r="D2">
-        <v>7.6226510849128806E-2</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="46">
         <v>-0.17278907299999999</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="46">
         <v>2.4190914000000001E-2</v>
       </c>
-      <c r="G2">
+      <c r="E2" s="46">
         <v>0.105915938</v>
       </c>
-      <c r="H2">
+      <c r="F2" s="46">
         <v>0.13088525000000001</v>
       </c>
-      <c r="I2">
+      <c r="G2" s="46">
         <v>2.0374845999999999E-2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="J2" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="49">
         <v>0.30029044599999999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="50">
         <v>7.8965568999999999E-2</v>
       </c>
-      <c r="C3">
-        <v>0.29148890806981198</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3.6940291842906601E-16</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="50">
         <v>-8.5125760000000009E-3</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="50">
         <v>-4.8004386000000003E-2</v>
       </c>
-      <c r="G3">
+      <c r="E3" s="50">
         <v>0.39556434800000001</v>
       </c>
-      <c r="H3">
+      <c r="F3" s="50">
         <v>0.52250576800000004</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="J3" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="53">
         <v>9.4761189999999999E-3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="53">
         <v>8.8094664000000003E-2</v>
       </c>
-      <c r="C4">
-        <v>0.53044595828293795</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-6.2016275843250005E-17</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="53">
         <v>-0.29943462500000001</v>
       </c>
-      <c r="F4">
+      <c r="D4" s="53">
         <v>388.02498370000001</v>
       </c>
-      <c r="G4">
+      <c r="E4" s="53">
         <v>684.23314919999996</v>
       </c>
-      <c r="H4">
+      <c r="F4" s="53">
         <v>808.32478890000004</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="J4" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="55">
         <v>4.6336917999999998E-2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="56">
         <v>9.5680638999999998E-2</v>
       </c>
-      <c r="C5">
-        <v>0.53044595882353696</v>
-      </c>
-      <c r="D5" s="6">
-        <v>-2.17788765253797E-16</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="56">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="56">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="G5">
+      <c r="E5" s="56">
         <v>0.17494637299999999</v>
       </c>
-      <c r="H5">
+      <c r="F5" s="56">
         <v>0.206443243</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="J5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="45">
         <v>7.5991659000000003E-2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="46">
         <v>0.14507757900000001</v>
       </c>
-      <c r="C6">
-        <v>0.92312988877536095</v>
-      </c>
-      <c r="D6">
-        <v>6.5765556780988102E-3</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="46">
         <v>-0.46668421399999999</v>
       </c>
-      <c r="F6">
+      <c r="D6" s="46">
         <v>2.5772448E-2</v>
       </c>
-      <c r="G6">
+      <c r="E6" s="46">
         <v>0.117263837</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="46">
         <v>0.14636898500000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="G6" s="46">
         <v>9.9599999999999995E-5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="J6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="53">
         <v>0.85769704899999999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="53">
         <v>1.8659636E-2</v>
       </c>
-      <c r="C7">
-        <v>0.85520304752123899</v>
-      </c>
-      <c r="D7">
-        <v>-1.95530420566477E-2</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="53">
         <v>-1.1134289040000001</v>
       </c>
-      <c r="F7">
+      <c r="D7" s="53">
         <v>1.3184397E-2</v>
       </c>
-      <c r="G7">
+      <c r="E7" s="53">
         <v>0.62476897799999997</v>
       </c>
-      <c r="H7">
+      <c r="F7" s="53">
         <v>0.75638734100000005</v>
       </c>
-      <c r="I7">
+      <c r="G7" s="53">
         <v>3.5608500000000002E-4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="J7" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="49">
         <v>0.31536013200000002</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="50">
         <v>4.8784542E-2</v>
       </c>
-      <c r="C8">
-        <v>0.86493912444841203</v>
-      </c>
-      <c r="D8">
-        <v>9.4880842692049508E-3</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="50">
         <v>-0.27318971199999997</v>
       </c>
-      <c r="F8">
+      <c r="D8" s="50">
         <v>-24.28128942</v>
       </c>
-      <c r="G8">
+      <c r="E8" s="50">
         <v>557.71853380000005</v>
       </c>
-      <c r="H8">
+      <c r="F8" s="50">
         <v>800.12021010000001</v>
       </c>
-      <c r="I8">
+      <c r="G8" s="50">
         <v>3.0936700000000001E-4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="J8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="55">
         <v>0.15567147000000001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="56">
         <v>7.8828172000000002E-2</v>
       </c>
-      <c r="C9">
-        <v>0.94293195059248203</v>
-      </c>
-      <c r="D9">
-        <v>-4.54095535694626E-3</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="56">
         <v>-0.38561272899999999</v>
       </c>
-      <c r="F9">
+      <c r="D9" s="56">
         <v>3.0282479999999999E-3</v>
       </c>
-      <c r="G9">
+      <c r="E9" s="56">
         <v>0.14847179299999999</v>
       </c>
-      <c r="H9">
+      <c r="F9" s="56">
         <v>0.212770446</v>
       </c>
-      <c r="I9" s="6">
+      <c r="G9" s="56">
         <v>5.4799999999999997E-5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C10" s="6">
-        <v>1.78327117391331E-11</v>
-      </c>
-      <c r="D10">
-        <v>0.32977675830352399</v>
-      </c>
-      <c r="E10">
-        <v>0.33096848200000001</v>
-      </c>
-      <c r="F10">
-        <v>2.5583181999999999E-2</v>
-      </c>
-      <c r="G10">
-        <v>8.2352002999999993E-2</v>
-      </c>
-      <c r="H10">
-        <v>9.8856229000000004E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.38323184399999999</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J9" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="45">
+        <v>0.68550667700000001</v>
+      </c>
+      <c r="B10" s="46">
+        <v>-1.0753626000000001E-2</v>
+      </c>
+      <c r="C10" s="46">
+        <v>-6.8654209999999993E-2</v>
+      </c>
+      <c r="D10" s="46">
+        <v>2.4829760999999999E-2</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.101981853</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.124939382</v>
+      </c>
+      <c r="G10" s="46">
+        <v>6.3798459999999998E-3</v>
+      </c>
+      <c r="H10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C11">
-        <v>0.37245700351954802</v>
-      </c>
-      <c r="D11">
-        <v>5.7923108261696103E-2</v>
-      </c>
-      <c r="E11">
-        <v>-0.45596506599999997</v>
-      </c>
-      <c r="F11">
-        <v>0.218124976</v>
-      </c>
-      <c r="G11">
-        <v>0.49643032300000001</v>
-      </c>
-      <c r="H11">
-        <v>0.62780664500000005</v>
-      </c>
-      <c r="I11">
-        <v>8.4712559999999999E-3</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="49">
+        <v>0.76475791100000001</v>
+      </c>
+      <c r="B11" s="50">
+        <v>1.340947E-2</v>
+      </c>
+      <c r="C11" s="50">
+        <v>-0.16844789800000001</v>
+      </c>
+      <c r="D11" s="50">
+        <v>0.118236936</v>
+      </c>
+      <c r="E11" s="50">
+        <v>0.44566091699999999</v>
+      </c>
+      <c r="F11" s="50">
+        <v>0.56241268300000002</v>
+      </c>
+      <c r="G11" s="50">
+        <v>3.31825E-4</v>
+      </c>
+      <c r="H11" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C12" s="6">
-        <v>4.46569000533541E-5</v>
-      </c>
-      <c r="D12">
-        <v>0.248652677808505</v>
-      </c>
-      <c r="E12">
-        <v>0.118063973</v>
-      </c>
-      <c r="F12">
-        <v>-14.75358733</v>
-      </c>
-      <c r="G12">
-        <v>424.80500069999999</v>
-      </c>
-      <c r="H12">
-        <v>665.92791720000002</v>
-      </c>
-      <c r="I12">
-        <v>0.16321744499999999</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I11" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="49">
+        <v>9.6857699999999998E-4</v>
+      </c>
+      <c r="B12" s="50">
+        <v>9.6863640000000001E-2</v>
+      </c>
+      <c r="C12" s="50">
+        <v>-2.0020177E-2</v>
+      </c>
+      <c r="D12" s="50">
+        <v>-11.104145170000001</v>
+      </c>
+      <c r="E12" s="50">
+        <v>493.34563880000002</v>
+      </c>
+      <c r="F12" s="50">
+        <v>716.16494850000004</v>
+      </c>
+      <c r="G12" s="50">
+        <v>2.1880443999999999E-2</v>
+      </c>
+      <c r="H12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C13" s="6">
-        <v>3.97713994502554E-5</v>
-      </c>
-      <c r="D13">
-        <v>0.20761109375564399</v>
-      </c>
-      <c r="E13">
-        <v>0.13897387</v>
-      </c>
-      <c r="F13">
-        <v>2.2365586999999999E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.11774108899999999</v>
-      </c>
-      <c r="H13">
-        <v>0.167725285</v>
-      </c>
-      <c r="I13">
-        <v>0.165182308</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I12" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="55">
+        <v>1.340674E-3</v>
+      </c>
+      <c r="B13" s="56">
+        <v>9.1575437999999995E-2</v>
+      </c>
+      <c r="C13" s="56">
+        <v>-1.5871120999999998E-2</v>
+      </c>
+      <c r="D13" s="56">
+        <v>-1.417375E-3</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0.125541926</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0.182183768</v>
+      </c>
+      <c r="G13" s="56">
+        <v>2.2151039000000001E-2</v>
+      </c>
+      <c r="H13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C14" s="6">
-        <v>2.9038742510633898E-7</v>
-      </c>
-      <c r="D14">
-        <v>0.34102252721405601</v>
-      </c>
-      <c r="E14">
-        <v>0.20781804800000001</v>
-      </c>
-      <c r="F14">
-        <v>-8.2663400000000003E-4</v>
-      </c>
-      <c r="G14">
-        <v>8.6759671999999996E-2</v>
-      </c>
-      <c r="H14">
-        <v>0.10757050899999999</v>
-      </c>
-      <c r="I14">
-        <v>0.24525772600000001</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I13" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="45">
+        <v>0.79801741100000001</v>
+      </c>
+      <c r="B14" s="46">
+        <v>1.0696888999999999E-2</v>
+      </c>
+      <c r="C14" s="46">
+        <v>-0.155206818</v>
+      </c>
+      <c r="D14" s="46">
+        <v>2.7170057000000001E-2</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.10999735300000001</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.12990044100000001</v>
+      </c>
+      <c r="G14" s="46">
+        <v>2.132704E-3</v>
+      </c>
+      <c r="H14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C15">
-        <v>4.4222802761556601E-2</v>
-      </c>
-      <c r="D15">
-        <v>0.13647706311230801</v>
-      </c>
-      <c r="E15">
-        <v>-0.17459612899999999</v>
-      </c>
-      <c r="F15">
-        <v>4.6360217000000002E-2</v>
-      </c>
-      <c r="G15">
-        <v>0.49179545499999999</v>
-      </c>
-      <c r="H15">
-        <v>0.56389041600000001</v>
-      </c>
-      <c r="I15">
-        <v>4.2369269000000001E-2</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I14" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="49">
+        <v>0.90000000199999997</v>
+      </c>
+      <c r="B15" s="50">
+        <v>4.6681750000000001E-3</v>
+      </c>
+      <c r="C15" s="50">
+        <v>-0.23124994500000001</v>
+      </c>
+      <c r="D15" s="50">
+        <v>0.111823822</v>
+      </c>
+      <c r="E15" s="50">
+        <v>0.45278823099999999</v>
+      </c>
+      <c r="F15" s="50">
+        <v>0.57732922499999995</v>
+      </c>
+      <c r="G15" s="50">
+        <v>1.6087830000000001E-2</v>
+      </c>
+      <c r="H15" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C16">
-        <v>0.96421414261837901</v>
-      </c>
-      <c r="D16">
-        <v>2.3508160741141501E-3</v>
-      </c>
-      <c r="E16">
-        <v>-0.25353361299999999</v>
-      </c>
-      <c r="F16">
-        <v>-27.78505023</v>
-      </c>
-      <c r="G16">
-        <v>591.14564429999996</v>
-      </c>
-      <c r="H16">
-        <v>793.91987099999994</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2.1500000000000001E-5</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I15" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="49">
+        <v>0.30120079999999999</v>
+      </c>
+      <c r="B16" s="50">
+        <v>5.0589626999999998E-2</v>
+      </c>
+      <c r="C16" s="50">
+        <v>-0.102465743</v>
+      </c>
+      <c r="D16" s="50">
+        <v>25.271412850000001</v>
+      </c>
+      <c r="E16" s="50">
+        <v>531.38681280000003</v>
+      </c>
+      <c r="F16" s="50">
+        <v>744.54548069999998</v>
+      </c>
+      <c r="G16" s="50">
+        <v>7.2693599999999999E-3</v>
+      </c>
+      <c r="H16" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C17">
-        <v>4.3636612406593098E-2</v>
-      </c>
-      <c r="D17">
-        <v>9.89576870326562E-2</v>
-      </c>
-      <c r="E17">
-        <v>-3.4920303E-2</v>
-      </c>
-      <c r="F17">
-        <v>9.8373599999999999E-3</v>
-      </c>
-      <c r="G17">
-        <v>0.13355165899999999</v>
-      </c>
-      <c r="H17">
-        <v>0.18388395099999999</v>
-      </c>
-      <c r="I17">
-        <v>4.2600012E-2</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="55">
+        <v>0.330556138</v>
+      </c>
+      <c r="B17" s="56">
+        <v>4.5556587000000003E-2</v>
+      </c>
+      <c r="C17" s="56">
+        <v>-9.2685693999999999E-2</v>
+      </c>
+      <c r="D17" s="56">
+        <v>6.3986049999999999E-3</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0.13543027299999999</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0.18894612999999999</v>
+      </c>
+      <c r="G17" s="56">
+        <v>7.8124700000000002E-3</v>
+      </c>
+      <c r="H17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>7.0107924000000002E-2</v>
-      </c>
-      <c r="B18">
-        <v>0.150878545</v>
-      </c>
-      <c r="C18">
-        <v>0.68069330782669701</v>
-      </c>
-      <c r="D18">
-        <v>-2.54162388182213E-2</v>
-      </c>
-      <c r="E18">
-        <v>-0.44542461999999999</v>
-      </c>
-      <c r="F18">
-        <v>2.3435714999999999E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.12086498699999999</v>
-      </c>
-      <c r="H18">
-        <v>0.145304303</v>
-      </c>
-      <c r="I18">
-        <v>1.809525E-3</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I17" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="53">
+        <v>0.126314222</v>
+      </c>
+      <c r="B18" s="53">
+        <v>-0.33099990800000001</v>
+      </c>
+      <c r="C18" s="53">
+        <v>-7.9147724029999997</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.210144148</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0.30968568800000001</v>
+      </c>
+      <c r="F18" s="53">
+        <v>0.35392668100000002</v>
+      </c>
+      <c r="G18" s="53">
+        <v>2.6657410999999999E-2</v>
+      </c>
+      <c r="H18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>0.20702335199999999</v>
-      </c>
-      <c r="B19">
-        <v>0.118339456</v>
-      </c>
-      <c r="C19">
-        <v>0.466340701012607</v>
-      </c>
-      <c r="D19">
-        <v>-5.3969717737052898E-2</v>
-      </c>
-      <c r="E19">
-        <v>-0.66401309900000005</v>
-      </c>
-      <c r="F19">
-        <v>0.105827481</v>
-      </c>
-      <c r="G19">
-        <v>0.54858299899999996</v>
-      </c>
-      <c r="H19">
-        <v>0.671164227</v>
-      </c>
-      <c r="I19">
-        <v>5.6590549999999996E-3</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I18" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="53">
+        <v>0.83339356600000003</v>
+      </c>
+      <c r="B19" s="53">
+        <v>1.0522732999999999E-2</v>
+      </c>
+      <c r="C19" s="53">
+        <v>-12.94888559</v>
+      </c>
+      <c r="D19" s="53">
+        <v>-1.844333311</v>
+      </c>
+      <c r="E19" s="53">
+        <v>1.8552318489999999</v>
+      </c>
+      <c r="F19" s="53">
+        <v>1.9288391739999999</v>
+      </c>
+      <c r="G19" s="53">
+        <v>5.1139399999999998E-4</v>
+      </c>
+      <c r="H19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1.5650000000000001E-4</v>
-      </c>
-      <c r="B20">
-        <v>0.12758799100000001</v>
-      </c>
-      <c r="C20">
-        <v>0.57811068654162401</v>
-      </c>
-      <c r="D20">
-        <v>2.7952020314136201E-2</v>
-      </c>
-      <c r="E20">
-        <v>-0.18895120500000001</v>
-      </c>
-      <c r="F20">
-        <v>-64.492079259999997</v>
-      </c>
-      <c r="G20">
-        <v>525.9196197</v>
-      </c>
-      <c r="H20">
-        <v>773.19795329999999</v>
-      </c>
-      <c r="I20">
-        <v>3.3024930000000001E-3</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I19" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="53">
+        <v>1.0608779E-2</v>
+      </c>
+      <c r="B20" s="53">
+        <v>-8.9099999999999997E-5</v>
+      </c>
+      <c r="C20" s="53">
+        <v>-1.0146567550000001</v>
+      </c>
+      <c r="D20" s="53">
+        <v>-732.90112360000001</v>
+      </c>
+      <c r="E20" s="53">
+        <v>732.90112360000001</v>
+      </c>
+      <c r="F20" s="53">
+        <v>1032.8196359999999</v>
+      </c>
+      <c r="G20" s="53">
+        <v>7.2705310999999995E-2</v>
+      </c>
+      <c r="H20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="B21">
-        <v>0.284827946</v>
-      </c>
-      <c r="C21">
-        <v>0.74250121006182102</v>
-      </c>
-      <c r="D21">
-        <v>-2.6187544346265801E-2</v>
-      </c>
-      <c r="E21">
-        <v>-0.653398798</v>
-      </c>
-      <c r="F21">
-        <v>-1.4718151E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.159914216</v>
-      </c>
-      <c r="H21">
-        <v>0.232423042</v>
-      </c>
-      <c r="I21">
-        <v>1.15376E-3</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I20" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="53">
+        <v>1.0608777999999999E-2</v>
+      </c>
+      <c r="B21" s="53">
+        <v>-0.34934495999999998</v>
+      </c>
+      <c r="C21" s="53">
+        <v>-10.887007499999999</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.541082705</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0.59008326899999997</v>
+      </c>
+      <c r="F21" s="53">
+        <v>0.63950201100000004</v>
+      </c>
+      <c r="G21" s="53">
+        <v>7.2705310999999995E-2</v>
+      </c>
+      <c r="H21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>0.20015559999999999</v>
-      </c>
-      <c r="B22">
-        <v>0.106140543</v>
-      </c>
-      <c r="C22">
-        <v>0.49552725277357501</v>
-      </c>
-      <c r="D22">
-        <v>-4.5009615197870202E-2</v>
-      </c>
-      <c r="E22">
-        <v>-0.57460947900000003</v>
-      </c>
-      <c r="F22">
-        <v>3.3270824999999997E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.12525974200000001</v>
-      </c>
-      <c r="H22">
-        <v>0.15165864900000001</v>
-      </c>
-      <c r="I22">
-        <v>4.9555390000000001E-3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>0.47983486400000003</v>
-      </c>
-      <c r="B23">
-        <v>5.7623237000000001E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.35656396399621998</v>
-      </c>
-      <c r="D23">
-        <v>-6.6792809934960201E-2</v>
-      </c>
-      <c r="E23">
-        <v>-0.65542605200000004</v>
-      </c>
-      <c r="F23">
-        <v>8.8347627999999997E-2</v>
-      </c>
-      <c r="G23">
-        <v>0.55586012900000004</v>
-      </c>
-      <c r="H23">
-        <v>0.66943023400000001</v>
-      </c>
-      <c r="I23">
-        <v>9.0491110000000003E-3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>5.9118127999999999E-2</v>
-      </c>
-      <c r="B24">
-        <v>0.102611549</v>
-      </c>
-      <c r="C24">
-        <v>0.83241471598903805</v>
-      </c>
-      <c r="D24">
-        <v>-1.7751305673536701E-2</v>
-      </c>
-      <c r="E24">
-        <v>-0.69415458399999996</v>
-      </c>
-      <c r="F24">
-        <v>-15.810859020000001</v>
-      </c>
-      <c r="G24">
-        <v>651.27373520000003</v>
-      </c>
-      <c r="H24">
-        <v>922.96492620000004</v>
-      </c>
-      <c r="I24">
-        <v>4.7877599999999998E-4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>5.2169521000000003E-2</v>
-      </c>
-      <c r="B25">
-        <v>0.120154472</v>
-      </c>
-      <c r="C25">
-        <v>0.79687517602598701</v>
-      </c>
-      <c r="D25">
-        <v>-2.27955532553719E-2</v>
-      </c>
-      <c r="E25">
-        <v>-0.78191730800000003</v>
-      </c>
-      <c r="F25">
-        <v>9.3841310000000004E-3</v>
-      </c>
-      <c r="G25">
-        <v>0.16536169100000001</v>
-      </c>
-      <c r="H25">
-        <v>0.24128712299999999</v>
-      </c>
-      <c r="I25">
-        <v>7.0830899999999996E-4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C26" s="6">
-        <v>4.5853351852656499E-7</v>
-      </c>
-      <c r="D26">
-        <v>0.32565640371570398</v>
-      </c>
-      <c r="E26">
-        <v>0.15296357199999999</v>
-      </c>
-      <c r="F26">
-        <v>2.7811990000000002E-2</v>
-      </c>
-      <c r="G26">
-        <v>9.0084888000000002E-2</v>
-      </c>
-      <c r="H26">
-        <v>0.111232525</v>
-      </c>
-      <c r="I26">
-        <v>0.238108081</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C27">
-        <v>0.51859408987872502</v>
-      </c>
-      <c r="D27">
-        <v>4.2789114656172099E-2</v>
-      </c>
-      <c r="E27">
-        <v>-0.447511928</v>
-      </c>
-      <c r="F27">
-        <v>0.181234073</v>
-      </c>
-      <c r="G27">
-        <v>0.50853621100000002</v>
-      </c>
-      <c r="H27">
-        <v>0.62598151099999999</v>
-      </c>
-      <c r="I27">
-        <v>4.4465729999999997E-3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C28" s="6">
-        <v>9.6831058296796801E-5</v>
-      </c>
-      <c r="D28">
-        <v>0.28942128097687397</v>
-      </c>
-      <c r="E28">
-        <v>8.8981719999999993E-3</v>
-      </c>
-      <c r="F28">
-        <v>76.161446010000006</v>
-      </c>
-      <c r="G28">
-        <v>491.31821559999997</v>
-      </c>
-      <c r="H28">
-        <v>705.94004570000004</v>
-      </c>
-      <c r="I28">
-        <v>0.150006107</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C29">
-        <v>1.76717188240444E-3</v>
-      </c>
-      <c r="D29">
-        <v>0.216701717976578</v>
-      </c>
-      <c r="E29">
-        <v>-4.1899350000000002E-2</v>
-      </c>
-      <c r="F29">
-        <v>8.6594670000000006E-3</v>
-      </c>
-      <c r="G29">
-        <v>0.12553963500000001</v>
-      </c>
-      <c r="H29">
-        <v>0.18450292500000001</v>
-      </c>
-      <c r="I29">
-        <v>9.9278798000000001E-2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C30" s="6">
-        <v>3.2318261411046598E-10</v>
-      </c>
-      <c r="D30">
-        <v>0.29020765308463298</v>
-      </c>
-      <c r="E30">
-        <v>0.33598597299999999</v>
-      </c>
-      <c r="F30">
-        <v>-1.2743019999999999E-3</v>
-      </c>
-      <c r="G30">
-        <v>8.1404400000000002E-2</v>
-      </c>
-      <c r="H30">
-        <v>9.8484839000000005E-2</v>
-      </c>
-      <c r="I30">
-        <v>0.34471641600000003</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C31">
-        <v>0.244580806028312</v>
-      </c>
-      <c r="D31">
-        <v>7.7597372012827598E-2</v>
-      </c>
-      <c r="E31">
-        <v>-0.28644267200000001</v>
-      </c>
-      <c r="F31">
-        <v>7.8575239000000005E-2</v>
-      </c>
-      <c r="G31">
-        <v>0.50555049900000004</v>
-      </c>
-      <c r="H31">
-        <v>0.59012722299999998</v>
-      </c>
-      <c r="I31">
-        <v>1.4376592000000001E-2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C32">
-        <v>6.2848281823803601E-2</v>
-      </c>
-      <c r="D32">
-        <v>9.1238416407046996E-2</v>
-      </c>
-      <c r="E32">
-        <v>-4.6634470999999997E-2</v>
-      </c>
-      <c r="F32">
-        <v>0.88864469499999998</v>
-      </c>
-      <c r="G32">
-        <v>515.57258530000001</v>
-      </c>
-      <c r="H32">
-        <v>725.44784870000001</v>
-      </c>
-      <c r="I32">
-        <v>3.6333892999999999E-2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C33">
-        <v>0.59652420876357404</v>
-      </c>
-      <c r="D33">
-        <v>-4.2524971434154901E-2</v>
-      </c>
-      <c r="E33">
-        <v>-0.77561755499999996</v>
-      </c>
-      <c r="F33">
-        <v>5.3121105000000002E-2</v>
-      </c>
-      <c r="G33">
-        <v>0.183269444</v>
-      </c>
-      <c r="H33">
-        <v>0.24086022500000001</v>
-      </c>
-      <c r="I33">
-        <v>2.9930069999999998E-3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>0.68550667700000001</v>
-      </c>
-      <c r="B34">
-        <v>-1.0753626000000001E-2</v>
-      </c>
-      <c r="C34">
-        <v>0.43917508006962103</v>
-      </c>
-      <c r="D34">
-        <v>2.08516149786343E-2</v>
-      </c>
-      <c r="E34">
-        <v>-6.8654209999999993E-2</v>
-      </c>
-      <c r="F34">
-        <v>2.4829760999999999E-2</v>
-      </c>
-      <c r="G34">
-        <v>0.101981853</v>
-      </c>
-      <c r="H34">
-        <v>0.124939382</v>
-      </c>
-      <c r="I34">
-        <v>6.3798459999999998E-3</v>
-      </c>
-      <c r="J34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>0.76475791100000001</v>
-      </c>
-      <c r="B35">
-        <v>1.340947E-2</v>
-      </c>
-      <c r="C35">
-        <v>0.86017080250576905</v>
-      </c>
-      <c r="D35">
-        <v>6.5663321534741503E-3</v>
-      </c>
-      <c r="E35">
-        <v>-0.16844789800000001</v>
-      </c>
-      <c r="F35">
-        <v>0.118236936</v>
-      </c>
-      <c r="G35">
-        <v>0.44566091699999999</v>
-      </c>
-      <c r="H35">
-        <v>0.56241268300000002</v>
-      </c>
-      <c r="I35">
-        <v>3.31825E-4</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>9.6857699999999998E-4</v>
-      </c>
-      <c r="B36">
-        <v>9.6863640000000001E-2</v>
-      </c>
-      <c r="C36">
-        <v>0.150360956714193</v>
-      </c>
-      <c r="D36">
-        <v>5.2070486710213797E-2</v>
-      </c>
-      <c r="E36">
-        <v>-2.0020177E-2</v>
-      </c>
-      <c r="F36">
-        <v>-11.104145170000001</v>
-      </c>
-      <c r="G36">
-        <v>493.34563880000002</v>
-      </c>
-      <c r="H36">
-        <v>716.16494850000004</v>
-      </c>
-      <c r="I36">
-        <v>2.1880443999999999E-2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>1.340674E-3</v>
-      </c>
-      <c r="B37">
-        <v>9.1575437999999995E-2</v>
-      </c>
-      <c r="C37">
-        <v>0.147834301201035</v>
-      </c>
-      <c r="D37">
-        <v>5.11487688085073E-2</v>
-      </c>
-      <c r="E37">
-        <v>-1.5871120999999998E-2</v>
-      </c>
-      <c r="F37">
-        <v>-1.417375E-3</v>
-      </c>
-      <c r="G37">
-        <v>0.125541926</v>
-      </c>
-      <c r="H37">
-        <v>0.182183768</v>
-      </c>
-      <c r="I37">
-        <v>2.2151039000000001E-2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>0.79801741100000001</v>
-      </c>
-      <c r="B38">
-        <v>1.0696888999999999E-2</v>
-      </c>
-      <c r="C38">
-        <v>0.65502464338793898</v>
-      </c>
-      <c r="D38">
-        <v>-1.29595349168103E-2</v>
-      </c>
-      <c r="E38">
-        <v>-0.155206818</v>
-      </c>
-      <c r="F38">
-        <v>2.7170057000000001E-2</v>
-      </c>
-      <c r="G38">
-        <v>0.10999735300000001</v>
-      </c>
-      <c r="H38">
-        <v>0.12990044100000001</v>
-      </c>
-      <c r="I38">
-        <v>2.132704E-3</v>
-      </c>
-      <c r="J38" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>0.90000000199999997</v>
-      </c>
-      <c r="B39">
-        <v>4.6681750000000001E-3</v>
-      </c>
-      <c r="C39">
-        <v>0.21815358564725601</v>
-      </c>
-      <c r="D39">
-        <v>-4.0797996282050199E-2</v>
-      </c>
-      <c r="E39">
-        <v>-0.23124994500000001</v>
-      </c>
-      <c r="F39">
-        <v>0.111823822</v>
-      </c>
-      <c r="G39">
-        <v>0.45278823099999999</v>
-      </c>
-      <c r="H39">
-        <v>0.57732922499999995</v>
-      </c>
-      <c r="I39">
-        <v>1.6087830000000001E-2</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>0.30120079999999999</v>
-      </c>
-      <c r="B40">
-        <v>5.0589626999999998E-2</v>
-      </c>
-      <c r="C40">
-        <v>0.40883719805643098</v>
-      </c>
-      <c r="D40">
-        <v>3.5349086696000502E-2</v>
-      </c>
-      <c r="E40">
-        <v>-0.102465743</v>
-      </c>
-      <c r="F40">
-        <v>25.271412850000001</v>
-      </c>
-      <c r="G40">
-        <v>531.38681280000003</v>
-      </c>
-      <c r="H40">
-        <v>744.54548069999998</v>
-      </c>
-      <c r="I40">
-        <v>7.2693599999999999E-3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>0.330556138</v>
-      </c>
-      <c r="B41">
-        <v>4.5556587000000003E-2</v>
-      </c>
-      <c r="C41">
-        <v>0.39180035532750701</v>
-      </c>
-      <c r="D41">
-        <v>3.56575577724558E-2</v>
-      </c>
-      <c r="E41">
-        <v>-9.2685693999999999E-2</v>
-      </c>
-      <c r="F41">
-        <v>6.3986049999999999E-3</v>
-      </c>
-      <c r="G41">
-        <v>0.13543027299999999</v>
-      </c>
-      <c r="H41">
-        <v>0.18894612999999999</v>
-      </c>
-      <c r="I41">
-        <v>7.8124700000000002E-3</v>
-      </c>
-      <c r="J41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C42" s="6">
-        <v>1.5945739980705101E-10</v>
-      </c>
-      <c r="D42">
-        <v>0.162877180443915</v>
-      </c>
-      <c r="E42">
-        <v>0.21350551700000001</v>
-      </c>
-      <c r="F42">
-        <v>2.3365177000000001E-2</v>
-      </c>
-      <c r="G42">
-        <v>8.9453724999999998E-2</v>
-      </c>
-      <c r="H42">
-        <v>0.107183662</v>
-      </c>
-      <c r="I42">
-        <v>0.35431380699999998</v>
-      </c>
-      <c r="J42" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C43">
-        <v>4.1714768980968701E-2</v>
-      </c>
-      <c r="D43">
-        <v>-4.7270402660136997E-2</v>
-      </c>
-      <c r="E43">
-        <v>-0.23602377599999999</v>
-      </c>
-      <c r="F43">
-        <v>0.15606520800000001</v>
-      </c>
-      <c r="G43">
-        <v>0.44830479600000001</v>
-      </c>
-      <c r="H43">
-        <v>0.57844735899999999</v>
-      </c>
-      <c r="I43">
-        <v>4.3379623999999999E-2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C44" s="6">
-        <v>3.0984901678166902E-6</v>
-      </c>
-      <c r="D44">
-        <v>0.146091371810087</v>
-      </c>
-      <c r="E44">
-        <v>0.18892056400000001</v>
-      </c>
-      <c r="F44">
-        <v>-14.822058030000001</v>
-      </c>
-      <c r="G44">
-        <v>419.83932570000002</v>
-      </c>
-      <c r="H44">
-        <v>638.61685279999995</v>
-      </c>
-      <c r="I44">
-        <v>0.20756269999999999</v>
-      </c>
-      <c r="J44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C45" s="6">
-        <v>4.9085924130319401E-6</v>
-      </c>
-      <c r="D45">
-        <v>0.18324568284551401</v>
-      </c>
-      <c r="E45">
-        <v>0.19768981699999999</v>
-      </c>
-      <c r="F45">
-        <v>-5.5774379999999997E-3</v>
-      </c>
-      <c r="G45">
-        <v>0.10626565</v>
-      </c>
-      <c r="H45">
-        <v>0.161905471</v>
-      </c>
-      <c r="I45">
-        <v>0.200054175</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C46" s="6">
-        <v>8.7044289502856599E-14</v>
-      </c>
-      <c r="D46">
-        <v>0.203192681846039</v>
-      </c>
-      <c r="E46">
-        <v>0.30691157699999999</v>
-      </c>
-      <c r="F46">
-        <v>1.0392973999999999E-2</v>
-      </c>
-      <c r="G46">
-        <v>8.3696708999999994E-2</v>
-      </c>
-      <c r="H46">
-        <v>0.10061786</v>
-      </c>
-      <c r="I46">
-        <v>0.44838898399999999</v>
-      </c>
-      <c r="J46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C47">
-        <v>0.33782855883613899</v>
-      </c>
-      <c r="D47">
-        <v>1.7396354800307001E-2</v>
-      </c>
-      <c r="E47">
-        <v>-2.5700154999999999E-2</v>
-      </c>
-      <c r="F47">
-        <v>8.9422708000000004E-2</v>
-      </c>
-      <c r="G47">
-        <v>0.41387576500000001</v>
-      </c>
-      <c r="H47">
-        <v>0.52693936200000002</v>
-      </c>
-      <c r="I47">
-        <v>9.7768890000000004E-3</v>
-      </c>
-      <c r="J47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C48" s="6">
-        <v>3.4211551211485201E-6</v>
-      </c>
-      <c r="D48">
-        <v>8.0909540242792594E-2</v>
-      </c>
-      <c r="E48">
-        <v>0.129732556</v>
-      </c>
-      <c r="F48">
-        <v>-12.293010990000001</v>
-      </c>
-      <c r="G48">
-        <v>452.20247210000002</v>
-      </c>
-      <c r="H48">
-        <v>661.50792079999997</v>
-      </c>
-      <c r="I48">
-        <v>0.205950934</v>
-      </c>
-      <c r="J48" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C49">
-        <v>6.3419907311325796E-2</v>
-      </c>
-      <c r="D49">
-        <v>5.4627049948883101E-2</v>
-      </c>
-      <c r="E49">
-        <v>2.6058532999999998E-2</v>
-      </c>
-      <c r="F49">
-        <v>4.833464E-3</v>
-      </c>
-      <c r="G49">
-        <v>0.12727951200000001</v>
-      </c>
-      <c r="H49">
-        <v>0.17838437100000001</v>
-      </c>
-      <c r="I49">
-        <v>3.6179629999999997E-2</v>
-      </c>
-      <c r="J49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>0.39539978100000001</v>
-      </c>
-      <c r="B50">
-        <v>3.1819093E-2</v>
-      </c>
-      <c r="C50">
-        <v>0.39663039207127598</v>
-      </c>
-      <c r="D50">
-        <v>-2.5906277583132999E-2</v>
-      </c>
-      <c r="E50">
-        <v>-0.199089655</v>
-      </c>
-      <c r="F50">
-        <v>2.9506911E-2</v>
-      </c>
-      <c r="G50">
-        <v>0.110917033</v>
-      </c>
-      <c r="H50">
-        <v>0.13234470800000001</v>
-      </c>
-      <c r="I50">
-        <v>7.6550999999999998E-3</v>
-      </c>
-      <c r="J50" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>0.55296104300000004</v>
-      </c>
-      <c r="B51">
-        <v>2.6204041000000001E-2</v>
-      </c>
-      <c r="C51">
-        <v>0.44623210086175702</v>
-      </c>
-      <c r="D51">
-        <v>-3.0909434631707599E-2</v>
-      </c>
-      <c r="E51">
-        <v>-0.273380664</v>
-      </c>
-      <c r="F51">
-        <v>0.124348929</v>
-      </c>
-      <c r="G51">
-        <v>0.462935649</v>
-      </c>
-      <c r="H51">
-        <v>0.58712362500000004</v>
-      </c>
-      <c r="I51">
-        <v>6.1860789999999997E-3</v>
-      </c>
-      <c r="J51" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" t="s">
-        <v>13</v>
-      </c>
-      <c r="L51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>2.6105300000000002E-4</v>
-      </c>
-      <c r="B52">
-        <v>0.124829098</v>
-      </c>
-      <c r="C52">
-        <v>0.25559603243152801</v>
-      </c>
-      <c r="D52">
-        <v>4.8423210050520998E-2</v>
-      </c>
-      <c r="E52">
-        <v>-7.5396008E-2</v>
-      </c>
-      <c r="F52">
-        <v>26.848488540000002</v>
-      </c>
-      <c r="G52">
-        <v>512.88401150000004</v>
-      </c>
-      <c r="H52">
-        <v>735.34795680000002</v>
-      </c>
-      <c r="I52">
-        <v>1.3727669E-2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>3.86031E-4</v>
-      </c>
-      <c r="B53">
-        <v>0.124349003</v>
-      </c>
-      <c r="C53">
-        <v>0.23203349675336399</v>
-      </c>
-      <c r="D53">
-        <v>5.2616038053971199E-2</v>
-      </c>
-      <c r="E53">
-        <v>-7.8949473000000006E-2</v>
-      </c>
-      <c r="F53">
-        <v>7.1559809999999996E-3</v>
-      </c>
-      <c r="G53">
-        <v>0.13122634599999999</v>
-      </c>
-      <c r="H53">
-        <v>0.187754747</v>
-      </c>
-      <c r="I53">
-        <v>1.5160086E-2</v>
-      </c>
-      <c r="J53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>0.86918715400000002</v>
-      </c>
-      <c r="B54">
-        <v>7.2315679999999999E-3</v>
-      </c>
-      <c r="C54">
-        <v>0.233309535208271</v>
-      </c>
-      <c r="D54">
-        <v>-3.6963968960590898E-2</v>
-      </c>
-      <c r="E54">
-        <v>-0.22352354099999999</v>
-      </c>
-      <c r="F54">
-        <v>2.9351321999999999E-2</v>
-      </c>
-      <c r="G54">
-        <v>0.113783261</v>
-      </c>
-      <c r="H54">
-        <v>0.13368630400000001</v>
-      </c>
-      <c r="I54">
-        <v>1.5078116000000001E-2</v>
-      </c>
-      <c r="J54" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>0.80549230599999999</v>
-      </c>
-      <c r="B55">
-        <v>9.0218139999999995E-3</v>
-      </c>
-      <c r="C55">
-        <v>0.59442000423182795</v>
-      </c>
-      <c r="D55">
-        <v>-2.02378964502699E-2</v>
-      </c>
-      <c r="E55">
-        <v>-0.227193543</v>
-      </c>
-      <c r="F55">
-        <v>0.117992051</v>
-      </c>
-      <c r="G55">
-        <v>0.45681070099999999</v>
-      </c>
-      <c r="H55">
-        <v>0.57637742300000006</v>
-      </c>
-      <c r="I55">
-        <v>3.027386E-3</v>
-      </c>
-      <c r="J55" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>0.32090368800000002</v>
-      </c>
-      <c r="B56">
-        <v>4.5404058999999997E-2</v>
-      </c>
-      <c r="C56">
-        <v>0.43504315029574198</v>
-      </c>
-      <c r="D56">
-        <v>3.46630581195152E-2</v>
-      </c>
-      <c r="E56">
-        <v>-0.117973229</v>
-      </c>
-      <c r="F56">
-        <v>34.164430840000001</v>
-      </c>
-      <c r="G56">
-        <v>537.54325370000004</v>
-      </c>
-      <c r="H56">
-        <v>749.76365150000004</v>
-      </c>
-      <c r="I56">
-        <v>6.4955150000000003E-3</v>
-      </c>
-      <c r="J56" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>0.206524443</v>
-      </c>
-      <c r="B57">
-        <v>5.6959006E-2</v>
-      </c>
-      <c r="C57">
-        <v>0.303550384302614</v>
-      </c>
-      <c r="D57">
-        <v>4.6153626127895003E-2</v>
-      </c>
-      <c r="E57">
-        <v>-0.101134157</v>
-      </c>
-      <c r="F57">
-        <v>1.1733840000000001E-2</v>
-      </c>
-      <c r="G57">
-        <v>0.137159324</v>
-      </c>
-      <c r="H57">
-        <v>0.189675173</v>
-      </c>
-      <c r="I57">
-        <v>1.1257131E-2</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C58" s="6">
-        <v>3.2583889042620301E-5</v>
-      </c>
-      <c r="D58">
-        <v>0.115387408155182</v>
-      </c>
-      <c r="E58">
-        <v>9.7435185999999993E-2</v>
-      </c>
-      <c r="F58">
-        <v>2.8175797999999998E-2</v>
-      </c>
-      <c r="G58">
-        <v>9.5674667000000005E-2</v>
-      </c>
-      <c r="H58">
-        <v>0.114820637</v>
-      </c>
-      <c r="I58">
-        <v>0.16855468400000001</v>
-      </c>
-      <c r="J58" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C59">
-        <v>3.0708115868278499E-2</v>
-      </c>
-      <c r="D59">
-        <v>-6.0202956716520997E-2</v>
-      </c>
-      <c r="E59">
-        <v>-0.277917256</v>
-      </c>
-      <c r="F59">
-        <v>0.14998927500000001</v>
-      </c>
-      <c r="G59">
-        <v>0.45595526600000003</v>
-      </c>
-      <c r="H59">
-        <v>0.58816854900000004</v>
-      </c>
-      <c r="I59">
-        <v>4.8709895000000003E-2</v>
-      </c>
-      <c r="J59" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C60" s="6">
-        <v>7.3436072303042403E-6</v>
-      </c>
-      <c r="D60">
-        <v>0.21261046036535</v>
-      </c>
-      <c r="E60">
-        <v>0.19042510900000001</v>
-      </c>
-      <c r="F60">
-        <v>-23.5695625</v>
-      </c>
-      <c r="G60">
-        <v>414.99393750000002</v>
-      </c>
-      <c r="H60">
-        <v>638.02426390000005</v>
-      </c>
-      <c r="I60">
-        <v>0.19343152499999999</v>
-      </c>
-      <c r="J60" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C61" s="6">
-        <v>1.94752920988628E-5</v>
-      </c>
-      <c r="D61">
-        <v>0.13883274522747499</v>
-      </c>
-      <c r="E61">
-        <v>0.168880377</v>
-      </c>
-      <c r="F61">
-        <v>-8.33298E-4</v>
-      </c>
-      <c r="G61">
-        <v>0.108135918</v>
-      </c>
-      <c r="H61">
-        <v>0.16478669400000001</v>
-      </c>
-      <c r="I61">
-        <v>0.17721448100000001</v>
-      </c>
-      <c r="J61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C62" s="6">
-        <v>3.2450674158878199E-10</v>
-      </c>
-      <c r="D62">
-        <v>0.16610997002972699</v>
-      </c>
-      <c r="E62">
-        <v>0.241377167</v>
-      </c>
-      <c r="F62">
-        <v>1.2551746000000001E-2</v>
-      </c>
-      <c r="G62">
-        <v>8.7895534999999997E-2</v>
-      </c>
-      <c r="H62">
-        <v>0.10526735399999999</v>
-      </c>
-      <c r="I62">
-        <v>0.34466047500000002</v>
-      </c>
-      <c r="J62" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C63">
-        <v>0.116201160296595</v>
-      </c>
-      <c r="D63">
-        <v>-2.9837717384605899E-2</v>
-      </c>
-      <c r="E63">
-        <v>-0.127389114</v>
-      </c>
-      <c r="F63">
-        <v>9.5278512999999995E-2</v>
-      </c>
-      <c r="G63">
-        <v>0.430159501</v>
-      </c>
-      <c r="H63">
-        <v>0.55244283999999999</v>
-      </c>
-      <c r="I63">
-        <v>2.6047549E-2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C64" s="6">
-        <v>2.49426865292049E-5</v>
-      </c>
-      <c r="D64">
-        <v>6.7297623863823305E-2</v>
-      </c>
-      <c r="E64">
-        <v>0.108397111</v>
-      </c>
-      <c r="F64">
-        <v>3.7635890459999999</v>
-      </c>
-      <c r="G64">
-        <v>454.68505900000002</v>
-      </c>
-      <c r="H64">
-        <v>669.56757430000005</v>
-      </c>
-      <c r="I64">
-        <v>0.17305983699999999</v>
-      </c>
-      <c r="J64" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" t="s">
-        <v>23</v>
-      </c>
-      <c r="L64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C65">
-        <v>3.9546619188764398E-2</v>
-      </c>
-      <c r="D65">
-        <v>6.2468990184649097E-2</v>
-      </c>
-      <c r="E65">
-        <v>3.3729792000000001E-2</v>
-      </c>
-      <c r="F65">
-        <v>1.0109896E-2</v>
-      </c>
-      <c r="G65">
-        <v>0.12907948899999999</v>
-      </c>
-      <c r="H65">
-        <v>0.17768045900000001</v>
-      </c>
-      <c r="I65">
-        <v>4.4304962000000003E-2</v>
-      </c>
-      <c r="J65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>0.126314222</v>
-      </c>
-      <c r="B66">
-        <v>-1.654999549</v>
-      </c>
-      <c r="E66">
-        <v>-799.94735449999996</v>
-      </c>
-      <c r="F66">
-        <v>3.1225036890000002</v>
-      </c>
-      <c r="G66">
-        <v>3.1225036890000002</v>
-      </c>
-      <c r="H66">
-        <v>3.3547499840000001</v>
-      </c>
-      <c r="I66">
-        <v>2.6657410999999999E-2</v>
-      </c>
-      <c r="J66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>0.83339359499999999</v>
-      </c>
-      <c r="B67">
-        <v>5.2613656000000002E-2</v>
-      </c>
-      <c r="E67">
-        <v>-9.5845422310000004</v>
-      </c>
-      <c r="F67">
-        <v>1.0680262300000001</v>
-      </c>
-      <c r="G67">
-        <v>1.460699118</v>
-      </c>
-      <c r="H67">
-        <v>1.680205113</v>
-      </c>
-      <c r="I67">
-        <v>5.1139399999999998E-4</v>
-      </c>
-      <c r="J67" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" t="s">
-        <v>25</v>
-      </c>
-      <c r="L67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>1.0608779E-2</v>
-      </c>
-      <c r="B68">
-        <v>-4.4525199999999999E-4</v>
-      </c>
-      <c r="E68">
-        <v>-1.0073252450000001</v>
-      </c>
-      <c r="F68">
-        <v>-729.98876399999995</v>
-      </c>
-      <c r="G68">
-        <v>729.98876399999995</v>
-      </c>
-      <c r="H68">
-        <v>1030.938664</v>
-      </c>
-      <c r="I68">
-        <v>7.2705309999999995E-2</v>
-      </c>
-      <c r="J68" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>1.0608779E-2</v>
-      </c>
-      <c r="B69">
-        <v>-1.7467247969999999</v>
-      </c>
-      <c r="E69">
-        <v>-392.10954090000001</v>
-      </c>
-      <c r="F69">
-        <v>3.4534422459999998</v>
-      </c>
-      <c r="G69">
-        <v>3.4534422459999998</v>
-      </c>
-      <c r="H69">
-        <v>3.6775826199999999</v>
-      </c>
-      <c r="I69">
-        <v>7.2705309999999995E-2</v>
-      </c>
-      <c r="J69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" t="s">
-        <v>25</v>
-      </c>
-      <c r="L69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>0.126314222</v>
-      </c>
-      <c r="B70">
-        <v>-0.33099990800000001</v>
-      </c>
-      <c r="E70">
-        <v>-7.9147724029999997</v>
-      </c>
-      <c r="F70">
-        <v>0.210144148</v>
-      </c>
-      <c r="G70">
-        <v>0.30968568800000001</v>
-      </c>
-      <c r="H70">
-        <v>0.35392668100000002</v>
-      </c>
-      <c r="I70">
-        <v>2.6657410999999999E-2</v>
-      </c>
-      <c r="J70" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="I21" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="L70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>0.83339356600000003</v>
-      </c>
-      <c r="B71">
-        <v>1.0522732999999999E-2</v>
-      </c>
-      <c r="E71">
-        <v>-12.94888559</v>
-      </c>
-      <c r="F71">
-        <v>-1.844333311</v>
-      </c>
-      <c r="G71">
-        <v>1.8552318489999999</v>
-      </c>
-      <c r="H71">
-        <v>1.9288391739999999</v>
-      </c>
-      <c r="I71">
-        <v>5.1139399999999998E-4</v>
-      </c>
-      <c r="J71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>1.0608779E-2</v>
-      </c>
-      <c r="B72" s="6">
-        <v>-8.9099999999999997E-5</v>
-      </c>
-      <c r="E72">
-        <v>-1.0146567550000001</v>
-      </c>
-      <c r="F72">
-        <v>-732.90112360000001</v>
-      </c>
-      <c r="G72">
-        <v>732.90112360000001</v>
-      </c>
-      <c r="H72">
-        <v>1032.8196359999999</v>
-      </c>
-      <c r="I72">
-        <v>7.2705310999999995E-2</v>
-      </c>
-      <c r="J72" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" t="s">
-        <v>27</v>
-      </c>
-      <c r="L72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>1.0608777999999999E-2</v>
-      </c>
-      <c r="B73">
-        <v>-0.34934495999999998</v>
-      </c>
-      <c r="E73">
-        <v>-10.887007499999999</v>
-      </c>
-      <c r="F73">
-        <v>0.541082705</v>
-      </c>
-      <c r="G73">
-        <v>0.59008326899999997</v>
-      </c>
-      <c r="H73">
-        <v>0.63950201100000004</v>
-      </c>
-      <c r="I73">
-        <v>7.2705310999999995E-2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" t="s">
-        <v>27</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="J21" s="54" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37932700-C9BE-4227-B3A2-E4BF49E09EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50F0E1-257B-4556-B0D0-3D6F5E16E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -790,22 +790,20 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1163,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="L7" sqref="A7:L7"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1842,19 +1840,19 @@
       <c r="D10" s="35">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="56">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="56">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="56">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="56">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="56">
         <v>0.38323184399999999</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1904,19 +1902,19 @@
       <c r="D11" s="3">
         <v>5.7923108261696103E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="56">
         <v>-0.45596506599999997</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="56">
         <v>0.218124976</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="56">
         <v>0.49643032300000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="56">
         <v>0.62780664500000005</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="56">
         <v>8.4712559999999999E-3</v>
       </c>
       <c r="J11" t="s">
@@ -1966,19 +1964,19 @@
       <c r="D12" s="35">
         <v>0.248652677808505</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="56">
         <v>0.118063973</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="56">
         <v>-14.75358733</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="56">
         <v>424.80500069999999</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="56">
         <v>665.92791720000002</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="56">
         <v>0.16321744499999999</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2028,19 +2026,19 @@
       <c r="D13" s="35">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="56">
         <v>0.13897387</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="56">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="56">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="56">
         <v>0.167725285</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="56">
         <v>0.165182308</v>
       </c>
       <c r="J13" t="s">
@@ -3004,19 +3002,19 @@
       <c r="D28" s="1">
         <v>0.162877180443915</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="56">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="56">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="56">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="56">
         <v>0.107183662</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="56">
         <v>0.35431380699999998</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3066,19 +3064,19 @@
       <c r="D29" s="3">
         <v>-4.7270402660136997E-2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="56">
         <v>-0.23602377599999999</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="56">
         <v>0.15606520800000001</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="56">
         <v>0.44830479600000001</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="56">
         <v>0.57844735899999999</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="56">
         <v>4.3379623999999999E-2</v>
       </c>
       <c r="J29" t="s">
@@ -3128,19 +3126,19 @@
       <c r="D30" s="1">
         <v>0.146091371810087</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="56">
         <v>0.18892056400000001</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="56">
         <v>-14.822058030000001</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="56">
         <v>419.83932570000002</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="56">
         <v>638.61685279999995</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="56">
         <v>0.20756269999999999</v>
       </c>
       <c r="J30" t="s">
@@ -3190,19 +3188,19 @@
       <c r="D31" s="1">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="56">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="56">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="56">
         <v>0.10626565</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="56">
         <v>0.161905471</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="56">
         <v>0.200054175</v>
       </c>
       <c r="J31" t="s">
@@ -7212,10 +7210,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96211-681C-4AAE-ACB3-CC395E0821A9}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7232,7 +7230,7 @@
     <col min="12" max="12" width="5.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -7264,687 +7262,644 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="44">
         <v>0.86681282500000001</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>1.023867E-2</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="45">
         <v>-0.17278907299999999</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="45">
         <v>2.4190914000000001E-2</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>0.105915938</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="45">
         <v>0.13088525000000001</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="45">
         <v>2.0374845999999999E-2</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="49">
+      <c r="J2" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="48">
         <v>0.30029044599999999</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>7.8965568999999999E-2</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <v>-8.5125760000000009E-3</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <v>-4.8004386000000003E-2</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>0.39556434800000001</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="49">
         <v>0.52250576800000004</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="53">
+      <c r="J3" s="51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="49">
         <v>9.4761189999999999E-3</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="49">
         <v>8.8094664000000003E-2</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="49">
         <v>-0.29943462500000001</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="49">
         <v>388.02498370000001</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="49">
         <v>684.23314919999996</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="49">
         <v>808.32478890000004</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="43"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+      <c r="J4" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="52">
         <v>4.6336917999999998E-2</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="53">
         <v>9.5680638999999998E-2</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="53">
         <v>-0.30442947100000001</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="53">
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="53">
         <v>0.17494637299999999</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="53">
         <v>0.206443243</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="45">
+      <c r="J5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="44">
         <v>7.5991659000000003E-2</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>0.14507757900000001</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>-0.46668421399999999</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>2.5772448E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>0.117263837</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>0.14636898500000001</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>9.9599999999999995E-5</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="53">
+      <c r="J6" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="49">
         <v>0.85769704899999999</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="49">
         <v>1.8659636E-2</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="49">
         <v>-1.1134289040000001</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="49">
         <v>1.3184397E-2</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="49">
         <v>0.62476897799999997</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="49">
         <v>0.75638734100000005</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="49">
         <v>3.5608500000000002E-4</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="43"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="49">
+      <c r="J7" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="48">
         <v>0.31536013200000002</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>4.8784542E-2</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="49">
         <v>-0.27318971199999997</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>-24.28128942</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="49">
         <v>557.71853380000005</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="49">
         <v>800.12021010000001</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="49">
         <v>3.0936700000000001E-4</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
+      <c r="J8" s="51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="52">
         <v>0.15567147000000001</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="53">
         <v>7.8828172000000002E-2</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="53">
         <v>-0.38561272899999999</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="53">
         <v>3.0282479999999999E-3</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="53">
         <v>0.14847179299999999</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="53">
         <v>0.212770446</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="53">
         <v>5.4799999999999997E-5</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="45">
+      <c r="J9" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="44">
         <v>0.68550667700000001</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>-1.0753626000000001E-2</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>-6.8654209999999993E-2</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>2.4829760999999999E-2</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>0.101981853</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>0.124939382</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>6.3798459999999998E-3</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="49">
+      <c r="J10" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="48">
         <v>0.76475791100000001</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="49">
         <v>1.340947E-2</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>-0.16844789800000001</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <v>0.118236936</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <v>0.44566091699999999</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="49">
         <v>0.56241268300000002</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="49">
         <v>3.31825E-4</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="49">
+      <c r="J11" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="48">
         <v>9.6857699999999998E-4</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="49">
         <v>9.6863640000000001E-2</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>-2.0020177E-2</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <v>-11.104145170000001</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>493.34563880000002</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="49">
         <v>716.16494850000004</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="49">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
+      <c r="J12" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="52">
         <v>1.340674E-3</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="53">
         <v>9.1575437999999995E-2</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="53">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="53">
         <v>-1.417375E-3</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="53">
         <v>0.125541926</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="53">
         <v>0.182183768</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="53">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="45">
+      <c r="J13" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="44">
         <v>0.79801741100000001</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>1.0696888999999999E-2</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>-0.155206818</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>2.7170057000000001E-2</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>0.10999735300000001</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>0.12990044100000001</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>2.132704E-3</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="49">
+      <c r="J14" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="48">
         <v>0.90000000199999997</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="49">
         <v>4.6681750000000001E-3</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>-0.23124994500000001</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="49">
         <v>0.111823822</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="49">
         <v>0.45278823099999999</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="49">
         <v>0.57732922499999995</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="49">
         <v>1.6087830000000001E-2</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="49">
+      <c r="J15" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="48">
         <v>0.30120079999999999</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="49">
         <v>5.0589626999999998E-2</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="49">
         <v>-0.102465743</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="49">
         <v>25.271412850000001</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>531.38681280000003</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="49">
         <v>744.54548069999998</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="49">
         <v>7.2693599999999999E-3</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
+      <c r="J16" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="52">
         <v>0.330556138</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="53">
         <v>4.5556587000000003E-2</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="53">
         <v>-9.2685693999999999E-2</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="53">
         <v>6.3986049999999999E-3</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="53">
         <v>0.13543027299999999</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="53">
         <v>0.18894612999999999</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="53">
         <v>7.8124700000000002E-3</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="53">
+      <c r="J17" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="49">
         <v>0.126314222</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="49">
         <v>-0.33099990800000001</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="49">
         <v>-7.9147724029999997</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="49">
         <v>0.210144148</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="49">
         <v>0.30968568800000001</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="49">
         <v>0.35392668100000002</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="49">
         <v>2.6657410999999999E-2</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="53">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="49">
         <v>0.83339356600000003</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="49">
         <v>1.0522732999999999E-2</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="49">
         <v>-12.94888559</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="49">
         <v>-1.844333311</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="49">
         <v>1.8552318489999999</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="49">
         <v>1.9288391739999999</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="49">
         <v>5.1139399999999998E-4</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="53">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="49">
         <v>1.0608779E-2</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="49">
         <v>-8.9099999999999997E-5</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="49">
         <v>-1.0146567550000001</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="49">
         <v>-732.90112360000001</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="49">
         <v>732.90112360000001</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="49">
         <v>1032.8196359999999</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="49">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="53">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="49">
         <v>1.0608777999999999E-2</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="49">
         <v>-0.34934495999999998</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="49">
         <v>-10.887007499999999</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="49">
         <v>0.541082705</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="49">
         <v>0.59008326899999997</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="49">
         <v>0.63950201100000004</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="49">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="50" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50F0E1-257B-4556-B0D0-3D6F5E16E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE69BC-C67E-4263-AB16-7F7C5DD4A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="39">
   <si>
     <t>lm_p_value</t>
   </si>
@@ -132,6 +132,27 @@
   </si>
   <si>
     <t>lm_slope_raster</t>
+  </si>
+  <si>
+    <t>vbrt</t>
+  </si>
+  <si>
+    <t>brt_samp</t>
+  </si>
+  <si>
+    <t>vrf</t>
+  </si>
+  <si>
+    <t>rf_samp</t>
+  </si>
+  <si>
+    <t>rel_bias</t>
+  </si>
+  <si>
+    <t>rel_mae</t>
+  </si>
+  <si>
+    <t>rel_rmse</t>
   </si>
 </sst>
 </file>
@@ -790,7 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -804,6 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1161,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A4" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1840,19 +1861,19 @@
       <c r="D10" s="35">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="55">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="55">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="55">
         <v>0.38323184399999999</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1902,19 +1923,19 @@
       <c r="D11" s="3">
         <v>5.7923108261696103E-2</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <v>-0.45596506599999997</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="55">
         <v>0.218124976</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="55">
         <v>0.49643032300000001</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="55">
         <v>0.62780664500000005</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="55">
         <v>8.4712559999999999E-3</v>
       </c>
       <c r="J11" t="s">
@@ -1964,19 +1985,19 @@
       <c r="D12" s="35">
         <v>0.248652677808505</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="55">
         <v>0.118063973</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <v>-14.75358733</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="55">
         <v>424.80500069999999</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="55">
         <v>665.92791720000002</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="55">
         <v>0.16321744499999999</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2026,19 +2047,19 @@
       <c r="D13" s="35">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <v>0.13897387</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="55">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="55">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="55">
         <v>0.167725285</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="55">
         <v>0.165182308</v>
       </c>
       <c r="J13" t="s">
@@ -3002,19 +3023,19 @@
       <c r="D28" s="1">
         <v>0.162877180443915</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="55">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="55">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="55">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="55">
         <v>0.107183662</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="55">
         <v>0.35431380699999998</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3064,19 +3085,19 @@
       <c r="D29" s="3">
         <v>-4.7270402660136997E-2</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="55">
         <v>-0.23602377599999999</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="55">
         <v>0.15606520800000001</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="55">
         <v>0.44830479600000001</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="55">
         <v>0.57844735899999999</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="55">
         <v>4.3379623999999999E-2</v>
       </c>
       <c r="J29" t="s">
@@ -3126,19 +3147,19 @@
       <c r="D30" s="1">
         <v>0.146091371810087</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="55">
         <v>0.18892056400000001</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="55">
         <v>-14.822058030000001</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="55">
         <v>419.83932570000002</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="55">
         <v>638.61685279999995</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="55">
         <v>0.20756269999999999</v>
       </c>
       <c r="J30" t="s">
@@ -3188,19 +3209,19 @@
       <c r="D31" s="1">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="55">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="55">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="55">
         <v>0.10626565</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="55">
         <v>0.161905471</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="55">
         <v>0.200054175</v>
       </c>
       <c r="J31" t="s">
@@ -7210,10 +7231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96211-681C-4AAE-ACB3-CC395E0821A9}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7230,7 +7251,7 @@
     <col min="12" max="12" width="5.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -7256,651 +7277,1164 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="44">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="43">
         <v>0.86681282500000001</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>1.023867E-2</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="44">
         <v>-0.17278907299999999</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>2.4190914000000001E-2</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>0.105915938</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <v>0.13088525000000001</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="44">
         <v>2.0374845999999999E-2</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="24">
+        <f>D2/0.8819476</f>
+        <v>2.7428969702961943E-2</v>
+      </c>
+      <c r="K2" s="24">
+        <f t="shared" ref="K2:L2" si="0">E2/0.8819476</f>
+        <v>0.1200932322963405</v>
+      </c>
+      <c r="L2" s="24">
+        <f t="shared" si="0"/>
+        <v>0.14840479184931168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="47">
+        <v>0.30029044599999999</v>
+      </c>
+      <c r="B3" s="48">
+        <v>7.8965568999999999E-2</v>
+      </c>
+      <c r="C3" s="48">
+        <v>-8.5125760000000009E-3</v>
+      </c>
+      <c r="D3" s="48">
+        <v>-4.8004386000000003E-2</v>
+      </c>
+      <c r="E3" s="48">
+        <v>0.39556434800000001</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0.52250576800000004</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="24">
+        <f>D3/4.0403702</f>
+        <v>-1.1881185045865352E-2</v>
+      </c>
+      <c r="K3" s="24">
+        <f t="shared" ref="K3:L3" si="1">E3/4.0403702</f>
+        <v>9.7902996116543975E-2</v>
+      </c>
+      <c r="L3" s="24">
+        <f t="shared" si="1"/>
+        <v>0.1293212607102191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="48">
+        <v>9.4761189999999999E-3</v>
+      </c>
+      <c r="B4" s="48">
+        <v>8.8094664000000003E-2</v>
+      </c>
+      <c r="C4" s="48">
+        <v>-0.29943462500000001</v>
+      </c>
+      <c r="D4" s="48">
+        <v>388.02498370000001</v>
+      </c>
+      <c r="E4" s="48">
+        <v>684.23314919999996</v>
+      </c>
+      <c r="F4" s="48">
+        <v>808.32478890000004</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="24">
+        <f>D4/3923</f>
+        <v>9.8910268595462661E-2</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" ref="K4:L4" si="2">E4/3923</f>
+        <v>0.17441579128218199</v>
+      </c>
+      <c r="L4" s="24">
+        <f t="shared" si="2"/>
+        <v>0.20604761379046649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="51">
+        <v>4.6336917999999998E-2</v>
+      </c>
+      <c r="B5" s="52">
+        <v>9.5680638999999998E-2</v>
+      </c>
+      <c r="C5" s="52">
+        <v>-0.30442947100000001</v>
+      </c>
+      <c r="D5" s="52">
+        <v>9.9731814000000002E-2</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.17494637299999999</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0.206443243</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="24">
+        <f>D5/1</f>
+        <v>9.9731814000000002E-2</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" ref="K5:L5" si="3">E5/1</f>
+        <v>0.17494637299999999</v>
+      </c>
+      <c r="L5" s="24">
+        <f t="shared" si="3"/>
+        <v>0.206443243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="43">
+        <v>7.5991659000000003E-2</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0.14507757900000001</v>
+      </c>
+      <c r="C6" s="44">
+        <v>-0.46668421399999999</v>
+      </c>
+      <c r="D6" s="44">
+        <v>2.5772448E-2</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0.117263837</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0.14636898500000001</v>
+      </c>
+      <c r="G6" s="44">
+        <v>9.9599999999999995E-5</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="48">
-        <v>0.30029044599999999</v>
-      </c>
-      <c r="B3" s="49">
-        <v>7.8965568999999999E-2</v>
-      </c>
-      <c r="C3" s="49">
-        <v>-8.5125760000000009E-3</v>
-      </c>
-      <c r="D3" s="49">
-        <v>-4.8004386000000003E-2</v>
-      </c>
-      <c r="E3" s="49">
-        <v>0.39556434800000001</v>
-      </c>
-      <c r="F3" s="49">
-        <v>0.52250576800000004</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="50" t="s">
+      <c r="J6" s="24">
+        <f t="shared" ref="J6" si="4">D6/0.8819476</f>
+        <v>2.9222198688448154E-2</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" ref="K6" si="5">E6/0.8819476</f>
+        <v>0.13296009536167452</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" ref="L6" si="6">F6/0.8819476</f>
+        <v>0.1659610899785883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="48">
+        <v>0.85769704899999999</v>
+      </c>
+      <c r="B7" s="48">
+        <v>1.8659636E-2</v>
+      </c>
+      <c r="C7" s="48">
+        <v>-1.1134289040000001</v>
+      </c>
+      <c r="D7" s="48">
+        <v>1.3184397E-2</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0.62476897799999997</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0.75638734100000005</v>
+      </c>
+      <c r="G7" s="48">
+        <v>3.5608500000000002E-4</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="I7" s="49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="49">
-        <v>9.4761189999999999E-3</v>
-      </c>
-      <c r="B4" s="49">
-        <v>8.8094664000000003E-2</v>
-      </c>
-      <c r="C4" s="49">
-        <v>-0.29943462500000001</v>
-      </c>
-      <c r="D4" s="49">
-        <v>388.02498370000001</v>
-      </c>
-      <c r="E4" s="49">
-        <v>684.23314919999996</v>
-      </c>
-      <c r="F4" s="49">
-        <v>808.32478890000004</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="50" t="s">
+      <c r="J7" s="24">
+        <f t="shared" ref="J7" si="7">D7/4.0403702</f>
+        <v>3.2631655881433836E-3</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" ref="K7" si="8">E7/4.0403702</f>
+        <v>0.15463161717210963</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" ref="L7" si="9">F7/4.0403702</f>
+        <v>0.18720743485337063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="47">
+        <v>0.31536013200000002</v>
+      </c>
+      <c r="B8" s="48">
+        <v>4.8784542E-2</v>
+      </c>
+      <c r="C8" s="48">
+        <v>-0.27318971199999997</v>
+      </c>
+      <c r="D8" s="48">
+        <v>-24.28128942</v>
+      </c>
+      <c r="E8" s="48">
+        <v>557.71853380000005</v>
+      </c>
+      <c r="F8" s="48">
+        <v>800.12021010000001</v>
+      </c>
+      <c r="G8" s="48">
+        <v>3.0936700000000001E-4</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I8" s="50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="52">
-        <v>4.6336917999999998E-2</v>
-      </c>
-      <c r="B5" s="53">
-        <v>9.5680638999999998E-2</v>
-      </c>
-      <c r="C5" s="53">
-        <v>-0.30442947100000001</v>
-      </c>
-      <c r="D5" s="53">
-        <v>9.9731814000000002E-2</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0.17494637299999999</v>
-      </c>
-      <c r="F5" s="53">
-        <v>0.206443243</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="54" t="s">
+      <c r="J8" s="24">
+        <f t="shared" ref="J8" si="10">D8/3923</f>
+        <v>-6.1894696456793272E-3</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" ref="K8" si="11">E8/3923</f>
+        <v>0.14216633540657661</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" ref="L8" si="12">F8/3923</f>
+        <v>0.20395620955901098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="51">
+        <v>0.15567147000000001</v>
+      </c>
+      <c r="B9" s="52">
+        <v>7.8828172000000002E-2</v>
+      </c>
+      <c r="C9" s="52">
+        <v>-0.38561272899999999</v>
+      </c>
+      <c r="D9" s="52">
+        <v>3.0282479999999999E-3</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.14847179299999999</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.212770446</v>
+      </c>
+      <c r="G9" s="52">
+        <v>5.4799999999999997E-5</v>
+      </c>
+      <c r="H9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="44">
-        <v>7.5991659000000003E-2</v>
-      </c>
-      <c r="B6" s="45">
-        <v>0.14507757900000001</v>
-      </c>
-      <c r="C6" s="45">
-        <v>-0.46668421399999999</v>
-      </c>
-      <c r="D6" s="45">
-        <v>2.5772448E-2</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0.117263837</v>
-      </c>
-      <c r="F6" s="45">
-        <v>0.14636898500000001</v>
-      </c>
-      <c r="G6" s="45">
-        <v>9.9599999999999995E-5</v>
-      </c>
-      <c r="H6" s="46" t="s">
+      <c r="J9" s="24">
+        <f t="shared" ref="J9" si="13">D9/1</f>
+        <v>3.0282479999999999E-3</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" ref="K9" si="14">E9/1</f>
+        <v>0.14847179299999999</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" ref="L9" si="15">F9/1</f>
+        <v>0.212770446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="36">
+        <v>1.78327117391331E-11</v>
+      </c>
+      <c r="B10" s="35">
+        <v>0.32977675830352399</v>
+      </c>
+      <c r="C10" s="55">
+        <v>0.33096848200000001</v>
+      </c>
+      <c r="D10" s="55">
+        <v>2.5583181999999999E-2</v>
+      </c>
+      <c r="E10" s="55">
+        <v>8.2352002999999993E-2</v>
+      </c>
+      <c r="F10" s="55">
+        <v>9.8856229000000004E-2</v>
+      </c>
+      <c r="G10" s="55">
+        <v>0.38323184399999999</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="49">
-        <v>0.85769704899999999</v>
-      </c>
-      <c r="B7" s="49">
-        <v>1.8659636E-2</v>
-      </c>
-      <c r="C7" s="49">
-        <v>-1.1134289040000001</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1.3184397E-2</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0.62476897799999997</v>
-      </c>
-      <c r="F7" s="49">
-        <v>0.75638734100000005</v>
-      </c>
-      <c r="G7" s="49">
-        <v>3.5608500000000002E-4</v>
-      </c>
-      <c r="H7" s="50" t="s">
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" ref="J10" si="16">D10/0.8819476</f>
+        <v>2.900759863737936E-2</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" ref="K10" si="17">E10/0.8819476</f>
+        <v>9.337516537263664E-2</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" ref="L10" si="18">F10/0.8819476</f>
+        <v>0.11208855151938732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>0.37245700351954802</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.7923108261696103E-2</v>
+      </c>
+      <c r="C11" s="55">
+        <v>-0.45596506599999997</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.218124976</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.49643032300000001</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0.62780664500000005</v>
+      </c>
+      <c r="G11" s="55">
+        <v>8.4712559999999999E-3</v>
+      </c>
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="48">
-        <v>0.31536013200000002</v>
-      </c>
-      <c r="B8" s="49">
-        <v>4.8784542E-2</v>
-      </c>
-      <c r="C8" s="49">
-        <v>-0.27318971199999997</v>
-      </c>
-      <c r="D8" s="49">
-        <v>-24.28128942</v>
-      </c>
-      <c r="E8" s="49">
-        <v>557.71853380000005</v>
-      </c>
-      <c r="F8" s="49">
-        <v>800.12021010000001</v>
-      </c>
-      <c r="G8" s="49">
-        <v>3.0936700000000001E-4</v>
-      </c>
-      <c r="H8" s="50" t="s">
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" ref="J11" si="19">D11/4.0403702</f>
+        <v>5.3986383722956874E-2</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" ref="K11" si="20">E11/4.0403702</f>
+        <v>0.12286753401953118</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" ref="L11" si="21">F11/4.0403702</f>
+        <v>0.15538344605155241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="36">
+        <v>4.46569000533541E-5</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0.248652677808505</v>
+      </c>
+      <c r="C12" s="55">
+        <v>0.118063973</v>
+      </c>
+      <c r="D12" s="55">
+        <v>-14.75358733</v>
+      </c>
+      <c r="E12" s="55">
+        <v>424.80500069999999</v>
+      </c>
+      <c r="F12" s="55">
+        <v>665.92791720000002</v>
+      </c>
+      <c r="G12" s="55">
+        <v>0.16321744499999999</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="52">
-        <v>0.15567147000000001</v>
-      </c>
-      <c r="B9" s="53">
-        <v>7.8828172000000002E-2</v>
-      </c>
-      <c r="C9" s="53">
-        <v>-0.38561272899999999</v>
-      </c>
-      <c r="D9" s="53">
-        <v>3.0282479999999999E-3</v>
-      </c>
-      <c r="E9" s="53">
-        <v>0.14847179299999999</v>
-      </c>
-      <c r="F9" s="53">
-        <v>0.212770446</v>
-      </c>
-      <c r="G9" s="53">
-        <v>5.4799999999999997E-5</v>
-      </c>
-      <c r="H9" s="54" t="s">
+      <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" ref="J12" si="22">D12/3923</f>
+        <v>-3.760792080040785E-3</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" ref="K12" si="23">E12/3923</f>
+        <v>0.108285750879429</v>
+      </c>
+      <c r="L12" s="24">
+        <f t="shared" ref="L12" si="24">F12/3923</f>
+        <v>0.1697496602600051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="36">
+        <v>3.97713994502554E-5</v>
+      </c>
+      <c r="B13" s="35">
+        <v>0.20761109375564399</v>
+      </c>
+      <c r="C13" s="55">
+        <v>0.13897387</v>
+      </c>
+      <c r="D13" s="55">
+        <v>2.2365586999999999E-2</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.11774108899999999</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0.167725285</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0.165182308</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="44">
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" ref="J13" si="25">D13/1</f>
+        <v>2.2365586999999999E-2</v>
+      </c>
+      <c r="K13" s="24">
+        <f t="shared" ref="K13" si="26">E13/1</f>
+        <v>0.11774108899999999</v>
+      </c>
+      <c r="L13" s="24">
+        <f t="shared" ref="L13" si="27">F13/1</f>
+        <v>0.167725285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="43">
         <v>0.68550667700000001</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B14" s="44">
         <v>-1.0753626000000001E-2</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C14" s="44">
         <v>-6.8654209999999993E-2</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D14" s="44">
         <v>2.4829760999999999E-2</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E14" s="44">
         <v>0.101981853</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F14" s="44">
         <v>0.124939382</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G14" s="44">
         <v>6.3798459999999998E-3</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="47" t="s">
+      <c r="I14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" ref="J14" si="28">D14/0.8819476</f>
+        <v>2.8153329063994276E-2</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" ref="K14" si="29">E14/0.8819476</f>
+        <v>0.11563255345328906</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" ref="L14" si="30">F14/0.8819476</f>
+        <v>0.14166304438041444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="47">
+        <v>0.76475791100000001</v>
+      </c>
+      <c r="B15" s="48">
+        <v>1.340947E-2</v>
+      </c>
+      <c r="C15" s="48">
+        <v>-0.16844789800000001</v>
+      </c>
+      <c r="D15" s="48">
+        <v>0.118236936</v>
+      </c>
+      <c r="E15" s="48">
+        <v>0.44566091699999999</v>
+      </c>
+      <c r="F15" s="48">
+        <v>0.56241268300000002</v>
+      </c>
+      <c r="G15" s="48">
+        <v>3.31825E-4</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" ref="J15" si="31">D15/4.0403702</f>
+        <v>2.9263886759683555E-2</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" ref="K15" si="32">E15/4.0403702</f>
+        <v>0.11030200079190763</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" ref="L15" si="33">F15/4.0403702</f>
+        <v>0.13919830489790269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="47">
+        <v>9.6857699999999998E-4</v>
+      </c>
+      <c r="B16" s="48">
+        <v>9.6863640000000001E-2</v>
+      </c>
+      <c r="C16" s="48">
+        <v>-2.0020177E-2</v>
+      </c>
+      <c r="D16" s="48">
+        <v>-11.104145170000001</v>
+      </c>
+      <c r="E16" s="48">
+        <v>493.34563880000002</v>
+      </c>
+      <c r="F16" s="48">
+        <v>716.16494850000004</v>
+      </c>
+      <c r="G16" s="48">
+        <v>2.1880443999999999E-2</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" ref="J16" si="34">D16/3923</f>
+        <v>-2.8305238771348458E-3</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" ref="K16" si="35">E16/3923</f>
+        <v>0.12575723650267653</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" ref="L16" si="36">F16/3923</f>
+        <v>0.18255542913586542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="51">
+        <v>1.340674E-3</v>
+      </c>
+      <c r="B17" s="52">
+        <v>9.1575437999999995E-2</v>
+      </c>
+      <c r="C17" s="52">
+        <v>-1.5871120999999998E-2</v>
+      </c>
+      <c r="D17" s="52">
+        <v>-1.417375E-3</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.125541926</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.182183768</v>
+      </c>
+      <c r="G17" s="52">
+        <v>2.2151039000000001E-2</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="24">
+        <f t="shared" ref="J17" si="37">D17/1</f>
+        <v>-1.417375E-3</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" ref="K17" si="38">E17/1</f>
+        <v>0.125541926</v>
+      </c>
+      <c r="L17" s="24">
+        <f t="shared" ref="L17" si="39">F17/1</f>
+        <v>0.182183768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="43">
+        <v>0.79801741100000001</v>
+      </c>
+      <c r="B18" s="44">
+        <v>1.0696888999999999E-2</v>
+      </c>
+      <c r="C18" s="44">
+        <v>-0.155206818</v>
+      </c>
+      <c r="D18" s="44">
+        <v>2.7170057000000001E-2</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0.10999735300000001</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0.12990044100000001</v>
+      </c>
+      <c r="G18" s="44">
+        <v>2.132704E-3</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="48">
-        <v>0.76475791100000001</v>
-      </c>
-      <c r="B11" s="49">
-        <v>1.340947E-2</v>
-      </c>
-      <c r="C11" s="49">
-        <v>-0.16844789800000001</v>
-      </c>
-      <c r="D11" s="49">
-        <v>0.118236936</v>
-      </c>
-      <c r="E11" s="49">
-        <v>0.44566091699999999</v>
-      </c>
-      <c r="F11" s="49">
-        <v>0.56241268300000002</v>
-      </c>
-      <c r="G11" s="49">
-        <v>3.31825E-4</v>
-      </c>
-      <c r="H11" s="50" t="s">
+      <c r="J18" s="24">
+        <f t="shared" ref="J18" si="40">D18/0.8819476</f>
+        <v>3.0806883538205671E-2</v>
+      </c>
+      <c r="K18" s="24">
+        <f t="shared" ref="K18" si="41">E18/0.8819476</f>
+        <v>0.12472096188027497</v>
+      </c>
+      <c r="L18" s="24">
+        <f t="shared" ref="L18" si="42">F18/0.8819476</f>
+        <v>0.1472881620177888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="47">
+        <v>0.90000000199999997</v>
+      </c>
+      <c r="B19" s="48">
+        <v>4.6681750000000001E-3</v>
+      </c>
+      <c r="C19" s="48">
+        <v>-0.23124994500000001</v>
+      </c>
+      <c r="D19" s="48">
+        <v>0.111823822</v>
+      </c>
+      <c r="E19" s="48">
+        <v>0.45278823099999999</v>
+      </c>
+      <c r="F19" s="48">
+        <v>0.57732922499999995</v>
+      </c>
+      <c r="G19" s="48">
+        <v>1.6087830000000001E-2</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="51" t="s">
+      <c r="I19" s="50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="48">
-        <v>9.6857699999999998E-4</v>
-      </c>
-      <c r="B12" s="49">
-        <v>9.6863640000000001E-2</v>
-      </c>
-      <c r="C12" s="49">
-        <v>-2.0020177E-2</v>
-      </c>
-      <c r="D12" s="49">
-        <v>-11.104145170000001</v>
-      </c>
-      <c r="E12" s="49">
-        <v>493.34563880000002</v>
-      </c>
-      <c r="F12" s="49">
-        <v>716.16494850000004</v>
-      </c>
-      <c r="G12" s="49">
-        <v>2.1880443999999999E-2</v>
-      </c>
-      <c r="H12" s="50" t="s">
+      <c r="J19" s="24">
+        <f t="shared" ref="J19" si="43">D19/4.0403702</f>
+        <v>2.7676627750595727E-2</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" ref="K19" si="44">E19/4.0403702</f>
+        <v>0.11206602578149893</v>
+      </c>
+      <c r="L19" s="24">
+        <f t="shared" ref="L19" si="45">F19/4.0403702</f>
+        <v>0.14289017996420228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="47">
+        <v>0.30120079999999999</v>
+      </c>
+      <c r="B20" s="48">
+        <v>5.0589626999999998E-2</v>
+      </c>
+      <c r="C20" s="48">
+        <v>-0.102465743</v>
+      </c>
+      <c r="D20" s="48">
+        <v>25.271412850000001</v>
+      </c>
+      <c r="E20" s="48">
+        <v>531.38681280000003</v>
+      </c>
+      <c r="F20" s="48">
+        <v>744.54548069999998</v>
+      </c>
+      <c r="G20" s="48">
+        <v>7.2693599999999999E-3</v>
+      </c>
+      <c r="H20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="51" t="s">
+      <c r="I20" s="50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="52">
-        <v>1.340674E-3</v>
-      </c>
-      <c r="B13" s="53">
-        <v>9.1575437999999995E-2</v>
-      </c>
-      <c r="C13" s="53">
-        <v>-1.5871120999999998E-2</v>
-      </c>
-      <c r="D13" s="53">
-        <v>-1.417375E-3</v>
-      </c>
-      <c r="E13" s="53">
-        <v>0.125541926</v>
-      </c>
-      <c r="F13" s="53">
-        <v>0.182183768</v>
-      </c>
-      <c r="G13" s="53">
-        <v>2.2151039000000001E-2</v>
-      </c>
-      <c r="H13" s="54" t="s">
+      <c r="J20" s="24">
+        <f t="shared" ref="J20" si="46">D20/3923</f>
+        <v>6.4418589982156516E-3</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" ref="K20" si="47">E20/3923</f>
+        <v>0.13545419648228396</v>
+      </c>
+      <c r="L20" s="24">
+        <f t="shared" ref="L20" si="48">F20/3923</f>
+        <v>0.18978982429263319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="51">
+        <v>0.330556138</v>
+      </c>
+      <c r="B21" s="52">
+        <v>4.5556587000000003E-2</v>
+      </c>
+      <c r="C21" s="52">
+        <v>-9.2685693999999999E-2</v>
+      </c>
+      <c r="D21" s="52">
+        <v>6.3986049999999999E-3</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0.13543027299999999</v>
+      </c>
+      <c r="F21" s="52">
+        <v>0.18894612999999999</v>
+      </c>
+      <c r="G21" s="52">
+        <v>7.8124700000000002E-3</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="55" t="s">
+      <c r="I21" s="54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="44">
-        <v>0.79801741100000001</v>
-      </c>
-      <c r="B14" s="45">
-        <v>1.0696888999999999E-2</v>
-      </c>
-      <c r="C14" s="45">
-        <v>-0.155206818</v>
-      </c>
-      <c r="D14" s="45">
-        <v>2.7170057000000001E-2</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0.10999735300000001</v>
-      </c>
-      <c r="F14" s="45">
-        <v>0.12990044100000001</v>
-      </c>
-      <c r="G14" s="45">
-        <v>2.132704E-3</v>
-      </c>
-      <c r="H14" s="46" t="s">
+      <c r="J21" s="24">
+        <f t="shared" ref="J21" si="49">D21/1</f>
+        <v>6.3986049999999999E-3</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" ref="K21" si="50">E21/1</f>
+        <v>0.13543027299999999</v>
+      </c>
+      <c r="L21" s="24">
+        <f t="shared" ref="L21" si="51">F21/1</f>
+        <v>0.18894612999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>1.5945739980705101E-10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.162877180443915</v>
+      </c>
+      <c r="C22" s="55">
+        <v>0.21350551700000001</v>
+      </c>
+      <c r="D22" s="55">
+        <v>2.3365177000000001E-2</v>
+      </c>
+      <c r="E22" s="55">
+        <v>8.9453724999999998E-2</v>
+      </c>
+      <c r="F22" s="55">
+        <v>0.107183662</v>
+      </c>
+      <c r="G22" s="55">
+        <v>0.35431380699999998</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="48">
-        <v>0.90000000199999997</v>
-      </c>
-      <c r="B15" s="49">
-        <v>4.6681750000000001E-3</v>
-      </c>
-      <c r="C15" s="49">
-        <v>-0.23124994500000001</v>
-      </c>
-      <c r="D15" s="49">
-        <v>0.111823822</v>
-      </c>
-      <c r="E15" s="49">
-        <v>0.45278823099999999</v>
-      </c>
-      <c r="F15" s="49">
-        <v>0.57732922499999995</v>
-      </c>
-      <c r="G15" s="49">
-        <v>1.6087830000000001E-2</v>
-      </c>
-      <c r="H15" s="50" t="s">
+      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" ref="J22" si="52">D22/0.8819476</f>
+        <v>2.6492704328465771E-2</v>
+      </c>
+      <c r="K22" s="24">
+        <f t="shared" ref="K22" si="53">E22/0.8819476</f>
+        <v>0.10142748276654984</v>
+      </c>
+      <c r="L22" s="24">
+        <f t="shared" ref="L22" si="54">F22/0.8819476</f>
+        <v>0.12153064649192309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>4.1714768980968701E-2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-4.7270402660136997E-2</v>
+      </c>
+      <c r="C23" s="55">
+        <v>-0.23602377599999999</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0.15606520800000001</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0.44830479600000001</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0.57844735899999999</v>
+      </c>
+      <c r="G23" s="55">
+        <v>4.3379623999999999E-2</v>
+      </c>
+      <c r="H23" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="48">
-        <v>0.30120079999999999</v>
-      </c>
-      <c r="B16" s="49">
-        <v>5.0589626999999998E-2</v>
-      </c>
-      <c r="C16" s="49">
-        <v>-0.102465743</v>
-      </c>
-      <c r="D16" s="49">
-        <v>25.271412850000001</v>
-      </c>
-      <c r="E16" s="49">
-        <v>531.38681280000003</v>
-      </c>
-      <c r="F16" s="49">
-        <v>744.54548069999998</v>
-      </c>
-      <c r="G16" s="49">
-        <v>7.2693599999999999E-3</v>
-      </c>
-      <c r="H16" s="50" t="s">
+      <c r="I23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="24">
+        <f t="shared" ref="J23" si="55">D23/4.0403702</f>
+        <v>3.8626462495936639E-2</v>
+      </c>
+      <c r="K23" s="24">
+        <f t="shared" ref="K23" si="56">E23/4.0403702</f>
+        <v>0.11095636632504616</v>
+      </c>
+      <c r="L23" s="24">
+        <f t="shared" ref="L23" si="57">F23/4.0403702</f>
+        <v>0.14316692044704221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>3.0984901678166902E-6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.146091371810087</v>
+      </c>
+      <c r="C24" s="55">
+        <v>0.18892056400000001</v>
+      </c>
+      <c r="D24" s="55">
+        <v>-14.822058030000001</v>
+      </c>
+      <c r="E24" s="55">
+        <v>419.83932570000002</v>
+      </c>
+      <c r="F24" s="55">
+        <v>638.61685279999995</v>
+      </c>
+      <c r="G24" s="55">
+        <v>0.20756269999999999</v>
+      </c>
+      <c r="H24" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="52">
-        <v>0.330556138</v>
-      </c>
-      <c r="B17" s="53">
-        <v>4.5556587000000003E-2</v>
-      </c>
-      <c r="C17" s="53">
-        <v>-9.2685693999999999E-2</v>
-      </c>
-      <c r="D17" s="53">
-        <v>6.3986049999999999E-3</v>
-      </c>
-      <c r="E17" s="53">
-        <v>0.13543027299999999</v>
-      </c>
-      <c r="F17" s="53">
-        <v>0.18894612999999999</v>
-      </c>
-      <c r="G17" s="53">
-        <v>7.8124700000000002E-3</v>
-      </c>
-      <c r="H17" s="54" t="s">
+      <c r="I24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" ref="J24" si="58">D24/3923</f>
+        <v>-3.7782457379556466E-3</v>
+      </c>
+      <c r="K24" s="24">
+        <f t="shared" ref="K24" si="59">E24/3923</f>
+        <v>0.10701996576599541</v>
+      </c>
+      <c r="L24" s="24">
+        <f t="shared" ref="L24" si="60">F24/3923</f>
+        <v>0.16278787988784094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>4.9085924130319401E-6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.18324568284551401</v>
+      </c>
+      <c r="C25" s="55">
+        <v>0.19768981699999999</v>
+      </c>
+      <c r="D25" s="55">
+        <v>-5.5774379999999997E-3</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0.10626565</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0.161905471</v>
+      </c>
+      <c r="G25" s="55">
+        <v>0.200054175</v>
+      </c>
+      <c r="H25" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="49">
+      <c r="I25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" ref="J25" si="61">D25/1</f>
+        <v>-5.5774379999999997E-3</v>
+      </c>
+      <c r="K25" s="24">
+        <f t="shared" ref="K25" si="62">E25/1</f>
+        <v>0.10626565</v>
+      </c>
+      <c r="L25" s="24">
+        <f t="shared" ref="L25" si="63">F25/1</f>
+        <v>0.161905471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="48">
         <v>0.126314222</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B26" s="48">
         <v>-0.33099990800000001</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C26" s="56">
         <v>-7.9147724029999997</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D26" s="48">
         <v>0.210144148</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E26" s="48">
         <v>0.30968568800000001</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F26" s="48">
         <v>0.35392668100000002</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G26" s="56">
         <v>2.6657410999999999E-2</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H26" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="50" t="s">
+      <c r="I26" s="49" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="49">
+      <c r="J26" s="24">
+        <f t="shared" ref="J26" si="64">D26/0.8819476</f>
+        <v>0.23827282709312889</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" ref="K26" si="65">E26/0.8819476</f>
+        <v>0.35113842137560097</v>
+      </c>
+      <c r="L26" s="24">
+        <f t="shared" ref="L26" si="66">F26/0.8819476</f>
+        <v>0.40130125758038232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="48">
         <v>0.83339356600000003</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B27" s="48">
         <v>1.0522732999999999E-2</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C27" s="56">
         <v>-12.94888559</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D27" s="48">
         <v>-1.844333311</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E27" s="48">
         <v>1.8552318489999999</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F27" s="48">
         <v>1.9288391739999999</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G27" s="56">
         <v>5.1139399999999998E-4</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="50" t="s">
+      <c r="I27" s="49" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="49">
+      <c r="J27" s="24">
+        <f t="shared" ref="J27" si="67">D27/4.0403702</f>
+        <v>-0.45647631768989883</v>
+      </c>
+      <c r="K27" s="24">
+        <f t="shared" ref="K27" si="68">E27/4.0403702</f>
+        <v>0.4591737284370625</v>
+      </c>
+      <c r="L27" s="24">
+        <f t="shared" ref="L27" si="69">F27/4.0403702</f>
+        <v>0.47739169395913272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="48">
         <v>1.0608779E-2</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B28" s="48">
         <v>-8.9099999999999997E-5</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C28" s="56">
         <v>-1.0146567550000001</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D28" s="48">
         <v>-732.90112360000001</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E28" s="48">
         <v>732.90112360000001</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F28" s="48">
         <v>1032.8196359999999</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G28" s="56">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="50" t="s">
+      <c r="I28" s="49" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="49">
+      <c r="J28" s="24">
+        <f t="shared" ref="J28" si="70">D28/3923</f>
+        <v>-0.18682159663522815</v>
+      </c>
+      <c r="K28" s="24">
+        <f t="shared" ref="K28" si="71">E28/3923</f>
+        <v>0.18682159663522815</v>
+      </c>
+      <c r="L28" s="24">
+        <f t="shared" ref="L28" si="72">F28/3923</f>
+        <v>0.26327291256691304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="48">
         <v>1.0608777999999999E-2</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B29" s="48">
         <v>-0.34934495999999998</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C29" s="56">
         <v>-10.887007499999999</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D29" s="48">
         <v>0.541082705</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E29" s="48">
         <v>0.59008326899999997</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F29" s="48">
         <v>0.63950201100000004</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G29" s="56">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H29" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="50" t="s">
+      <c r="I29" s="49" t="s">
         <v>26</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" ref="J29" si="73">D29/1</f>
+        <v>0.541082705</v>
+      </c>
+      <c r="K29" s="24">
+        <f t="shared" ref="K29" si="74">E29/1</f>
+        <v>0.59008326899999997</v>
+      </c>
+      <c r="L29" s="24">
+        <f t="shared" ref="L29" si="75">F29/1</f>
+        <v>0.63950201100000004</v>
       </c>
     </row>
   </sheetData>

--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AE69BC-C67E-4263-AB16-7F7C5DD4A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C94B22D-3EC7-4703-B3A2-F084C14F1AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-2385" windowWidth="14610" windowHeight="15585" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="41">
   <si>
     <t>lm_p_value</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>rel_rmse</t>
+  </si>
+  <si>
+    <t>var_brt</t>
+  </si>
+  <si>
+    <t>rf_var</t>
   </si>
 </sst>
 </file>
@@ -767,7 +773,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -825,6 +831,9 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7231,10 +7240,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96211-681C-4AAE-ACB3-CC395E0821A9}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7317,11 +7326,11 @@
       <c r="I2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="56">
         <f>D2/0.8819476</f>
         <v>2.7428969702961943E-2</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="56">
         <f t="shared" ref="K2:L2" si="0">E2/0.8819476</f>
         <v>0.1200932322963405</v>
       </c>
@@ -7358,11 +7367,11 @@
       <c r="I3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="56">
         <f>D3/4.0403702</f>
         <v>-1.1881185045865352E-2</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="56">
         <f t="shared" ref="K3:L3" si="1">E3/4.0403702</f>
         <v>9.7902996116543975E-2</v>
       </c>
@@ -7399,11 +7408,11 @@
       <c r="I4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="56">
         <f>D4/3923</f>
         <v>9.8910268595462661E-2</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="56">
         <f t="shared" ref="K4:L4" si="2">E4/3923</f>
         <v>0.17441579128218199</v>
       </c>
@@ -7440,11 +7449,11 @@
       <c r="I5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="56">
         <f>D5/1</f>
         <v>9.9731814000000002E-2</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="56">
         <f t="shared" ref="K5:L5" si="3">E5/1</f>
         <v>0.17494637299999999</v>
       </c>
@@ -7481,11 +7490,11 @@
       <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="56">
         <f t="shared" ref="J6" si="4">D6/0.8819476</f>
         <v>2.9222198688448154E-2</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="56">
         <f t="shared" ref="K6" si="5">E6/0.8819476</f>
         <v>0.13296009536167452</v>
       </c>
@@ -7522,11 +7531,11 @@
       <c r="I7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="56">
         <f t="shared" ref="J7" si="7">D7/4.0403702</f>
         <v>3.2631655881433836E-3</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="56">
         <f t="shared" ref="K7" si="8">E7/4.0403702</f>
         <v>0.15463161717210963</v>
       </c>
@@ -7563,11 +7572,11 @@
       <c r="I8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="56">
         <f t="shared" ref="J8" si="10">D8/3923</f>
         <v>-6.1894696456793272E-3</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="56">
         <f t="shared" ref="K8" si="11">E8/3923</f>
         <v>0.14216633540657661</v>
       </c>
@@ -7604,11 +7613,11 @@
       <c r="I9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="56">
         <f t="shared" ref="J9" si="13">D9/1</f>
         <v>3.0282479999999999E-3</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="56">
         <f t="shared" ref="K9" si="14">E9/1</f>
         <v>0.14847179299999999</v>
       </c>
@@ -7645,11 +7654,11 @@
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="56">
         <f t="shared" ref="J10" si="16">D10/0.8819476</f>
         <v>2.900759863737936E-2</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="56">
         <f t="shared" ref="K10" si="17">E10/0.8819476</f>
         <v>9.337516537263664E-2</v>
       </c>
@@ -7686,11 +7695,11 @@
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="56">
         <f t="shared" ref="J11" si="19">D11/4.0403702</f>
         <v>5.3986383722956874E-2</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="56">
         <f t="shared" ref="K11" si="20">E11/4.0403702</f>
         <v>0.12286753401953118</v>
       </c>
@@ -7727,11 +7736,11 @@
       <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="56">
         <f t="shared" ref="J12" si="22">D12/3923</f>
         <v>-3.760792080040785E-3</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="56">
         <f t="shared" ref="K12" si="23">E12/3923</f>
         <v>0.108285750879429</v>
       </c>
@@ -7768,11 +7777,11 @@
       <c r="I13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="56">
         <f t="shared" ref="J13" si="25">D13/1</f>
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="56">
         <f t="shared" ref="K13" si="26">E13/1</f>
         <v>0.11774108899999999</v>
       </c>
@@ -7809,11 +7818,11 @@
       <c r="I14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="56">
         <f t="shared" ref="J14" si="28">D14/0.8819476</f>
         <v>2.8153329063994276E-2</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="56">
         <f t="shared" ref="K14" si="29">E14/0.8819476</f>
         <v>0.11563255345328906</v>
       </c>
@@ -7850,11 +7859,11 @@
       <c r="I15" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="56">
         <f t="shared" ref="J15" si="31">D15/4.0403702</f>
         <v>2.9263886759683555E-2</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="56">
         <f t="shared" ref="K15" si="32">E15/4.0403702</f>
         <v>0.11030200079190763</v>
       </c>
@@ -7891,11 +7900,11 @@
       <c r="I16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="56">
         <f t="shared" ref="J16" si="34">D16/3923</f>
         <v>-2.8305238771348458E-3</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="56">
         <f t="shared" ref="K16" si="35">E16/3923</f>
         <v>0.12575723650267653</v>
       </c>
@@ -7932,11 +7941,11 @@
       <c r="I17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="56">
         <f t="shared" ref="J17" si="37">D17/1</f>
         <v>-1.417375E-3</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="56">
         <f t="shared" ref="K17" si="38">E17/1</f>
         <v>0.125541926</v>
       </c>
@@ -7973,15 +7982,15 @@
       <c r="I18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="56">
         <f t="shared" ref="J18" si="40">D18/0.8819476</f>
         <v>3.0806883538205671E-2</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="56">
         <f t="shared" ref="K18" si="41">E18/0.8819476</f>
         <v>0.12472096188027497</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="56">
         <f t="shared" ref="L18" si="42">F18/0.8819476</f>
         <v>0.1472881620177888</v>
       </c>
@@ -8014,15 +8023,15 @@
       <c r="I19" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="56">
         <f t="shared" ref="J19" si="43">D19/4.0403702</f>
         <v>2.7676627750595727E-2</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="56">
         <f t="shared" ref="K19" si="44">E19/4.0403702</f>
         <v>0.11206602578149893</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="56">
         <f t="shared" ref="L19" si="45">F19/4.0403702</f>
         <v>0.14289017996420228</v>
       </c>
@@ -8055,15 +8064,15 @@
       <c r="I20" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="56">
         <f t="shared" ref="J20" si="46">D20/3923</f>
         <v>6.4418589982156516E-3</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="56">
         <f t="shared" ref="K20" si="47">E20/3923</f>
         <v>0.13545419648228396</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="56">
         <f t="shared" ref="L20" si="48">F20/3923</f>
         <v>0.18978982429263319</v>
       </c>
@@ -8096,15 +8105,15 @@
       <c r="I21" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="56">
         <f t="shared" ref="J21" si="49">D21/1</f>
         <v>6.3986049999999999E-3</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="56">
         <f t="shared" ref="K21" si="50">E21/1</f>
         <v>0.13543027299999999</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="56">
         <f t="shared" ref="L21" si="51">F21/1</f>
         <v>0.18894612999999999</v>
       </c>
@@ -8137,15 +8146,15 @@
       <c r="I22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="56">
         <f t="shared" ref="J22" si="52">D22/0.8819476</f>
         <v>2.6492704328465771E-2</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="56">
         <f t="shared" ref="K22" si="53">E22/0.8819476</f>
         <v>0.10142748276654984</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="56">
         <f t="shared" ref="L22" si="54">F22/0.8819476</f>
         <v>0.12153064649192309</v>
       </c>
@@ -8178,15 +8187,15 @@
       <c r="I23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="56">
         <f t="shared" ref="J23" si="55">D23/4.0403702</f>
         <v>3.8626462495936639E-2</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="56">
         <f t="shared" ref="K23" si="56">E23/4.0403702</f>
         <v>0.11095636632504616</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="56">
         <f t="shared" ref="L23" si="57">F23/4.0403702</f>
         <v>0.14316692044704221</v>
       </c>
@@ -8219,15 +8228,15 @@
       <c r="I24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="56">
         <f t="shared" ref="J24" si="58">D24/3923</f>
         <v>-3.7782457379556466E-3</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="56">
         <f t="shared" ref="K24" si="59">E24/3923</f>
         <v>0.10701996576599541</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="56">
         <f t="shared" ref="L24" si="60">F24/3923</f>
         <v>0.16278787988784094</v>
       </c>
@@ -8260,15 +8269,15 @@
       <c r="I25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="56">
         <f t="shared" ref="J25" si="61">D25/1</f>
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="56">
         <f t="shared" ref="K25" si="62">E25/1</f>
         <v>0.10626565</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="56">
         <f t="shared" ref="L25" si="63">F25/1</f>
         <v>0.161905471</v>
       </c>
@@ -8301,15 +8310,15 @@
       <c r="I26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="56">
         <f t="shared" ref="J26" si="64">D26/0.8819476</f>
         <v>0.23827282709312889</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="56">
         <f t="shared" ref="K26" si="65">E26/0.8819476</f>
         <v>0.35113842137560097</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="56">
         <f t="shared" ref="L26" si="66">F26/0.8819476</f>
         <v>0.40130125758038232</v>
       </c>
@@ -8342,15 +8351,15 @@
       <c r="I27" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="56">
         <f t="shared" ref="J27" si="67">D27/4.0403702</f>
         <v>-0.45647631768989883</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="56">
         <f t="shared" ref="K27" si="68">E27/4.0403702</f>
         <v>0.4591737284370625</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="56">
         <f t="shared" ref="L27" si="69">F27/4.0403702</f>
         <v>0.47739169395913272</v>
       </c>
@@ -8383,15 +8392,15 @@
       <c r="I28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="56">
         <f t="shared" ref="J28" si="70">D28/3923</f>
         <v>-0.18682159663522815</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="56">
         <f t="shared" ref="K28" si="71">E28/3923</f>
         <v>0.18682159663522815</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="56">
         <f t="shared" ref="L28" si="72">F28/3923</f>
         <v>0.26327291256691304</v>
       </c>
@@ -8424,17 +8433,370 @@
       <c r="I29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="56">
         <f t="shared" ref="J29" si="73">D29/1</f>
         <v>0.541082705</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="56">
         <f t="shared" ref="K29" si="74">E29/1</f>
         <v>0.59008326899999997</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="56">
         <f t="shared" ref="L29" si="75">F29/1</f>
         <v>0.63950201100000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="57">
+        <v>2.8431854409935099E-7</v>
+      </c>
+      <c r="B30">
+        <v>0.32705191140842799</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-0.16999082549370101</v>
+      </c>
+      <c r="D30">
+        <v>-1.6419568868344899E-3</v>
+      </c>
+      <c r="E30">
+        <v>0.100878325156845</v>
+      </c>
+      <c r="F30">
+        <v>0.12351830687545901</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.12982707093752099</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="59">
+        <f>D30/0.8819476</f>
+        <v>-1.8617397301545918E-3</v>
+      </c>
+      <c r="K30" s="59">
+        <f t="shared" ref="K30:L30" si="76">E30/0.8819476</f>
+        <v>0.11438131376154886</v>
+      </c>
+      <c r="L30" s="59">
+        <f t="shared" si="76"/>
+        <v>0.14005175236653403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="57">
+        <v>1.98601137087785E-7</v>
+      </c>
+      <c r="B31">
+        <v>0.25700229775376698</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-0.21052110999995399</v>
+      </c>
+      <c r="D31">
+        <v>0.22217072624088599</v>
+      </c>
+      <c r="E31">
+        <v>0.41345413731681102</v>
+      </c>
+      <c r="F31">
+        <v>0.51200852707075195</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.133004561554179</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="59">
+        <f>D31/4.0403702</f>
+        <v>5.4987715294228731E-2</v>
+      </c>
+      <c r="K31" s="59">
+        <f t="shared" ref="K31:L31" si="77">E31/4.0403702</f>
+        <v>0.10233075605715809</v>
+      </c>
+      <c r="L31" s="59">
+        <f t="shared" si="77"/>
+        <v>0.1267231718199367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="57">
+        <v>3.2498692287643199E-5</v>
+      </c>
+      <c r="B32">
+        <v>0.15922695526195199</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-0.109326915764861</v>
+      </c>
+      <c r="D32">
+        <v>-258.97996136546101</v>
+      </c>
+      <c r="E32">
+        <v>487.18821723262499</v>
+      </c>
+      <c r="F32">
+        <v>737.91137501141202</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8.7082864064080695E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="59">
+        <f>D32/3923</f>
+        <v>-6.6015794383242676E-2</v>
+      </c>
+      <c r="K32" s="59">
+        <f t="shared" ref="K32:L32" si="78">E32/3923</f>
+        <v>0.12418766689590237</v>
+      </c>
+      <c r="L32" s="59">
+        <f t="shared" si="78"/>
+        <v>0.18809874458613612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="57">
+        <v>1.97867889018949E-10</v>
+      </c>
+      <c r="B33">
+        <v>0.17990075351434601</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.9850515404377999E-2</v>
+      </c>
+      <c r="D33">
+        <v>-6.9559712278052993E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.106076368994444</v>
+      </c>
+      <c r="F33">
+        <v>0.17499496301491599</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.19236422999674899</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="59">
+        <f>D33/1</f>
+        <v>-6.9559712278052993E-2</v>
+      </c>
+      <c r="K33" s="59">
+        <f t="shared" ref="K33:L33" si="79">E33/1</f>
+        <v>0.106076368994444</v>
+      </c>
+      <c r="L33" s="59">
+        <f t="shared" si="79"/>
+        <v>0.17499496301491599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="57">
+        <v>4.4936356308012701E-27</v>
+      </c>
+      <c r="B34">
+        <v>0.39242257120226598</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.43441655441911797</v>
+      </c>
+      <c r="D34">
+        <v>1.3633479505530901E-2</v>
+      </c>
+      <c r="E34">
+        <v>7.3210098715009303E-2</v>
+      </c>
+      <c r="F34">
+        <v>8.5879290240757702E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.45808168340761601</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="59">
+        <f t="shared" ref="J34" si="80">D34/0.8819476</f>
+        <v>1.5458378145743466E-2</v>
+      </c>
+      <c r="K34" s="59">
+        <f t="shared" ref="K34" si="81">E34/0.8819476</f>
+        <v>8.3009578704006104E-2</v>
+      </c>
+      <c r="L34" s="59">
+        <f t="shared" ref="L34" si="82">F34/0.8819476</f>
+        <v>9.7374594863411046E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="57">
+        <v>1.5308411722117901E-8</v>
+      </c>
+      <c r="B35">
+        <v>0.14668723274072901</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.4023566638949601E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.13237677177573601</v>
+      </c>
+      <c r="E35">
+        <v>0.33627661282060201</v>
+      </c>
+      <c r="F35">
+        <v>0.447807102036682</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.155432996811838</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="59">
+        <f t="shared" ref="J35" si="83">D35/4.0403702</f>
+        <v>3.2763525425401861E-2</v>
+      </c>
+      <c r="K35" s="59">
+        <f t="shared" ref="K35" si="84">E35/4.0403702</f>
+        <v>8.322915875891819E-2</v>
+      </c>
+      <c r="L35" s="59">
+        <f t="shared" ref="L35" si="85">F35/4.0403702</f>
+        <v>0.11083318603742845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="57">
+        <v>1.5134795324674001E-12</v>
+      </c>
+      <c r="B36">
+        <v>0.168517986109187</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.19386278965821599</v>
+      </c>
+      <c r="D36">
+        <v>-100.994705851318</v>
+      </c>
+      <c r="E36">
+        <v>415.15392140751197</v>
+      </c>
+      <c r="F36">
+        <v>629.04094333328703</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.232025528648243</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="59">
+        <f t="shared" ref="J36" si="86">D36/3923</f>
+        <v>-2.5744253339617131E-2</v>
+      </c>
+      <c r="K36" s="59">
+        <f t="shared" ref="K36" si="87">E36/3923</f>
+        <v>0.10582562360629925</v>
+      </c>
+      <c r="L36" s="59">
+        <f t="shared" ref="L36" si="88">F36/3923</f>
+        <v>0.16034691392640504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="57">
+        <v>1.45941618646091E-12</v>
+      </c>
+      <c r="B37">
+        <v>0.17062053337024499</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.19934369616412501</v>
+      </c>
+      <c r="D37">
+        <v>-2.3000869855594901E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.106161103019297</v>
+      </c>
+      <c r="F37">
+        <v>0.15980088693123801</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.23231470068916299</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="59">
+        <f t="shared" ref="J37" si="89">D37/1</f>
+        <v>-2.3000869855594901E-2</v>
+      </c>
+      <c r="K37" s="59">
+        <f t="shared" ref="K37" si="90">E37/1</f>
+        <v>0.106161103019297</v>
+      </c>
+      <c r="L37" s="59">
+        <f t="shared" ref="L37" si="91">F37/1</f>
+        <v>0.15980088693123801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C40" s="58">
+        <f>MAX(C2:C9,C15,C14:C21,C30:C33)</f>
+        <v>3.9850515404377999E-2</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58">
+        <f>MAX(G2:G9,G15,G14:G21,G30:G33)</f>
+        <v>0.19236422999674899</v>
+      </c>
+      <c r="J40" s="58">
+        <f>MIN(J2:J9,J14:J21,J30:J33)</f>
+        <v>-6.9559712278052993E-2</v>
+      </c>
+      <c r="K40" s="58">
+        <f>MIN(K2:K9,K14:K21,K30:K33)</f>
+        <v>9.7902996116543975E-2</v>
+      </c>
+      <c r="L40" s="58">
+        <f>MIN(L2:L9,L14:L21,L30:L33)</f>
+        <v>0.1267231718199367</v>
       </c>
     </row>
   </sheetData>

--- a/Stat_Analysis/evaluation_metrics_all.xlsx
+++ b/Stat_Analysis/evaluation_metrics_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\MSc_ENR_Studium\3_Semester_HS23\Master_Thesis\MTh_R\Stat_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C94B22D-3EC7-4703-B3A2-F084C14F1AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F200EE-0285-42B8-96CD-596681081504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-2385" windowWidth="14610" windowHeight="15585" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal vs. added" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="42">
   <si>
     <t>lm_p_value</t>
   </si>
@@ -137,9 +137,6 @@
     <t>vbrt</t>
   </si>
   <si>
-    <t>brt_samp</t>
-  </si>
-  <si>
     <t>vrf</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>rf_var</t>
+  </si>
+  <si>
+    <t>v + wd brt</t>
+  </si>
+  <si>
+    <t>samp_brt</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +782,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -817,23 +826,28 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="40" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="40" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1870,19 +1884,19 @@
       <c r="D10" s="35">
         <v>0.32977675830352399</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="52">
         <v>0.33096848200000001</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="52">
         <v>2.5583181999999999E-2</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="52">
         <v>8.2352002999999993E-2</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="52">
         <v>9.8856229000000004E-2</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="52">
         <v>0.38323184399999999</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1932,19 +1946,19 @@
       <c r="D11" s="3">
         <v>5.7923108261696103E-2</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="52">
         <v>-0.45596506599999997</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="52">
         <v>0.218124976</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="52">
         <v>0.49643032300000001</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="52">
         <v>0.62780664500000005</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="52">
         <v>8.4712559999999999E-3</v>
       </c>
       <c r="J11" t="s">
@@ -1994,19 +2008,19 @@
       <c r="D12" s="35">
         <v>0.248652677808505</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="52">
         <v>0.118063973</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="52">
         <v>-14.75358733</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="52">
         <v>424.80500069999999</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="52">
         <v>665.92791720000002</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="52">
         <v>0.16321744499999999</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2056,19 +2070,19 @@
       <c r="D13" s="35">
         <v>0.20761109375564399</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="52">
         <v>0.13897387</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="52">
         <v>2.2365586999999999E-2</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="52">
         <v>0.11774108899999999</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="52">
         <v>0.167725285</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="52">
         <v>0.165182308</v>
       </c>
       <c r="J13" t="s">
@@ -3032,19 +3046,19 @@
       <c r="D28" s="1">
         <v>0.162877180443915</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="52">
         <v>0.21350551700000001</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="52">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="52">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="52">
         <v>0.107183662</v>
       </c>
-      <c r="I28" s="55">
+      <c r="I28" s="52">
         <v>0.35431380699999998</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3094,19 +3108,19 @@
       <c r="D29" s="3">
         <v>-4.7270402660136997E-2</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="52">
         <v>-0.23602377599999999</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="52">
         <v>0.15606520800000001</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="52">
         <v>0.44830479600000001</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="52">
         <v>0.57844735899999999</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="52">
         <v>4.3379623999999999E-2</v>
       </c>
       <c r="J29" t="s">
@@ -3156,19 +3170,19 @@
       <c r="D30" s="1">
         <v>0.146091371810087</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="52">
         <v>0.18892056400000001</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="52">
         <v>-14.822058030000001</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="52">
         <v>419.83932570000002</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="52">
         <v>638.61685279999995</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="52">
         <v>0.20756269999999999</v>
       </c>
       <c r="J30" t="s">
@@ -3218,19 +3232,19 @@
       <c r="D31" s="1">
         <v>0.18324568284551401</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="52">
         <v>0.19768981699999999</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="52">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="G31" s="55">
+      <c r="G31" s="52">
         <v>0.10626565</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="52">
         <v>0.161905471</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="52">
         <v>0.200054175</v>
       </c>
       <c r="J31" t="s">
@@ -7242,8 +7256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E96211-681C-4AAE-ACB3-CC395E0821A9}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34:L37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7261,22 +7275,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="56" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7289,540 +7303,540 @@
         <v>9</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="43">
-        <v>0.86681282500000001</v>
-      </c>
-      <c r="B2" s="44">
-        <v>1.023867E-2</v>
-      </c>
-      <c r="C2" s="44">
-        <v>-0.17278907299999999</v>
-      </c>
-      <c r="D2" s="44">
-        <v>2.4190914000000001E-2</v>
-      </c>
-      <c r="E2" s="44">
-        <v>0.105915938</v>
-      </c>
-      <c r="F2" s="44">
-        <v>0.13088525000000001</v>
-      </c>
-      <c r="G2" s="44">
-        <v>2.0374845999999999E-2</v>
-      </c>
-      <c r="H2" s="45" t="s">
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>7.4585295702591398E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.13700767894261201</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.319715569950281</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.1688782260622201E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.11245139105376099</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.1388420197213</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.3428675841622998E-2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="55">
         <f>D2/0.8819476</f>
-        <v>2.7428969702961943E-2</v>
-      </c>
-      <c r="K2" s="56">
+        <v>2.4591917094192669E-2</v>
+      </c>
+      <c r="K2" s="55">
         <f t="shared" ref="K2:L2" si="0">E2/0.8819476</f>
-        <v>0.1200932322963405</v>
-      </c>
-      <c r="L2" s="24">
+        <v>0.12750348326109281</v>
+      </c>
+      <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>0.14840479184931168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="47">
-        <v>0.30029044599999999</v>
-      </c>
-      <c r="B3" s="48">
-        <v>7.8965568999999999E-2</v>
-      </c>
-      <c r="C3" s="48">
-        <v>-8.5125760000000009E-3</v>
-      </c>
-      <c r="D3" s="48">
-        <v>-4.8004386000000003E-2</v>
-      </c>
-      <c r="E3" s="48">
-        <v>0.39556434800000001</v>
-      </c>
-      <c r="F3" s="48">
-        <v>0.52250576800000004</v>
-      </c>
-      <c r="G3" s="48" t="s">
+        <v>0.15742660870248981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>0.29148890806981198</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-5.5410437764359899E-16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2.8760358869450698E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.8236359371744802E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.39197240029166702</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.52037074621768198</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="55">
         <f>D3/4.0403702</f>
-        <v>-1.1881185045865352E-2</v>
-      </c>
-      <c r="K3" s="56">
+        <v>2.1838681854386712E-3</v>
+      </c>
+      <c r="K3" s="55">
         <f t="shared" ref="K3:L3" si="1">E3/4.0403702</f>
-        <v>9.7902996116543975E-2</v>
-      </c>
-      <c r="L3" s="24">
+        <v>9.7013981612790581E-2</v>
+      </c>
+      <c r="L3" s="1">
         <f t="shared" si="1"/>
-        <v>0.1293212607102191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="48">
-        <v>9.4761189999999999E-3</v>
-      </c>
-      <c r="B4" s="48">
-        <v>8.8094664000000003E-2</v>
-      </c>
-      <c r="C4" s="48">
-        <v>-0.29943462500000001</v>
-      </c>
-      <c r="D4" s="48">
-        <v>388.02498370000001</v>
-      </c>
-      <c r="E4" s="48">
-        <v>684.23314919999996</v>
-      </c>
-      <c r="F4" s="48">
-        <v>808.32478890000004</v>
-      </c>
-      <c r="G4" s="48" t="s">
+        <v>0.12879283839329425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>0.53044595828293795</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-2.4806510337300002E-16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.514764152976532</v>
+      </c>
+      <c r="D4" s="1">
+        <v>508.75984700520797</v>
+      </c>
+      <c r="E4" s="1">
+        <v>768.31988525390602</v>
+      </c>
+      <c r="F4" s="1">
+        <v>872.73258121468803</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="55">
         <f>D4/3923</f>
-        <v>9.8910268595462661E-2</v>
-      </c>
-      <c r="K4" s="56">
+        <v>0.12968642544104206</v>
+      </c>
+      <c r="K4" s="55">
         <f t="shared" ref="K4:L4" si="2">E4/3923</f>
-        <v>0.17441579128218199</v>
-      </c>
-      <c r="L4" s="24">
+        <v>0.19585008545855367</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>0.20604761379046649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="51">
-        <v>4.6336917999999998E-2</v>
-      </c>
-      <c r="B5" s="52">
-        <v>9.5680638999999998E-2</v>
-      </c>
-      <c r="C5" s="52">
-        <v>-0.30442947100000001</v>
-      </c>
-      <c r="D5" s="52">
-        <v>9.9731814000000002E-2</v>
-      </c>
-      <c r="E5" s="52">
-        <v>0.17494637299999999</v>
-      </c>
-      <c r="F5" s="52">
-        <v>0.206443243</v>
-      </c>
-      <c r="G5" s="52" t="s">
+        <v>0.22246560826272954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>0.53044595882353596</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.97989786594362E-17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.79210493363293299</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.160872470456385</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.21923961921989299</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.24197588656581301</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="55">
         <f>D5/1</f>
-        <v>9.9731814000000002E-2</v>
-      </c>
-      <c r="K5" s="56">
+        <v>0.160872470456385</v>
+      </c>
+      <c r="K5" s="55">
         <f t="shared" ref="K5:L5" si="3">E5/1</f>
-        <v>0.17494637299999999</v>
-      </c>
-      <c r="L5" s="24">
+        <v>0.21923961921989299</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>0.206443243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="43">
-        <v>7.5991659000000003E-2</v>
-      </c>
-      <c r="B6" s="44">
-        <v>0.14507757900000001</v>
-      </c>
-      <c r="C6" s="44">
-        <v>-0.46668421399999999</v>
-      </c>
-      <c r="D6" s="44">
-        <v>2.5772448E-2</v>
-      </c>
-      <c r="E6" s="44">
-        <v>0.117263837</v>
-      </c>
-      <c r="F6" s="44">
-        <v>0.14636898500000001</v>
-      </c>
-      <c r="G6" s="44">
-        <v>9.9599999999999995E-5</v>
-      </c>
-      <c r="H6" s="45" t="s">
+        <v>0.24197588656581301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>0.63837020150879697</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.0555793523328598E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.15149901442718799</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.40593424050069E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.10868535836615099</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.12969180592076901</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.3595288515448499E-3</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="56">
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="55">
         <f t="shared" ref="J6" si="4">D6/0.8819476</f>
-        <v>2.9222198688448154E-2</v>
-      </c>
-      <c r="K6" s="56">
+        <v>1.5941244587554748E-2</v>
+      </c>
+      <c r="K6" s="55">
         <f t="shared" ref="K6" si="5">E6/0.8819476</f>
-        <v>0.13296009536167452</v>
-      </c>
-      <c r="L6" s="24">
+        <v>0.12323335124008614</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" ref="L6" si="6">F6/0.8819476</f>
-        <v>0.1659610899785883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="48">
-        <v>0.85769704899999999</v>
-      </c>
-      <c r="B7" s="48">
-        <v>1.8659636E-2</v>
-      </c>
-      <c r="C7" s="48">
-        <v>-1.1134289040000001</v>
-      </c>
-      <c r="D7" s="48">
-        <v>1.3184397E-2</v>
-      </c>
-      <c r="E7" s="48">
-        <v>0.62476897799999997</v>
-      </c>
-      <c r="F7" s="48">
-        <v>0.75638734100000005</v>
-      </c>
-      <c r="G7" s="48">
-        <v>3.5608500000000002E-4</v>
-      </c>
-      <c r="H7" s="49" t="s">
+        <v>0.14705160025467387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>0.172836775862338</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.138372069444057</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-1.25149240939822</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.1336516004205101E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.626012940827958</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.78070268676872101</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.96767929365405E-2</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="56">
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="55">
         <f t="shared" ref="J7" si="7">D7/4.0403702</f>
-        <v>3.2631655881433836E-3</v>
-      </c>
-      <c r="K7" s="56">
+        <v>5.2808319406486819E-3</v>
+      </c>
+      <c r="K7" s="55">
         <f t="shared" ref="K7" si="8">E7/4.0403702</f>
-        <v>0.15463161717210963</v>
-      </c>
-      <c r="L7" s="24">
+        <v>0.15493950055070646</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" ref="L7" si="9">F7/4.0403702</f>
-        <v>0.18720743485337063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="47">
-        <v>0.31536013200000002</v>
-      </c>
-      <c r="B8" s="48">
-        <v>4.8784542E-2</v>
-      </c>
-      <c r="C8" s="48">
-        <v>-0.27318971199999997</v>
-      </c>
-      <c r="D8" s="48">
-        <v>-24.28128942</v>
-      </c>
-      <c r="E8" s="48">
-        <v>557.71853380000005</v>
-      </c>
-      <c r="F8" s="48">
-        <v>800.12021010000001</v>
-      </c>
-      <c r="G8" s="48">
-        <v>3.0936700000000001E-4</v>
-      </c>
-      <c r="H8" s="49" t="s">
+        <v>0.19322553333571291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>0.48635388819993303</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.9901729390502702E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-0.151919945709653</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-139.59460934003201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>495.74950702985097</v>
+      </c>
+      <c r="F8" s="1">
+        <v>761.06163393992904</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.1692089224597299E-3</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="56">
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="55">
         <f t="shared" ref="J8" si="10">D8/3923</f>
-        <v>-6.1894696456793272E-3</v>
-      </c>
-      <c r="K8" s="56">
+        <v>-3.5583637354073924E-2</v>
+      </c>
+      <c r="K8" s="55">
         <f t="shared" ref="K8" si="11">E8/3923</f>
-        <v>0.14216633540657661</v>
-      </c>
-      <c r="L8" s="24">
+        <v>0.12636999924288833</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" ref="L8" si="12">F8/3923</f>
-        <v>0.20395620955901098</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="51">
-        <v>0.15567147000000001</v>
-      </c>
-      <c r="B9" s="52">
-        <v>7.8828172000000002E-2</v>
-      </c>
-      <c r="C9" s="52">
-        <v>-0.38561272899999999</v>
-      </c>
-      <c r="D9" s="52">
-        <v>3.0282479999999999E-3</v>
-      </c>
-      <c r="E9" s="52">
-        <v>0.14847179299999999</v>
-      </c>
-      <c r="F9" s="52">
-        <v>0.212770446</v>
-      </c>
-      <c r="G9" s="52">
-        <v>5.4799999999999997E-5</v>
-      </c>
-      <c r="H9" s="53" t="s">
+        <v>0.19399990668874051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>0.74242706134966496</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.7379503923620601E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.27435070953345603</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.9383083994089199E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.15313501629234499</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.20404918033508301</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.15444862975623E-3</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="56">
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="55">
         <f t="shared" ref="J9" si="13">D9/1</f>
-        <v>3.0282479999999999E-3</v>
-      </c>
-      <c r="K9" s="56">
+        <v>3.9383083994089199E-2</v>
+      </c>
+      <c r="K9" s="55">
         <f t="shared" ref="K9" si="14">E9/1</f>
-        <v>0.14847179299999999</v>
-      </c>
-      <c r="L9" s="24">
+        <v>0.15313501629234499</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" ref="L9" si="15">F9/1</f>
-        <v>0.212770446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="36">
-        <v>1.78327117391331E-11</v>
-      </c>
-      <c r="B10" s="35">
-        <v>0.32977675830352399</v>
-      </c>
-      <c r="C10" s="55">
-        <v>0.33096848200000001</v>
-      </c>
-      <c r="D10" s="55">
-        <v>2.5583181999999999E-2</v>
-      </c>
-      <c r="E10" s="55">
-        <v>8.2352002999999993E-2</v>
-      </c>
-      <c r="F10" s="55">
-        <v>9.8856229000000004E-2</v>
-      </c>
-      <c r="G10" s="55">
-        <v>0.38323184399999999</v>
+        <v>0.20404918033508301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="58">
+        <v>3.7868328906539904E-12</v>
+      </c>
+      <c r="B10" s="57">
+        <v>0.211202282142952</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.31160878240678602</v>
+      </c>
+      <c r="D10" s="57">
+        <v>-1.1533995575828699E-3</v>
+      </c>
+      <c r="E10" s="57">
+        <v>8.4733915615875205E-2</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0.100276325868388</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.40293141226714402</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="56">
+        <v>41</v>
+      </c>
+      <c r="J10" s="55">
         <f t="shared" ref="J10" si="16">D10/0.8819476</f>
-        <v>2.900759863737936E-2</v>
-      </c>
-      <c r="K10" s="56">
+        <v>-1.3077869451460266E-3</v>
+      </c>
+      <c r="K10" s="55">
         <f t="shared" ref="K10" si="17">E10/0.8819476</f>
-        <v>9.337516537263664E-2</v>
-      </c>
-      <c r="L10" s="24">
+        <v>9.6075907021999044E-2</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" ref="L10" si="18">F10/0.8819476</f>
-        <v>0.11208855151938732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
-        <v>0.37245700351954802</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.7923108261696103E-2</v>
-      </c>
-      <c r="C11" s="55">
-        <v>-0.45596506599999997</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0.218124976</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0.49643032300000001</v>
-      </c>
-      <c r="F11" s="55">
-        <v>0.62780664500000005</v>
-      </c>
-      <c r="G11" s="55">
-        <v>8.4712559999999999E-3</v>
-      </c>
-      <c r="H11" t="s">
+        <v>0.11369873433340937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>5.8156268969519198E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.12910197097776399</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.26362757927525499</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.14646206577864199</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.47155128258468398</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.58487085238616099</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.7658545972822997E-2</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="56">
+        <v>41</v>
+      </c>
+      <c r="J11" s="55">
         <f t="shared" ref="J11" si="19">D11/4.0403702</f>
-        <v>5.3986383722956874E-2</v>
-      </c>
-      <c r="K11" s="56">
+        <v>3.624966488928217E-2</v>
+      </c>
+      <c r="K11" s="55">
         <f t="shared" ref="K11" si="20">E11/4.0403702</f>
-        <v>0.12286753401953118</v>
-      </c>
-      <c r="L11" s="24">
+        <v>0.11670991994364378</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" ref="L11" si="21">F11/4.0403702</f>
-        <v>0.15538344605155241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="36">
-        <v>4.46569000533541E-5</v>
-      </c>
-      <c r="B12" s="35">
-        <v>0.248652677808505</v>
-      </c>
-      <c r="C12" s="55">
-        <v>0.118063973</v>
-      </c>
-      <c r="D12" s="55">
-        <v>-14.75358733</v>
-      </c>
-      <c r="E12" s="55">
-        <v>424.80500069999999</v>
-      </c>
-      <c r="F12" s="55">
-        <v>665.92791720000002</v>
-      </c>
-      <c r="G12" s="55">
-        <v>0.16321744499999999</v>
+        <v>0.14475674837572086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="58">
+        <v>4.1146246050405902E-5</v>
+      </c>
+      <c r="B12" s="57">
+        <v>0.12835986809991501</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-5.7840886698388203E-2</v>
+      </c>
+      <c r="D12" s="57">
+        <v>-328.388251185417</v>
+      </c>
+      <c r="E12" s="57">
+        <v>426.356798529625</v>
+      </c>
+      <c r="F12" s="57">
+        <v>729.32122797972204</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.16460632236602199</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="55">
+        <f t="shared" ref="J12" si="22">D12/3923</f>
+        <v>-8.3708450467860573E-2</v>
+      </c>
+      <c r="K12" s="55">
+        <f t="shared" ref="K12" si="23">E12/3923</f>
+        <v>0.10868131494509942</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ref="L12" si="24">F12/3923</f>
+        <v>0.18590905632926893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="57">
+        <v>8.3122487881562394E-3</v>
+      </c>
+      <c r="B13" s="57">
+        <v>0.17904636241388999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-9.6286461770479295E-2</v>
+      </c>
+      <c r="D13" s="57">
+        <v>1.5940527030328701E-2</v>
+      </c>
+      <c r="E13" s="57">
+        <v>0.12932793530202699</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0.189257194270638</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7.1781144238338604E-2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="55">
+        <f t="shared" ref="J13" si="25">D13/1</f>
+        <v>1.5940527030328701E-2</v>
+      </c>
+      <c r="K13" s="55">
+        <f t="shared" ref="K13" si="26">E13/1</f>
+        <v>0.12932793530202699</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13" si="27">F13/1</f>
+        <v>0.189257194270638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="59">
+        <v>0.68550667700000001</v>
+      </c>
+      <c r="B14" s="60">
+        <v>-1.0753626000000001E-2</v>
+      </c>
+      <c r="C14" s="43">
+        <v>-6.8654209999999993E-2</v>
+      </c>
+      <c r="D14" s="60">
+        <v>2.4829760999999999E-2</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0.101981853</v>
+      </c>
+      <c r="F14" s="60">
+        <v>0.124939382</v>
+      </c>
+      <c r="G14" s="43">
+        <v>6.3798459999999998E-3</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="56">
-        <f t="shared" ref="J12" si="22">D12/3923</f>
-        <v>-3.760792080040785E-3</v>
-      </c>
-      <c r="K12" s="56">
-        <f t="shared" ref="K12" si="23">E12/3923</f>
-        <v>0.108285750879429</v>
-      </c>
-      <c r="L12" s="24">
-        <f t="shared" ref="L12" si="24">F12/3923</f>
-        <v>0.1697496602600051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="36">
-        <v>3.97713994502554E-5</v>
-      </c>
-      <c r="B13" s="35">
-        <v>0.20761109375564399</v>
-      </c>
-      <c r="C13" s="55">
-        <v>0.13897387</v>
-      </c>
-      <c r="D13" s="55">
-        <v>2.2365586999999999E-2</v>
-      </c>
-      <c r="E13" s="55">
-        <v>0.11774108899999999</v>
-      </c>
-      <c r="F13" s="55">
-        <v>0.167725285</v>
-      </c>
-      <c r="G13" s="55">
-        <v>0.165182308</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="56">
-        <f t="shared" ref="J13" si="25">D13/1</f>
-        <v>2.2365586999999999E-2</v>
-      </c>
-      <c r="K13" s="56">
-        <f t="shared" ref="K13" si="26">E13/1</f>
-        <v>0.11774108899999999</v>
-      </c>
-      <c r="L13" s="24">
-        <f t="shared" ref="L13" si="27">F13/1</f>
-        <v>0.167725285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="43">
-        <v>0.68550667700000001</v>
-      </c>
-      <c r="B14" s="44">
-        <v>-1.0753626000000001E-2</v>
-      </c>
-      <c r="C14" s="44">
-        <v>-6.8654209999999993E-2</v>
-      </c>
-      <c r="D14" s="44">
-        <v>2.4829760999999999E-2</v>
-      </c>
-      <c r="E14" s="44">
-        <v>0.101981853</v>
-      </c>
-      <c r="F14" s="44">
-        <v>0.124939382</v>
-      </c>
-      <c r="G14" s="44">
-        <v>6.3798459999999998E-3</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="56">
+      <c r="J14" s="53">
         <f t="shared" ref="J14" si="28">D14/0.8819476</f>
         <v>2.8153329063994276E-2</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="53">
         <f t="shared" ref="K14" si="29">E14/0.8819476</f>
         <v>0.11563255345328906</v>
       </c>
@@ -7832,38 +7846,38 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="47">
+      <c r="A15" s="61">
         <v>0.76475791100000001</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="62">
         <v>1.340947E-2</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="46">
         <v>-0.16844789800000001</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="62">
         <v>0.118236936</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="62">
         <v>0.44566091699999999</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="62">
         <v>0.56241268300000002</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="46">
         <v>3.31825E-4</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="56">
+      <c r="I15" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="53">
         <f t="shared" ref="J15" si="31">D15/4.0403702</f>
         <v>2.9263886759683555E-2</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="53">
         <f t="shared" ref="K15" si="32">E15/4.0403702</f>
         <v>0.11030200079190763</v>
       </c>
@@ -7873,38 +7887,38 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="47">
+      <c r="A16" s="61">
         <v>9.6857699999999998E-4</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="62">
         <v>9.6863640000000001E-2</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="46">
         <v>-2.0020177E-2</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="62">
         <v>-11.104145170000001</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="62">
         <v>493.34563880000002</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="62">
         <v>716.16494850000004</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="46">
         <v>2.1880443999999999E-2</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="56">
+      <c r="I16" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="53">
         <f t="shared" ref="J16" si="34">D16/3923</f>
         <v>-2.8305238771348458E-3</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="53">
         <f t="shared" ref="K16" si="35">E16/3923</f>
         <v>0.12575723650267653</v>
       </c>
@@ -7914,38 +7928,38 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="51">
+      <c r="A17" s="63">
         <v>1.340674E-3</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="64">
         <v>9.1575437999999995E-2</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="49">
         <v>-1.5871120999999998E-2</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="64">
         <v>-1.417375E-3</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="64">
         <v>0.125541926</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="64">
         <v>0.182183768</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="49">
         <v>2.2151039000000001E-2</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="56">
+      <c r="I17" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="53">
         <f t="shared" ref="J17" si="37">D17/1</f>
         <v>-1.417375E-3</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="53">
         <f t="shared" ref="K17" si="38">E17/1</f>
         <v>0.125541926</v>
       </c>
@@ -7955,678 +7969,678 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="43">
+      <c r="A18" s="59">
         <v>0.79801741100000001</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="60">
         <v>1.0696888999999999E-2</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="43">
         <v>-0.155206818</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="60">
         <v>2.7170057000000001E-2</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="60">
         <v>0.10999735300000001</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="60">
         <v>0.12990044100000001</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <v>2.132704E-3</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="53">
         <f t="shared" ref="J18" si="40">D18/0.8819476</f>
         <v>3.0806883538205671E-2</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="53">
         <f t="shared" ref="K18" si="41">E18/0.8819476</f>
         <v>0.12472096188027497</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="53">
         <f t="shared" ref="L18" si="42">F18/0.8819476</f>
         <v>0.1472881620177888</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="47">
+      <c r="A19" s="61">
         <v>0.90000000199999997</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="62">
         <v>4.6681750000000001E-3</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="46">
         <v>-0.23124994500000001</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="62">
         <v>0.111823822</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="62">
         <v>0.45278823099999999</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="62">
         <v>0.57732922499999995</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="46">
         <v>1.6087830000000001E-2</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="53">
         <f t="shared" ref="J19" si="43">D19/4.0403702</f>
         <v>2.7676627750595727E-2</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="53">
         <f t="shared" ref="K19" si="44">E19/4.0403702</f>
         <v>0.11206602578149893</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="53">
         <f t="shared" ref="L19" si="45">F19/4.0403702</f>
         <v>0.14289017996420228</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="47">
+      <c r="A20" s="61">
         <v>0.30120079999999999</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="62">
         <v>5.0589626999999998E-2</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="46">
         <v>-0.102465743</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="62">
         <v>25.271412850000001</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="62">
         <v>531.38681280000003</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="62">
         <v>744.54548069999998</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="46">
         <v>7.2693599999999999E-3</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="53">
         <f t="shared" ref="J20" si="46">D20/3923</f>
         <v>6.4418589982156516E-3</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="53">
         <f t="shared" ref="K20" si="47">E20/3923</f>
         <v>0.13545419648228396</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L20" s="53">
         <f t="shared" ref="L20" si="48">F20/3923</f>
         <v>0.18978982429263319</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="51">
+      <c r="A21" s="63">
         <v>0.330556138</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="64">
         <v>4.5556587000000003E-2</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="49">
         <v>-9.2685693999999999E-2</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="64">
         <v>6.3986049999999999E-3</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="64">
         <v>0.13543027299999999</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="64">
         <v>0.18894612999999999</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="49">
         <v>7.8124700000000002E-3</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="53">
         <f t="shared" ref="J21" si="49">D21/1</f>
         <v>6.3986049999999999E-3</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="53">
         <f t="shared" ref="K21" si="50">E21/1</f>
         <v>0.13543027299999999</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="53">
         <f t="shared" ref="L21" si="51">F21/1</f>
         <v>0.18894612999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
+      <c r="A22" s="58">
         <v>1.5945739980705101E-10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="57">
         <v>0.162877180443915</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="52">
         <v>0.21350551700000001</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="62">
         <v>2.3365177000000001E-2</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="62">
         <v>8.9453724999999998E-2</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="62">
         <v>0.107183662</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="52">
         <v>0.35431380699999998</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="56">
+        <v>34</v>
+      </c>
+      <c r="J22" s="53">
         <f t="shared" ref="J22" si="52">D22/0.8819476</f>
         <v>2.6492704328465771E-2</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="53">
         <f t="shared" ref="K22" si="53">E22/0.8819476</f>
         <v>0.10142748276654984</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="53">
         <f t="shared" ref="L22" si="54">F22/0.8819476</f>
         <v>0.12153064649192309</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="3">
+      <c r="A23" s="57">
         <v>4.1714768980968701E-2</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="57">
         <v>-4.7270402660136997E-2</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="52">
         <v>-0.23602377599999999</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="62">
         <v>0.15606520800000001</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="62">
         <v>0.44830479600000001</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="62">
         <v>0.57844735899999999</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="52">
         <v>4.3379623999999999E-2</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="56">
+        <v>34</v>
+      </c>
+      <c r="J23" s="53">
         <f t="shared" ref="J23" si="55">D23/4.0403702</f>
         <v>3.8626462495936639E-2</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="53">
         <f t="shared" ref="K23" si="56">E23/4.0403702</f>
         <v>0.11095636632504616</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="53">
         <f t="shared" ref="L23" si="57">F23/4.0403702</f>
         <v>0.14316692044704221</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
+      <c r="A24" s="58">
         <v>3.0984901678166902E-6</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="57">
         <v>0.146091371810087</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="52">
         <v>0.18892056400000001</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="62">
         <v>-14.822058030000001</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="62">
         <v>419.83932570000002</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="62">
         <v>638.61685279999995</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="52">
         <v>0.20756269999999999</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="56">
+        <v>34</v>
+      </c>
+      <c r="J24" s="53">
         <f t="shared" ref="J24" si="58">D24/3923</f>
         <v>-3.7782457379556466E-3</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K24" s="53">
         <f t="shared" ref="K24" si="59">E24/3923</f>
         <v>0.10701996576599541</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="53">
         <f t="shared" ref="L24" si="60">F24/3923</f>
         <v>0.16278787988784094</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
+      <c r="A25" s="58">
         <v>4.9085924130319401E-6</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="57">
         <v>0.18324568284551401</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="52">
         <v>0.19768981699999999</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="62">
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="62">
         <v>0.10626565</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="62">
         <v>0.161905471</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="52">
         <v>0.200054175</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="56">
+        <v>34</v>
+      </c>
+      <c r="J25" s="53">
         <f t="shared" ref="J25" si="61">D25/1</f>
         <v>-5.5774379999999997E-3</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K25" s="53">
         <f t="shared" ref="K25" si="62">E25/1</f>
         <v>0.10626565</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="53">
         <f t="shared" ref="L25" si="63">F25/1</f>
         <v>0.161905471</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="48">
+      <c r="A26" s="62">
         <v>0.126314222</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="62">
         <v>-0.33099990800000001</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="53">
         <v>-7.9147724029999997</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="62">
         <v>0.210144148</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="62">
         <v>0.30968568800000001</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="62">
         <v>0.35392668100000002</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="53">
         <v>2.6657410999999999E-2</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="53">
         <f t="shared" ref="J26" si="64">D26/0.8819476</f>
         <v>0.23827282709312889</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="53">
         <f t="shared" ref="K26" si="65">E26/0.8819476</f>
         <v>0.35113842137560097</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L26" s="53">
         <f t="shared" ref="L26" si="66">F26/0.8819476</f>
         <v>0.40130125758038232</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="48">
+      <c r="A27" s="62">
         <v>0.83339356600000003</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="62">
         <v>1.0522732999999999E-2</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="53">
         <v>-12.94888559</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="62">
         <v>-1.844333311</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="62">
         <v>1.8552318489999999</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="62">
         <v>1.9288391739999999</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="53">
         <v>5.1139399999999998E-4</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="53">
         <f t="shared" ref="J27" si="67">D27/4.0403702</f>
         <v>-0.45647631768989883</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K27" s="53">
         <f t="shared" ref="K27" si="68">E27/4.0403702</f>
         <v>0.4591737284370625</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="53">
         <f t="shared" ref="L27" si="69">F27/4.0403702</f>
         <v>0.47739169395913272</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="48">
+      <c r="A28" s="62">
         <v>1.0608779E-2</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="62">
         <v>-8.9099999999999997E-5</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="53">
         <v>-1.0146567550000001</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="62">
         <v>-732.90112360000001</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="62">
         <v>732.90112360000001</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="62">
         <v>1032.8196359999999</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="53">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="53">
         <f t="shared" ref="J28" si="70">D28/3923</f>
         <v>-0.18682159663522815</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K28" s="53">
         <f t="shared" ref="K28" si="71">E28/3923</f>
         <v>0.18682159663522815</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="53">
         <f t="shared" ref="L28" si="72">F28/3923</f>
         <v>0.26327291256691304</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" s="48">
+      <c r="A29" s="62">
         <v>1.0608777999999999E-2</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="62">
         <v>-0.34934495999999998</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="53">
         <v>-10.887007499999999</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="62">
         <v>0.541082705</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="62">
         <v>0.59008326899999997</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="62">
         <v>0.63950201100000004</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="53">
         <v>7.2705310999999995E-2</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="53">
         <f t="shared" ref="J29" si="73">D29/1</f>
         <v>0.541082705</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="53">
         <f t="shared" ref="K29" si="74">E29/1</f>
         <v>0.59008326899999997</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="53">
         <f t="shared" ref="L29" si="75">F29/1</f>
         <v>0.63950201100000004</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="57">
-        <v>2.8431854409935099E-7</v>
-      </c>
-      <c r="B30">
-        <v>0.32705191140842799</v>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="58">
+        <v>8.8659280860992006E-25</v>
+      </c>
+      <c r="B30" s="57">
+        <v>0.43746840398474701</v>
       </c>
       <c r="C30" s="1">
-        <v>-0.16999082549370101</v>
-      </c>
-      <c r="D30">
-        <v>-1.6419568868344899E-3</v>
-      </c>
-      <c r="E30">
-        <v>0.100878325156845</v>
-      </c>
-      <c r="F30">
-        <v>0.12351830687545901</v>
+        <v>0.42655759363407397</v>
+      </c>
+      <c r="D30" s="57">
+        <v>2.5174756386015899E-3</v>
+      </c>
+      <c r="E30" s="57">
+        <v>7.3569078699238302E-2</v>
+      </c>
+      <c r="F30" s="57">
+        <v>8.64738917669121E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.12982707093752099</v>
-      </c>
-      <c r="H30" t="s">
+        <v>0.427286248356399</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="59">
+      <c r="I30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="55">
         <f>D30/0.8819476</f>
-        <v>-1.8617397301545918E-3</v>
-      </c>
-      <c r="K30" s="59">
+        <v>2.8544503535148685E-3</v>
+      </c>
+      <c r="K30" s="55">
         <f t="shared" ref="K30:L30" si="76">E30/0.8819476</f>
-        <v>0.11438131376154886</v>
-      </c>
-      <c r="L30" s="59">
+        <v>8.3416609670731348E-2</v>
+      </c>
+      <c r="L30" s="55">
         <f t="shared" si="76"/>
-        <v>0.14005175236653403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+        <v>9.8048786307612948E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="57">
-        <v>1.98601137087785E-7</v>
-      </c>
-      <c r="B31">
-        <v>0.25700229775376698</v>
+        <v>1.4315530603383601E-3</v>
+      </c>
+      <c r="B31" s="57">
+        <v>0.136969703957741</v>
       </c>
       <c r="C31" s="1">
-        <v>-0.21052110999995399</v>
-      </c>
-      <c r="D31">
-        <v>0.22217072624088599</v>
-      </c>
-      <c r="E31">
-        <v>0.41345413731681102</v>
-      </c>
-      <c r="F31">
-        <v>0.51200852707075195</v>
+        <v>-9.1370864184262102E-2</v>
+      </c>
+      <c r="D31" s="57">
+        <v>-3.6303858427988903E-2</v>
+      </c>
+      <c r="E31" s="57">
+        <v>0.38897463072605998</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.486157721445034</v>
       </c>
       <c r="G31" s="1">
-        <v>0.133004561554179</v>
-      </c>
-      <c r="H31" t="s">
+        <v>5.2225573584365401E-2</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="59">
+      <c r="I31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="55">
         <f>D31/4.0403702</f>
-        <v>5.4987715294228731E-2</v>
-      </c>
-      <c r="K31" s="59">
+        <v>-8.9852802171417126E-3</v>
+      </c>
+      <c r="K31" s="55">
         <f t="shared" ref="K31:L31" si="77">E31/4.0403702</f>
-        <v>0.10233075605715809</v>
-      </c>
-      <c r="L31" s="59">
+        <v>9.6272027431065596E-2</v>
+      </c>
+      <c r="L31" s="55">
         <f t="shared" si="77"/>
-        <v>0.1267231718199367</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="57">
-        <v>3.2498692287643199E-5</v>
-      </c>
-      <c r="B32">
-        <v>0.15922695526195199</v>
+        <v>0.12032504384005061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="58">
+        <v>1.3070649954645399E-14</v>
+      </c>
+      <c r="B32" s="57">
+        <v>0.24516867133072401</v>
       </c>
       <c r="C32" s="1">
-        <v>-0.109326915764861</v>
-      </c>
-      <c r="D32">
-        <v>-258.97996136546101</v>
-      </c>
-      <c r="E32">
-        <v>487.18821723262499</v>
-      </c>
-      <c r="F32">
-        <v>737.91137501141202</v>
+        <v>0.18354095326964201</v>
+      </c>
+      <c r="D32" s="57">
+        <v>-202.21288136641201</v>
+      </c>
+      <c r="E32" s="57">
+        <v>384.72497081756597</v>
+      </c>
+      <c r="F32" s="57">
+        <v>633.055276048211</v>
       </c>
       <c r="G32" s="1">
-        <v>8.7082864064080695E-2</v>
-      </c>
-      <c r="H32" t="s">
+        <v>0.26894798611937198</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="59">
+      <c r="I32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="55">
         <f>D32/3923</f>
-        <v>-6.6015794383242676E-2</v>
-      </c>
-      <c r="K32" s="59">
+        <v>-5.1545470651647211E-2</v>
+      </c>
+      <c r="K32" s="55">
         <f t="shared" ref="K32:L32" si="78">E32/3923</f>
-        <v>0.12418766689590237</v>
-      </c>
-      <c r="L32" s="59">
+        <v>9.8069072347072642E-2</v>
+      </c>
+      <c r="L32" s="55">
         <f t="shared" si="78"/>
-        <v>0.18809874458613612</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="57">
-        <v>1.97867889018949E-10</v>
-      </c>
-      <c r="B33">
-        <v>0.17990075351434601</v>
+        <v>0.1613701952710199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="58">
+        <v>4.52977448716495E-6</v>
+      </c>
+      <c r="B33" s="57">
+        <v>0.110338268988248</v>
       </c>
       <c r="C33" s="1">
-        <v>3.9850515404377999E-2</v>
-      </c>
-      <c r="D33">
-        <v>-6.9559712278052993E-2</v>
-      </c>
-      <c r="E33">
-        <v>0.106076368994444</v>
-      </c>
-      <c r="F33">
-        <v>0.17499496301491599</v>
+        <v>-0.200737435546509</v>
+      </c>
+      <c r="D33" s="57">
+        <v>-9.8708326147187997E-2</v>
+      </c>
+      <c r="E33" s="57">
+        <v>0.12441652266804</v>
+      </c>
+      <c r="F33" s="57">
+        <v>0.19569518817411</v>
       </c>
       <c r="G33" s="1">
-        <v>0.19236422999674899</v>
-      </c>
-      <c r="H33" t="s">
+        <v>0.10502064476174799</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="59">
+      <c r="I33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="55">
         <f>D33/1</f>
-        <v>-6.9559712278052993E-2</v>
-      </c>
-      <c r="K33" s="59">
+        <v>-9.8708326147187997E-2</v>
+      </c>
+      <c r="K33" s="55">
         <f t="shared" ref="K33:L33" si="79">E33/1</f>
-        <v>0.106076368994444</v>
-      </c>
-      <c r="L33" s="59">
+        <v>0.12441652266804</v>
+      </c>
+      <c r="L33" s="55">
         <f t="shared" si="79"/>
-        <v>0.17499496301491599</v>
+        <v>0.19569518817411</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="57">
+      <c r="A34" s="58">
         <v>4.4936356308012701E-27</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="57">
         <v>0.39242257120226598</v>
       </c>
       <c r="C34" s="1">
         <v>0.43441655441911797</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="57">
         <v>1.3633479505530901E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="57">
         <v>7.3210098715009303E-2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="57">
         <v>8.5879290240757702E-2</v>
       </c>
       <c r="G34" s="1">
@@ -8636,38 +8650,38 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="59">
+        <v>39</v>
+      </c>
+      <c r="J34" s="55">
         <f t="shared" ref="J34" si="80">D34/0.8819476</f>
         <v>1.5458378145743466E-2</v>
       </c>
-      <c r="K34" s="59">
+      <c r="K34" s="55">
         <f t="shared" ref="K34" si="81">E34/0.8819476</f>
         <v>8.3009578704006104E-2</v>
       </c>
-      <c r="L34" s="59">
+      <c r="L34" s="55">
         <f t="shared" ref="L34" si="82">F34/0.8819476</f>
         <v>9.7374594863411046E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="57">
+      <c r="A35" s="58">
         <v>1.5308411722117901E-8</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="57">
         <v>0.14668723274072901</v>
       </c>
       <c r="C35" s="1">
         <v>7.4023566638949601E-2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="57">
         <v>0.13237677177573601</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="57">
         <v>0.33627661282060201</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="57">
         <v>0.447807102036682</v>
       </c>
       <c r="G35" s="1">
@@ -8677,38 +8691,38 @@
         <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="59">
+        <v>39</v>
+      </c>
+      <c r="J35" s="55">
         <f t="shared" ref="J35" si="83">D35/4.0403702</f>
         <v>3.2763525425401861E-2</v>
       </c>
-      <c r="K35" s="59">
+      <c r="K35" s="55">
         <f t="shared" ref="K35" si="84">E35/4.0403702</f>
         <v>8.322915875891819E-2</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="55">
         <f t="shared" ref="L35" si="85">F35/4.0403702</f>
         <v>0.11083318603742845</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="57">
+      <c r="A36" s="58">
         <v>1.5134795324674001E-12</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="57">
         <v>0.168517986109187</v>
       </c>
       <c r="C36" s="1">
         <v>0.19386278965821599</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="57">
         <v>-100.994705851318</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="57">
         <v>415.15392140751197</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="57">
         <v>629.04094333328703</v>
       </c>
       <c r="G36" s="1">
@@ -8718,38 +8732,38 @@
         <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="59">
+        <v>39</v>
+      </c>
+      <c r="J36" s="55">
         <f t="shared" ref="J36" si="86">D36/3923</f>
         <v>-2.5744253339617131E-2</v>
       </c>
-      <c r="K36" s="59">
+      <c r="K36" s="55">
         <f t="shared" ref="K36" si="87">E36/3923</f>
         <v>0.10582562360629925</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="55">
         <f t="shared" ref="L36" si="88">F36/3923</f>
         <v>0.16034691392640504</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="57">
+      <c r="A37" s="58">
         <v>1.45941618646091E-12</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="57">
         <v>0.17062053337024499</v>
       </c>
       <c r="C37" s="1">
         <v>0.19934369616412501</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="57">
         <v>-2.3000869855594901E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="57">
         <v>0.106161103019297</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="57">
         <v>0.15980088693123801</v>
       </c>
       <c r="G37" s="1">
@@ -8759,44 +8773,44 @@
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="59">
+        <v>39</v>
+      </c>
+      <c r="J37" s="55">
         <f t="shared" ref="J37" si="89">D37/1</f>
         <v>-2.3000869855594901E-2</v>
       </c>
-      <c r="K37" s="59">
+      <c r="K37" s="55">
         <f t="shared" ref="K37" si="90">E37/1</f>
         <v>0.106161103019297</v>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="55">
         <f t="shared" ref="L37" si="91">F37/1</f>
         <v>0.15980088693123801</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C40" s="58">
+      <c r="C40" s="54">
         <f>MAX(C2:C9,C15,C14:C21,C30:C33)</f>
-        <v>3.9850515404377999E-2</v>
-      </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58">
+        <v>0.42655759363407397</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54">
         <f>MAX(G2:G9,G15,G14:G21,G30:G33)</f>
-        <v>0.19236422999674899</v>
-      </c>
-      <c r="J40" s="58">
+        <v>0.427286248356399</v>
+      </c>
+      <c r="J40" s="54">
         <f>MIN(J2:J9,J14:J21,J30:J33)</f>
-        <v>-6.9559712278052993E-2</v>
-      </c>
-      <c r="K40" s="58">
+        <v>-9.8708326147187997E-2</v>
+      </c>
+      <c r="K40" s="54">
         <f>MIN(K2:K9,K14:K21,K30:K33)</f>
-        <v>9.7902996116543975E-2</v>
-      </c>
-      <c r="L40" s="58">
+        <v>8.3416609670731348E-2</v>
+      </c>
+      <c r="L40" s="54">
         <f>MIN(L2:L9,L14:L21,L30:L33)</f>
-        <v>0.1267231718199367</v>
+        <v>9.8048786307612948E-2</v>
       </c>
     </row>
   </sheetData>
